--- a/SO SACH/0310686815/2014/BANGKE - 14.xlsx
+++ b/SO SACH/0310686815/2014/BANGKE - 14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8820" tabRatio="756"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8820" tabRatio="756" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TH-MV" sheetId="15" r:id="rId1"/>
@@ -17,15 +17,15 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'TH - BR'!$A$25:$N$241</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TH-MV'!$A$16:$Q$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TH-MV'!$A$16:$Q$123</definedName>
     <definedName name="Dong">IF(Loai=#REF!,ROW(Loai)-1,"")</definedName>
     <definedName name="Dong1">IF(Loai1=#REF!,ROW(Loai1)-1,"")</definedName>
     <definedName name="DSBR">'Huong dan BR'!$R$2:$S$50</definedName>
     <definedName name="DSMV">'Huong dan MV'!$R$2:$T$50</definedName>
-    <definedName name="Loai">OFFSET('TH-MV'!$M$17,,,COUNTA('TH-MV'!$M$17:$M$38768))</definedName>
+    <definedName name="Loai">OFFSET('TH-MV'!$M$17,,,COUNTA('TH-MV'!$M$17:$M$38767))</definedName>
     <definedName name="Loai1">OFFSET('TH - BR'!$L$26,,,COUNTA('[1]TH-BR'!$L$18:$M$38745))</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'TH - BR'!$B$1:$L$254</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'TH-MV'!$B$1:$M$143</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'TH-MV'!$B$1:$M$142</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'TH - BR'!$12:$15</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'TH-MV'!$12:$15</definedName>
   </definedNames>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1197" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="494">
   <si>
     <t>(Kèm theo tờ khai thuế GTGT theo mẫu số 01/GTGT)</t>
   </si>
@@ -3224,12 +3224,12 @@
   <sheetPr>
     <tabColor theme="7" tint="-0.499984740745262"/>
   </sheetPr>
-  <dimension ref="A1:Q144"/>
+  <dimension ref="A1:Q143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="bottomLeft" activeCell="G109" activeCellId="2" sqref="G99 G103 G109"/>
+      <selection pane="bottomLeft" activeCell="A17" sqref="A17:XFD17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3335,8 +3335,8 @@
     </row>
     <row r="7" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="127" t="str">
-        <f>"Kỳ tính thuế: "&amp;IF(LEFT(O14,1)="Q","Quý "&amp;RIGHT(O14,1),"Tháng "&amp;O14)&amp;" Năm "&amp;YEAR(F28)</f>
-        <v>Kỳ tính thuế: Tháng 2 Năm 2014</v>
+        <f>"Kỳ tính thuế: Quý   "&amp;O14&amp;"  Năm  "&amp;YEAR(F26)</f>
+        <v>Kỳ tính thuế: Quý   2  Năm  2014</v>
       </c>
       <c r="C7" s="127"/>
       <c r="D7" s="127"/>
@@ -3453,10 +3453,7 @@
       <c r="K14" s="119"/>
       <c r="L14" s="118"/>
       <c r="M14" s="118"/>
-      <c r="N14" s="117" t="str">
-        <f>IF(OR($O$14=4,$O$14=6,$O$14=9,$O$14=11),"30",IF($O$14=2,"28","31"))</f>
-        <v>28</v>
-      </c>
+      <c r="N14" s="117"/>
       <c r="O14" s="116">
         <v>2</v>
       </c>
@@ -3522,7 +3519,7 @@
       </c>
       <c r="C17" s="48"/>
       <c r="D17" s="49">
-        <f t="shared" ref="D17:D80" si="0">IF(ISNA(VLOOKUP(G17,DSMV,3,0)),"",VLOOKUP(G17,DSMV,3,0))</f>
+        <f t="shared" ref="D17:D79" si="0">IF(ISNA(VLOOKUP(G17,DSMV,3,0)),"",VLOOKUP(G17,DSMV,3,0))</f>
         <v>0</v>
       </c>
       <c r="E17" s="50" t="s">
@@ -3535,7 +3532,7 @@
         <v>399</v>
       </c>
       <c r="H17" s="90">
-        <f t="shared" ref="H17:H80" si="1">IF(ISNA(VLOOKUP(G17,DSMV,2,0)),"",VLOOKUP(G17,DSMV,2,0))</f>
+        <f t="shared" ref="H17:H79" si="1">IF(ISNA(VLOOKUP(G17,DSMV,2,0)),"",VLOOKUP(G17,DSMV,2,0))</f>
         <v>0</v>
       </c>
       <c r="I17" s="51" t="s">
@@ -3560,7 +3557,7 @@
     </row>
     <row r="18" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="47">
-        <f t="shared" ref="B18:B81" si="2">IF(G18&lt;&gt;"",ROW()-16,"")</f>
+        <f t="shared" ref="B18:B80" si="2">IF(G18&lt;&gt;"",ROW()-16,"")</f>
         <v>2</v>
       </c>
       <c r="C18" s="57"/>
@@ -3763,7 +3760,7 @@
         <v>64395</v>
       </c>
       <c r="M22" s="62">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N22" s="54"/>
       <c r="O22" s="55"/>
@@ -3780,71 +3777,70 @@
         <v>0</v>
       </c>
       <c r="E23" s="57" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F23" s="89">
-        <v>41708</v>
+        <v>41711</v>
       </c>
       <c r="G23" s="60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H23" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I23" s="60" t="s">
-        <v>111</v>
+        <v>407</v>
       </c>
       <c r="J23" s="61">
-        <v>643948</v>
+        <v>213905</v>
       </c>
       <c r="K23" s="53">
         <v>0.1</v>
       </c>
       <c r="L23" s="61">
-        <v>64395</v>
+        <v>21390</v>
       </c>
       <c r="M23" s="62">
         <v>1</v>
       </c>
       <c r="N23" s="54"/>
       <c r="O23" s="55"/>
-      <c r="P23" s="54"/>
     </row>
     <row r="24" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="47">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="C24" s="57"/>
+      <c r="C24" s="63"/>
       <c r="D24" s="58">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E24" s="57" t="s">
-        <v>377</v>
+        <v>311</v>
       </c>
       <c r="F24" s="89">
-        <v>41711</v>
+        <v>41722</v>
       </c>
       <c r="G24" s="60" t="s">
-        <v>399</v>
+        <v>89</v>
       </c>
       <c r="H24" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I24" s="60" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J24" s="61">
-        <v>213905</v>
+        <v>3640000</v>
       </c>
       <c r="K24" s="53">
         <v>0.1</v>
       </c>
       <c r="L24" s="61">
-        <v>21390</v>
+        <v>364000</v>
       </c>
       <c r="M24" s="62">
         <v>1</v>
@@ -3863,32 +3859,32 @@
         <v>0</v>
       </c>
       <c r="E25" s="57" t="s">
-        <v>311</v>
+        <v>378</v>
       </c>
       <c r="F25" s="89">
         <v>41722</v>
       </c>
       <c r="G25" s="60" t="s">
-        <v>89</v>
+        <v>400</v>
       </c>
       <c r="H25" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I25" s="60" t="s">
-        <v>408</v>
+        <v>111</v>
       </c>
       <c r="J25" s="61">
-        <v>3640000</v>
+        <v>833758</v>
       </c>
       <c r="K25" s="53">
         <v>0.1</v>
       </c>
       <c r="L25" s="61">
-        <v>364000</v>
+        <v>83376</v>
       </c>
       <c r="M25" s="62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N25" s="54"/>
       <c r="O25" s="55"/>
@@ -3904,29 +3900,29 @@
         <v>0</v>
       </c>
       <c r="E26" s="57" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F26" s="89">
-        <v>41722</v>
+        <v>41737</v>
       </c>
       <c r="G26" s="60" t="s">
-        <v>400</v>
+        <v>89</v>
       </c>
       <c r="H26" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I26" s="60" t="s">
-        <v>111</v>
+        <v>408</v>
       </c>
       <c r="J26" s="61">
-        <v>833758</v>
+        <v>4290000</v>
       </c>
       <c r="K26" s="53">
         <v>0.1</v>
       </c>
       <c r="L26" s="61">
-        <v>83376</v>
+        <v>429000</v>
       </c>
       <c r="M26" s="62">
         <v>2</v>
@@ -3945,10 +3941,10 @@
         <v>0</v>
       </c>
       <c r="E27" s="57" t="s">
-        <v>379</v>
+        <v>129</v>
       </c>
       <c r="F27" s="89">
-        <v>41737</v>
+        <v>41743</v>
       </c>
       <c r="G27" s="60" t="s">
         <v>89</v>
@@ -3961,13 +3957,13 @@
         <v>408</v>
       </c>
       <c r="J27" s="61">
-        <v>4290000</v>
+        <v>3710000</v>
       </c>
       <c r="K27" s="53">
         <v>0.1</v>
       </c>
       <c r="L27" s="61">
-        <v>429000</v>
+        <v>371000</v>
       </c>
       <c r="M27" s="62">
         <v>2</v>
@@ -3986,29 +3982,29 @@
         <v>0</v>
       </c>
       <c r="E28" s="57" t="s">
-        <v>129</v>
+        <v>380</v>
       </c>
       <c r="F28" s="89">
-        <v>41743</v>
+        <v>41747</v>
       </c>
       <c r="G28" s="60" t="s">
-        <v>89</v>
+        <v>399</v>
       </c>
       <c r="H28" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I28" s="60" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J28" s="61">
-        <v>3710000</v>
+        <v>1957106</v>
       </c>
       <c r="K28" s="53">
         <v>0.1</v>
       </c>
       <c r="L28" s="61">
-        <v>371000</v>
+        <v>195710</v>
       </c>
       <c r="M28" s="62">
         <v>2</v>
@@ -4027,29 +4023,29 @@
         <v>0</v>
       </c>
       <c r="E29" s="57" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F29" s="89">
-        <v>41747</v>
+        <v>41748</v>
       </c>
       <c r="G29" s="60" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="H29" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I29" s="60" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="J29" s="61">
-        <v>1957106</v>
+        <v>845909</v>
       </c>
       <c r="K29" s="53">
         <v>0.1</v>
       </c>
       <c r="L29" s="61">
-        <v>195710</v>
+        <v>84591</v>
       </c>
       <c r="M29" s="62">
         <v>2</v>
@@ -4068,29 +4064,29 @@
         <v>0</v>
       </c>
       <c r="E30" s="57" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F30" s="89">
-        <v>41748</v>
+        <v>41753</v>
       </c>
       <c r="G30" s="60" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H30" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I30" s="60" t="s">
-        <v>409</v>
+        <v>111</v>
       </c>
       <c r="J30" s="61">
-        <v>845909</v>
+        <v>1301956</v>
       </c>
       <c r="K30" s="53">
         <v>0.1</v>
       </c>
       <c r="L30" s="61">
-        <v>84591</v>
+        <v>130196</v>
       </c>
       <c r="M30" s="62">
         <v>2</v>
@@ -4109,29 +4105,29 @@
         <v>0</v>
       </c>
       <c r="E31" s="57" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F31" s="89">
-        <v>41753</v>
+        <v>41755</v>
       </c>
       <c r="G31" s="60" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="H31" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I31" s="60" t="s">
-        <v>111</v>
+        <v>410</v>
       </c>
       <c r="J31" s="61">
-        <v>1301956</v>
+        <v>3300000</v>
       </c>
       <c r="K31" s="53">
         <v>0.1</v>
       </c>
       <c r="L31" s="61">
-        <v>130196</v>
+        <v>330000</v>
       </c>
       <c r="M31" s="62">
         <v>2</v>
@@ -4150,29 +4146,29 @@
         <v>0</v>
       </c>
       <c r="E32" s="57" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F32" s="89">
-        <v>41755</v>
+        <v>41783</v>
       </c>
       <c r="G32" s="60" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="H32" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I32" s="60" t="s">
-        <v>410</v>
+        <v>111</v>
       </c>
       <c r="J32" s="61">
-        <v>3300000</v>
+        <v>756428</v>
       </c>
       <c r="K32" s="53">
         <v>0.1</v>
       </c>
       <c r="L32" s="61">
-        <v>330000</v>
+        <v>75643</v>
       </c>
       <c r="M32" s="62">
         <v>2</v>
@@ -4191,29 +4187,29 @@
         <v>0</v>
       </c>
       <c r="E33" s="57" t="s">
-        <v>384</v>
+        <v>159</v>
       </c>
       <c r="F33" s="89">
-        <v>41783</v>
+        <v>41789</v>
       </c>
       <c r="G33" s="60" t="s">
-        <v>400</v>
+        <v>89</v>
       </c>
       <c r="H33" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I33" s="60" t="s">
-        <v>111</v>
+        <v>408</v>
       </c>
       <c r="J33" s="61">
-        <v>756428</v>
+        <v>5040000</v>
       </c>
       <c r="K33" s="53">
         <v>0.1</v>
       </c>
       <c r="L33" s="61">
-        <v>75643</v>
+        <v>504000</v>
       </c>
       <c r="M33" s="62">
         <v>2</v>
@@ -4232,10 +4228,10 @@
         <v>0</v>
       </c>
       <c r="E34" s="57" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="F34" s="89">
-        <v>41789</v>
+        <v>41795</v>
       </c>
       <c r="G34" s="60" t="s">
         <v>89</v>
@@ -4248,13 +4244,13 @@
         <v>408</v>
       </c>
       <c r="J34" s="61">
-        <v>5040000</v>
+        <v>4070000</v>
       </c>
       <c r="K34" s="53">
         <v>0.1</v>
       </c>
       <c r="L34" s="61">
-        <v>504000</v>
+        <v>407000</v>
       </c>
       <c r="M34" s="62">
         <v>2</v>
@@ -4273,29 +4269,29 @@
         <v>0</v>
       </c>
       <c r="E35" s="57" t="s">
-        <v>164</v>
+        <v>385</v>
       </c>
       <c r="F35" s="89">
-        <v>41795</v>
+        <v>41796</v>
       </c>
       <c r="G35" s="60" t="s">
-        <v>89</v>
+        <v>403</v>
       </c>
       <c r="H35" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I35" s="60" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="J35" s="61">
-        <v>4070000</v>
+        <v>2500000</v>
       </c>
       <c r="K35" s="53">
         <v>0.1</v>
       </c>
       <c r="L35" s="61">
-        <v>407000</v>
+        <v>250000</v>
       </c>
       <c r="M35" s="62">
         <v>2</v>
@@ -4310,33 +4306,33 @@
       </c>
       <c r="C36" s="63"/>
       <c r="D36" s="58">
-        <f t="shared" si="0"/>
+        <f>IF(ISNA(VLOOKUP(G36,DSMV,3,0)),"",VLOOKUP(G36,DSMV,3,0))</f>
         <v>0</v>
       </c>
       <c r="E36" s="57" t="s">
-        <v>385</v>
+        <v>179</v>
       </c>
       <c r="F36" s="89">
-        <v>41796</v>
+        <v>41813</v>
       </c>
       <c r="G36" s="60" t="s">
-        <v>403</v>
+        <v>89</v>
       </c>
       <c r="H36" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I36" s="60" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="J36" s="61">
-        <v>2500000</v>
+        <v>1950000</v>
       </c>
       <c r="K36" s="53">
         <v>0.1</v>
       </c>
       <c r="L36" s="61">
-        <v>250000</v>
+        <v>358000</v>
       </c>
       <c r="M36" s="62">
         <v>2</v>
@@ -4346,7 +4342,7 @@
     </row>
     <row r="37" spans="2:15" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="47">
-        <f t="shared" si="2"/>
+        <f>IF(G37&lt;&gt;"",ROW()-16,"")</f>
         <v>21</v>
       </c>
       <c r="C37" s="63"/>
@@ -4355,29 +4351,29 @@
         <v>0</v>
       </c>
       <c r="E37" s="57" t="s">
-        <v>179</v>
+        <v>386</v>
       </c>
       <c r="F37" s="89">
-        <v>41813</v>
+        <v>41814</v>
       </c>
       <c r="G37" s="60" t="s">
-        <v>89</v>
+        <v>400</v>
       </c>
       <c r="H37" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I37" s="60" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="J37" s="61">
-        <v>1950000</v>
+        <v>3580000</v>
       </c>
       <c r="K37" s="53">
         <v>0.1</v>
       </c>
       <c r="L37" s="61">
-        <v>358000</v>
+        <v>124771</v>
       </c>
       <c r="M37" s="62">
         <v>2</v>
@@ -4387,41 +4383,41 @@
     </row>
     <row r="38" spans="2:15" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B38" s="47">
-        <f>IF(G38&lt;&gt;"",ROW()-16,"")</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
       <c r="C38" s="63"/>
       <c r="D38" s="58">
-        <f>IF(ISNA(VLOOKUP(G38,DSMV,3,0)),"",VLOOKUP(G38,DSMV,3,0))</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="E38" s="57" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F38" s="89">
-        <v>41814</v>
+        <v>41836</v>
       </c>
       <c r="G38" s="60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H38" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I38" s="60" t="s">
-        <v>408</v>
+        <v>111</v>
       </c>
       <c r="J38" s="61">
-        <v>3580000</v>
+        <v>1247712</v>
       </c>
       <c r="K38" s="53">
         <v>0.1</v>
       </c>
       <c r="L38" s="61">
-        <v>124771</v>
+        <v>106154</v>
       </c>
       <c r="M38" s="62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N38" s="54"/>
       <c r="O38" s="55"/>
@@ -4437,29 +4433,29 @@
         <v>0</v>
       </c>
       <c r="E39" s="57" t="s">
-        <v>387</v>
+        <v>195</v>
       </c>
       <c r="F39" s="89">
-        <v>41836</v>
+        <v>41838</v>
       </c>
       <c r="G39" s="60" t="s">
-        <v>399</v>
+        <v>89</v>
       </c>
       <c r="H39" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I39" s="60" t="s">
-        <v>111</v>
+        <v>407</v>
       </c>
       <c r="J39" s="61">
-        <v>1247712</v>
+        <v>1061538</v>
       </c>
       <c r="K39" s="53">
         <v>0.1</v>
       </c>
       <c r="L39" s="61">
-        <v>106154</v>
+        <v>407000</v>
       </c>
       <c r="M39" s="62">
         <v>3</v>
@@ -4478,29 +4474,29 @@
         <v>0</v>
       </c>
       <c r="E40" s="57" t="s">
-        <v>195</v>
+        <v>388</v>
       </c>
       <c r="F40" s="89">
-        <v>41838</v>
+        <v>41844</v>
       </c>
       <c r="G40" s="60" t="s">
-        <v>89</v>
+        <v>400</v>
       </c>
       <c r="H40" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I40" s="60" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J40" s="61">
-        <v>1061538</v>
+        <v>4070000</v>
       </c>
       <c r="K40" s="53">
         <v>0.1</v>
       </c>
       <c r="L40" s="61">
-        <v>407000</v>
+        <v>85362</v>
       </c>
       <c r="M40" s="62">
         <v>3</v>
@@ -4519,29 +4515,29 @@
         <v>0</v>
       </c>
       <c r="E41" s="57" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F41" s="89">
-        <v>41844</v>
+        <v>41857</v>
       </c>
       <c r="G41" s="60" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H41" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I41" s="60" t="s">
-        <v>408</v>
+        <v>111</v>
       </c>
       <c r="J41" s="61">
-        <v>4070000</v>
+        <v>853620</v>
       </c>
       <c r="K41" s="53">
         <v>0.1</v>
       </c>
       <c r="L41" s="61">
-        <v>85362</v>
+        <v>52111</v>
       </c>
       <c r="M41" s="62">
         <v>3</v>
@@ -4560,29 +4556,29 @@
         <v>0</v>
       </c>
       <c r="E42" s="57" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F42" s="89">
-        <v>41857</v>
+        <v>41872</v>
       </c>
       <c r="G42" s="60" t="s">
-        <v>399</v>
+        <v>404</v>
       </c>
       <c r="H42" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I42" s="60" t="s">
-        <v>111</v>
+        <v>407</v>
       </c>
       <c r="J42" s="61">
-        <v>853620</v>
+        <v>521108</v>
       </c>
       <c r="K42" s="53">
         <v>0.1</v>
       </c>
       <c r="L42" s="61">
-        <v>52111</v>
+        <v>85425</v>
       </c>
       <c r="M42" s="62">
         <v>3</v>
@@ -4601,29 +4597,29 @@
         <v>0</v>
       </c>
       <c r="E43" s="57" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F43" s="89">
-        <v>41872</v>
+        <v>41875</v>
       </c>
       <c r="G43" s="60" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="H43" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I43" s="60" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="J43" s="61">
-        <v>521108</v>
+        <v>857635</v>
       </c>
       <c r="K43" s="53">
         <v>0.1</v>
       </c>
       <c r="L43" s="61">
-        <v>85425</v>
+        <v>96605</v>
       </c>
       <c r="M43" s="62">
         <v>3</v>
@@ -4642,29 +4638,29 @@
         <v>0</v>
       </c>
       <c r="E44" s="57" t="s">
-        <v>391</v>
+        <v>236</v>
       </c>
       <c r="F44" s="89">
-        <v>41875</v>
+        <v>41881</v>
       </c>
       <c r="G44" s="60" t="s">
-        <v>400</v>
+        <v>89</v>
       </c>
       <c r="H44" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I44" s="60" t="s">
-        <v>409</v>
+        <v>111</v>
       </c>
       <c r="J44" s="61">
-        <v>857635</v>
+        <v>966048</v>
       </c>
       <c r="K44" s="53">
         <v>0.1</v>
       </c>
       <c r="L44" s="61">
-        <v>96605</v>
+        <v>242000</v>
       </c>
       <c r="M44" s="62">
         <v>3</v>
@@ -4683,29 +4679,29 @@
         <v>0</v>
       </c>
       <c r="E45" s="57" t="s">
-        <v>236</v>
+        <v>392</v>
       </c>
       <c r="F45" s="89">
-        <v>41881</v>
+        <v>41889</v>
       </c>
       <c r="G45" s="60" t="s">
-        <v>89</v>
+        <v>399</v>
       </c>
       <c r="H45" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I45" s="60" t="s">
-        <v>111</v>
+        <v>408</v>
       </c>
       <c r="J45" s="61">
-        <v>966048</v>
+        <v>2420000</v>
       </c>
       <c r="K45" s="53">
         <v>0.1</v>
       </c>
       <c r="L45" s="61">
-        <v>242000</v>
+        <v>60787</v>
       </c>
       <c r="M45" s="62">
         <v>3</v>
@@ -4724,29 +4720,29 @@
         <v>0</v>
       </c>
       <c r="E46" s="57" t="s">
-        <v>392</v>
+        <v>242</v>
       </c>
       <c r="F46" s="89">
-        <v>41889</v>
+        <v>41897</v>
       </c>
       <c r="G46" s="60" t="s">
-        <v>399</v>
+        <v>89</v>
       </c>
       <c r="H46" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I46" s="60" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J46" s="61">
-        <v>2420000</v>
+        <v>607871</v>
       </c>
       <c r="K46" s="53">
         <v>0.1</v>
       </c>
       <c r="L46" s="61">
-        <v>60787</v>
+        <v>466500</v>
       </c>
       <c r="M46" s="62">
         <v>3</v>
@@ -4765,10 +4761,10 @@
         <v>0</v>
       </c>
       <c r="E47" s="57" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F47" s="89">
-        <v>41897</v>
+        <v>41907</v>
       </c>
       <c r="G47" s="60" t="s">
         <v>89</v>
@@ -4778,16 +4774,16 @@
         <v>0</v>
       </c>
       <c r="I47" s="60" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J47" s="61">
-        <v>607871</v>
+        <v>4665000</v>
       </c>
       <c r="K47" s="53">
         <v>0.1</v>
       </c>
       <c r="L47" s="61">
-        <v>466500</v>
+        <v>353500</v>
       </c>
       <c r="M47" s="62">
         <v>3</v>
@@ -4806,13 +4802,13 @@
         <v>0</v>
       </c>
       <c r="E48" s="57" t="s">
-        <v>249</v>
+        <v>393</v>
       </c>
       <c r="F48" s="89">
-        <v>41907</v>
+        <v>41924</v>
       </c>
       <c r="G48" s="60" t="s">
-        <v>89</v>
+        <v>399</v>
       </c>
       <c r="H48" s="91">
         <f t="shared" si="1"/>
@@ -4822,16 +4818,16 @@
         <v>408</v>
       </c>
       <c r="J48" s="61">
-        <v>4665000</v>
+        <v>3535000</v>
       </c>
       <c r="K48" s="53">
         <v>0.1</v>
       </c>
       <c r="L48" s="61">
-        <v>353500</v>
+        <v>97049</v>
       </c>
       <c r="M48" s="62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N48" s="54"/>
       <c r="O48" s="55"/>
@@ -4847,29 +4843,29 @@
         <v>0</v>
       </c>
       <c r="E49" s="57" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F49" s="89">
-        <v>41924</v>
+        <v>41925</v>
       </c>
       <c r="G49" s="60" t="s">
-        <v>399</v>
+        <v>405</v>
       </c>
       <c r="H49" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I49" s="60" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J49" s="61">
-        <v>3535000</v>
+        <v>970494</v>
       </c>
       <c r="K49" s="53">
         <v>0.1</v>
       </c>
       <c r="L49" s="61">
-        <v>97049</v>
+        <v>180000</v>
       </c>
       <c r="M49" s="62">
         <v>4</v>
@@ -4888,29 +4884,29 @@
         <v>0</v>
       </c>
       <c r="E50" s="57" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F50" s="89">
-        <v>41925</v>
+        <v>41936</v>
       </c>
       <c r="G50" s="60" t="s">
-        <v>405</v>
+        <v>89</v>
       </c>
       <c r="H50" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I50" s="60" t="s">
-        <v>407</v>
+        <v>413</v>
       </c>
       <c r="J50" s="61">
-        <v>970494</v>
+        <v>1800000</v>
       </c>
       <c r="K50" s="53">
         <v>0.1</v>
       </c>
       <c r="L50" s="61">
-        <v>180000</v>
+        <v>226000</v>
       </c>
       <c r="M50" s="62">
         <v>4</v>
@@ -4929,29 +4925,29 @@
         <v>0</v>
       </c>
       <c r="E51" s="57" t="s">
-        <v>395</v>
+        <v>231</v>
       </c>
       <c r="F51" s="89">
-        <v>41936</v>
+        <v>41940</v>
       </c>
       <c r="G51" s="60" t="s">
-        <v>89</v>
+        <v>406</v>
       </c>
       <c r="H51" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I51" s="60" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="J51" s="61">
-        <v>1800000</v>
+        <v>2260000</v>
       </c>
       <c r="K51" s="53">
         <v>0.1</v>
       </c>
       <c r="L51" s="61">
-        <v>226000</v>
+        <v>78864</v>
       </c>
       <c r="M51" s="62">
         <v>4</v>
@@ -4970,29 +4966,29 @@
         <v>0</v>
       </c>
       <c r="E52" s="57" t="s">
-        <v>231</v>
+        <v>396</v>
       </c>
       <c r="F52" s="89">
-        <v>41940</v>
+        <v>41950</v>
       </c>
       <c r="G52" s="60" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="H52" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I52" s="60" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="J52" s="61">
-        <v>2260000</v>
+        <v>788636</v>
       </c>
       <c r="K52" s="53">
         <v>0.1</v>
       </c>
       <c r="L52" s="61">
-        <v>78864</v>
+        <v>116294</v>
       </c>
       <c r="M52" s="62">
         <v>4</v>
@@ -5011,10 +5007,10 @@
         <v>0</v>
       </c>
       <c r="E53" s="57" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F53" s="89">
-        <v>41950</v>
+        <v>41954</v>
       </c>
       <c r="G53" s="60" t="s">
         <v>399</v>
@@ -5024,16 +5020,16 @@
         <v>0</v>
       </c>
       <c r="I53" s="60" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="J53" s="61">
-        <v>788636</v>
+        <v>136364</v>
       </c>
       <c r="K53" s="53">
         <v>0.1</v>
       </c>
       <c r="L53" s="61">
-        <v>116294</v>
+        <v>13636</v>
       </c>
       <c r="M53" s="62">
         <v>4</v>
@@ -5052,10 +5048,10 @@
         <v>0</v>
       </c>
       <c r="E54" s="57" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F54" s="89">
-        <v>41954</v>
+        <v>41983</v>
       </c>
       <c r="G54" s="60" t="s">
         <v>399</v>
@@ -5068,13 +5064,13 @@
         <v>407</v>
       </c>
       <c r="J54" s="61">
-        <v>136364</v>
+        <v>933603</v>
       </c>
       <c r="K54" s="53">
         <v>0.1</v>
       </c>
       <c r="L54" s="61">
-        <v>13636</v>
+        <v>93362</v>
       </c>
       <c r="M54" s="62">
         <v>4</v>
@@ -5093,29 +5089,29 @@
         <v>0</v>
       </c>
       <c r="E55" s="57" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F55" s="89">
-        <v>41983</v>
+        <v>41989</v>
       </c>
       <c r="G55" s="60" t="s">
-        <v>399</v>
+        <v>89</v>
       </c>
       <c r="H55" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I55" s="60" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="J55" s="61">
-        <v>933603</v>
+        <v>7900000</v>
       </c>
       <c r="K55" s="53">
         <v>0.1</v>
       </c>
       <c r="L55" s="61">
-        <v>93362</v>
+        <v>790000</v>
       </c>
       <c r="M55" s="62">
         <v>4</v>
@@ -5134,32 +5130,32 @@
         <v>0</v>
       </c>
       <c r="E56" s="57" t="s">
-        <v>398</v>
+        <v>414</v>
       </c>
       <c r="F56" s="89">
-        <v>41989</v>
+        <v>41790</v>
       </c>
       <c r="G56" s="60" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="H56" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I56" s="60" t="s">
-        <v>408</v>
+        <v>115</v>
       </c>
       <c r="J56" s="61">
-        <v>7900000</v>
+        <v>1056000</v>
       </c>
       <c r="K56" s="53">
         <v>0.1</v>
       </c>
       <c r="L56" s="61">
-        <v>790000</v>
+        <v>105600</v>
       </c>
       <c r="M56" s="62">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N56" s="54"/>
       <c r="O56" s="55"/>
@@ -5175,10 +5171,10 @@
         <v>0</v>
       </c>
       <c r="E57" s="57" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F57" s="89">
-        <v>41790</v>
+        <v>41821</v>
       </c>
       <c r="G57" s="60" t="s">
         <v>112</v>
@@ -5191,16 +5187,16 @@
         <v>115</v>
       </c>
       <c r="J57" s="61">
-        <v>1056000</v>
+        <v>1080000</v>
       </c>
       <c r="K57" s="53">
         <v>0.1</v>
       </c>
       <c r="L57" s="61">
-        <v>105600</v>
+        <v>108000</v>
       </c>
       <c r="M57" s="62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N57" s="54"/>
       <c r="O57" s="55"/>
@@ -5216,29 +5212,29 @@
         <v>0</v>
       </c>
       <c r="E58" s="57" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F58" s="89">
-        <v>41821</v>
+        <v>41842</v>
       </c>
       <c r="G58" s="60" t="s">
-        <v>112</v>
+        <v>426</v>
       </c>
       <c r="H58" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I58" s="60" t="s">
-        <v>115</v>
+        <v>430</v>
       </c>
       <c r="J58" s="61">
-        <v>1080000</v>
+        <v>16500000</v>
       </c>
       <c r="K58" s="53">
         <v>0.1</v>
       </c>
       <c r="L58" s="61">
-        <v>108000</v>
+        <v>1650000</v>
       </c>
       <c r="M58" s="62">
         <v>3</v>
@@ -5257,10 +5253,10 @@
         <v>0</v>
       </c>
       <c r="E59" s="57" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F59" s="89">
-        <v>41842</v>
+        <v>41850</v>
       </c>
       <c r="G59" s="60" t="s">
         <v>426</v>
@@ -5298,10 +5294,10 @@
         <v>0</v>
       </c>
       <c r="E60" s="57" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F60" s="89">
-        <v>41850</v>
+        <v>41851</v>
       </c>
       <c r="G60" s="60" t="s">
         <v>426</v>
@@ -5314,13 +5310,13 @@
         <v>430</v>
       </c>
       <c r="J60" s="61">
-        <v>16500000</v>
+        <v>8000000</v>
       </c>
       <c r="K60" s="53">
         <v>0.1</v>
       </c>
       <c r="L60" s="61">
-        <v>1650000</v>
+        <v>800000</v>
       </c>
       <c r="M60" s="62">
         <v>3</v>
@@ -5339,10 +5335,10 @@
         <v>0</v>
       </c>
       <c r="E61" s="57" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F61" s="89">
-        <v>41851</v>
+        <v>41857</v>
       </c>
       <c r="G61" s="60" t="s">
         <v>426</v>
@@ -5355,13 +5351,13 @@
         <v>430</v>
       </c>
       <c r="J61" s="61">
-        <v>8000000</v>
+        <v>16500000</v>
       </c>
       <c r="K61" s="53">
         <v>0.1</v>
       </c>
       <c r="L61" s="61">
-        <v>800000</v>
+        <v>1650000</v>
       </c>
       <c r="M61" s="62">
         <v>3</v>
@@ -5380,29 +5376,29 @@
         <v>0</v>
       </c>
       <c r="E62" s="57" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F62" s="89">
-        <v>41857</v>
+        <v>41870</v>
       </c>
       <c r="G62" s="60" t="s">
-        <v>426</v>
+        <v>112</v>
       </c>
       <c r="H62" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I62" s="60" t="s">
-        <v>430</v>
+        <v>115</v>
       </c>
       <c r="J62" s="61">
-        <v>16500000</v>
+        <v>1080000</v>
       </c>
       <c r="K62" s="53">
         <v>0.1</v>
       </c>
       <c r="L62" s="61">
-        <v>1650000</v>
+        <v>108000</v>
       </c>
       <c r="M62" s="62">
         <v>3</v>
@@ -5421,29 +5417,29 @@
         <v>0</v>
       </c>
       <c r="E63" s="57" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F63" s="89">
-        <v>41870</v>
+        <v>41873</v>
       </c>
       <c r="G63" s="60" t="s">
-        <v>112</v>
+        <v>426</v>
       </c>
       <c r="H63" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I63" s="60" t="s">
-        <v>115</v>
+        <v>430</v>
       </c>
       <c r="J63" s="61">
-        <v>1080000</v>
+        <v>16500000</v>
       </c>
       <c r="K63" s="53">
         <v>0.1</v>
       </c>
       <c r="L63" s="61">
-        <v>108000</v>
+        <v>1650000</v>
       </c>
       <c r="M63" s="62">
         <v>3</v>
@@ -5462,29 +5458,29 @@
         <v>0</v>
       </c>
       <c r="E64" s="57" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F64" s="89">
-        <v>41873</v>
+        <v>41902</v>
       </c>
       <c r="G64" s="60" t="s">
-        <v>426</v>
+        <v>112</v>
       </c>
       <c r="H64" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I64" s="60" t="s">
-        <v>430</v>
+        <v>115</v>
       </c>
       <c r="J64" s="61">
-        <v>16500000</v>
+        <v>1080000</v>
       </c>
       <c r="K64" s="53">
         <v>0.1</v>
       </c>
       <c r="L64" s="61">
-        <v>1650000</v>
+        <v>108000</v>
       </c>
       <c r="M64" s="62">
         <v>3</v>
@@ -5503,32 +5499,32 @@
         <v>0</v>
       </c>
       <c r="E65" s="57" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F65" s="89">
-        <v>41902</v>
+        <v>41919</v>
       </c>
       <c r="G65" s="60" t="s">
-        <v>112</v>
+        <v>427</v>
       </c>
       <c r="H65" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I65" s="60" t="s">
-        <v>115</v>
+        <v>431</v>
       </c>
       <c r="J65" s="61">
-        <v>1080000</v>
+        <v>1750000</v>
       </c>
       <c r="K65" s="53">
         <v>0.1</v>
       </c>
       <c r="L65" s="61">
-        <v>108000</v>
+        <v>175000</v>
       </c>
       <c r="M65" s="62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N65" s="54"/>
       <c r="O65" s="55"/>
@@ -5544,29 +5540,29 @@
         <v>0</v>
       </c>
       <c r="E66" s="57" t="s">
-        <v>423</v>
+        <v>280</v>
       </c>
       <c r="F66" s="89">
-        <v>41919</v>
+        <v>41922</v>
       </c>
       <c r="G66" s="60" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="H66" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I66" s="60" t="s">
-        <v>431</v>
+        <v>114</v>
       </c>
       <c r="J66" s="61">
-        <v>1750000</v>
+        <v>3068100</v>
       </c>
       <c r="K66" s="53">
         <v>0.1</v>
       </c>
       <c r="L66" s="61">
-        <v>175000</v>
+        <v>306810</v>
       </c>
       <c r="M66" s="62">
         <v>4</v>
@@ -5585,29 +5581,29 @@
         <v>0</v>
       </c>
       <c r="E67" s="57" t="s">
-        <v>280</v>
+        <v>424</v>
       </c>
       <c r="F67" s="89">
-        <v>41922</v>
+        <v>41943</v>
       </c>
       <c r="G67" s="60" t="s">
-        <v>428</v>
+        <v>112</v>
       </c>
       <c r="H67" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I67" s="60" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="J67" s="61">
-        <v>3068100</v>
+        <v>1080000</v>
       </c>
       <c r="K67" s="53">
         <v>0.1</v>
       </c>
       <c r="L67" s="61">
-        <v>306810</v>
+        <v>108000</v>
       </c>
       <c r="M67" s="62">
         <v>4</v>
@@ -5626,29 +5622,29 @@
         <v>0</v>
       </c>
       <c r="E68" s="57" t="s">
-        <v>424</v>
+        <v>133</v>
       </c>
       <c r="F68" s="89">
-        <v>41943</v>
+        <v>41952</v>
       </c>
       <c r="G68" s="60" t="s">
-        <v>112</v>
+        <v>429</v>
       </c>
       <c r="H68" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I68" s="60" t="s">
-        <v>115</v>
+        <v>432</v>
       </c>
       <c r="J68" s="61">
-        <v>1080000</v>
+        <v>14700000</v>
       </c>
       <c r="K68" s="53">
         <v>0.1</v>
       </c>
       <c r="L68" s="61">
-        <v>108000</v>
+        <v>1470000</v>
       </c>
       <c r="M68" s="62">
         <v>4</v>
@@ -5667,10 +5663,10 @@
         <v>0</v>
       </c>
       <c r="E69" s="57" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F69" s="89">
-        <v>41952</v>
+        <v>41953</v>
       </c>
       <c r="G69" s="60" t="s">
         <v>429</v>
@@ -5708,29 +5704,29 @@
         <v>0</v>
       </c>
       <c r="E70" s="57" t="s">
-        <v>134</v>
+        <v>425</v>
       </c>
       <c r="F70" s="89">
-        <v>41953</v>
+        <v>41993</v>
       </c>
       <c r="G70" s="60" t="s">
-        <v>429</v>
+        <v>112</v>
       </c>
       <c r="H70" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I70" s="60" t="s">
-        <v>432</v>
+        <v>115</v>
       </c>
       <c r="J70" s="61">
-        <v>14700000</v>
+        <v>1080000</v>
       </c>
       <c r="K70" s="53">
         <v>0.1</v>
       </c>
       <c r="L70" s="61">
-        <v>1470000</v>
+        <v>108000</v>
       </c>
       <c r="M70" s="62">
         <v>4</v>
@@ -5749,32 +5745,30 @@
         <v>0</v>
       </c>
       <c r="E71" s="57" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="F71" s="89">
-        <v>41993</v>
+        <v>41655</v>
       </c>
       <c r="G71" s="60" t="s">
-        <v>112</v>
+        <v>477</v>
       </c>
       <c r="H71" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I71" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="J71" s="61">
-        <v>1080000</v>
-      </c>
+        <v>123</v>
+      </c>
+      <c r="J71" s="61"/>
       <c r="K71" s="53">
         <v>0.1</v>
       </c>
       <c r="L71" s="61">
-        <v>108000</v>
+        <v>1756388</v>
       </c>
       <c r="M71" s="62">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N71" s="54"/>
       <c r="O71" s="55"/>
@@ -5790,10 +5784,10 @@
         <v>0</v>
       </c>
       <c r="E72" s="57" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F72" s="89">
-        <v>41655</v>
+        <v>41659</v>
       </c>
       <c r="G72" s="60" t="s">
         <v>477</v>
@@ -5810,7 +5804,7 @@
         <v>0.1</v>
       </c>
       <c r="L72" s="61">
-        <v>1756388</v>
+        <v>1356080</v>
       </c>
       <c r="M72" s="62">
         <v>1</v>
@@ -5829,10 +5823,10 @@
         <v>0</v>
       </c>
       <c r="E73" s="57" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F73" s="89">
-        <v>41659</v>
+        <v>41661</v>
       </c>
       <c r="G73" s="60" t="s">
         <v>477</v>
@@ -5849,7 +5843,7 @@
         <v>0.1</v>
       </c>
       <c r="L73" s="61">
-        <v>1356080</v>
+        <v>1793940</v>
       </c>
       <c r="M73" s="62">
         <v>1</v>
@@ -5868,13 +5862,13 @@
         <v>0</v>
       </c>
       <c r="E74" s="57" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F74" s="89">
-        <v>41661</v>
+        <v>41755</v>
       </c>
       <c r="G74" s="60" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="H74" s="91">
         <f t="shared" si="1"/>
@@ -5888,10 +5882,10 @@
         <v>0.1</v>
       </c>
       <c r="L74" s="61">
-        <v>1793940</v>
+        <v>1781717</v>
       </c>
       <c r="M74" s="62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N74" s="54"/>
       <c r="O74" s="55"/>
@@ -5907,10 +5901,10 @@
         <v>0</v>
       </c>
       <c r="E75" s="57" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F75" s="89">
-        <v>41755</v>
+        <v>41758</v>
       </c>
       <c r="G75" s="60" t="s">
         <v>478</v>
@@ -5927,7 +5921,7 @@
         <v>0.1</v>
       </c>
       <c r="L75" s="61">
-        <v>1781717</v>
+        <v>1795840</v>
       </c>
       <c r="M75" s="62">
         <v>2</v>
@@ -5946,13 +5940,13 @@
         <v>0</v>
       </c>
       <c r="E76" s="57" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F76" s="89">
         <v>41758</v>
       </c>
       <c r="G76" s="60" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="H76" s="91">
         <f t="shared" si="1"/>
@@ -5966,7 +5960,7 @@
         <v>0.1</v>
       </c>
       <c r="L76" s="61">
-        <v>1795840</v>
+        <v>4560950</v>
       </c>
       <c r="M76" s="62">
         <v>2</v>
@@ -5985,27 +5979,27 @@
         <v>0</v>
       </c>
       <c r="E77" s="57" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F77" s="89">
-        <v>41758</v>
+        <v>41761</v>
       </c>
       <c r="G77" s="60" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="H77" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I77" s="60" t="s">
-        <v>123</v>
+        <v>487</v>
       </c>
       <c r="J77" s="61"/>
       <c r="K77" s="53">
         <v>0.1</v>
       </c>
       <c r="L77" s="61">
-        <v>4560950</v>
+        <v>1598085</v>
       </c>
       <c r="M77" s="62">
         <v>2</v>
@@ -6024,27 +6018,27 @@
         <v>0</v>
       </c>
       <c r="E78" s="57" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F78" s="89">
-        <v>41761</v>
+        <v>41773</v>
       </c>
       <c r="G78" s="60" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="H78" s="91">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I78" s="60" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="J78" s="61"/>
       <c r="K78" s="53">
         <v>0.1</v>
       </c>
       <c r="L78" s="61">
-        <v>1598085</v>
+        <v>2951605</v>
       </c>
       <c r="M78" s="62">
         <v>2</v>
@@ -6063,10 +6057,10 @@
         <v>0</v>
       </c>
       <c r="E79" s="57" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F79" s="89">
-        <v>41773</v>
+        <v>41774</v>
       </c>
       <c r="G79" s="60" t="s">
         <v>480</v>
@@ -6076,14 +6070,14 @@
         <v>0</v>
       </c>
       <c r="I79" s="60" t="s">
-        <v>488</v>
+        <v>123</v>
       </c>
       <c r="J79" s="61"/>
       <c r="K79" s="53">
         <v>0.1</v>
       </c>
       <c r="L79" s="61">
-        <v>2951605</v>
+        <v>1860305</v>
       </c>
       <c r="M79" s="62">
         <v>2</v>
@@ -6098,31 +6092,31 @@
       </c>
       <c r="C80" s="63"/>
       <c r="D80" s="58">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="D80:D121" si="3">IF(ISNA(VLOOKUP(G80,DSMV,3,0)),"",VLOOKUP(G80,DSMV,3,0))</f>
         <v>0</v>
       </c>
       <c r="E80" s="57" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F80" s="89">
-        <v>41774</v>
+        <v>41776</v>
       </c>
       <c r="G80" s="60" t="s">
         <v>480</v>
       </c>
       <c r="H80" s="91">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="H80:H121" si="4">IF(ISNA(VLOOKUP(G80,DSMV,2,0)),"",VLOOKUP(G80,DSMV,2,0))</f>
         <v>0</v>
       </c>
       <c r="I80" s="60" t="s">
-        <v>123</v>
+        <v>488</v>
       </c>
       <c r="J80" s="61"/>
       <c r="K80" s="53">
         <v>0.1</v>
       </c>
       <c r="L80" s="61">
-        <v>1860305</v>
+        <v>1437715</v>
       </c>
       <c r="M80" s="62">
         <v>2</v>
@@ -6132,36 +6126,36 @@
     </row>
     <row r="81" spans="2:15" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="47">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="B81:B121" si="5">IF(G81&lt;&gt;"",ROW()-16,"")</f>
         <v>65</v>
       </c>
       <c r="C81" s="63"/>
       <c r="D81" s="58">
-        <f t="shared" ref="D81:D122" si="3">IF(ISNA(VLOOKUP(G81,DSMV,3,0)),"",VLOOKUP(G81,DSMV,3,0))</f>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E81" s="57" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F81" s="89">
-        <v>41776</v>
+        <v>41781</v>
       </c>
       <c r="G81" s="60" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="H81" s="91">
-        <f t="shared" ref="H81:H122" si="4">IF(ISNA(VLOOKUP(G81,DSMV,2,0)),"",VLOOKUP(G81,DSMV,2,0))</f>
+        <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I81" s="60" t="s">
-        <v>488</v>
+        <v>123</v>
       </c>
       <c r="J81" s="61"/>
       <c r="K81" s="53">
         <v>0.1</v>
       </c>
       <c r="L81" s="61">
-        <v>1437715</v>
+        <v>1541760</v>
       </c>
       <c r="M81" s="62">
         <v>2</v>
@@ -6171,7 +6165,7 @@
     </row>
     <row r="82" spans="2:15" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="47">
-        <f t="shared" ref="B82:B122" si="5">IF(G82&lt;&gt;"",ROW()-16,"")</f>
+        <f t="shared" si="5"/>
         <v>66</v>
       </c>
       <c r="C82" s="63"/>
@@ -6180,10 +6174,10 @@
         <v>0</v>
       </c>
       <c r="E82" s="57" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F82" s="89">
-        <v>41781</v>
+        <v>41783</v>
       </c>
       <c r="G82" s="60" t="s">
         <v>478</v>
@@ -6200,7 +6194,7 @@
         <v>0.1</v>
       </c>
       <c r="L82" s="61">
-        <v>1541760</v>
+        <v>1369385</v>
       </c>
       <c r="M82" s="62">
         <v>2</v>
@@ -6219,10 +6213,10 @@
         <v>0</v>
       </c>
       <c r="E83" s="57" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F83" s="89">
-        <v>41783</v>
+        <v>41792</v>
       </c>
       <c r="G83" s="60" t="s">
         <v>478</v>
@@ -6232,14 +6226,14 @@
         <v>0</v>
       </c>
       <c r="I83" s="60" t="s">
-        <v>123</v>
+        <v>487</v>
       </c>
       <c r="J83" s="61"/>
       <c r="K83" s="53">
         <v>0.1</v>
       </c>
       <c r="L83" s="61">
-        <v>1369385</v>
+        <v>12622909</v>
       </c>
       <c r="M83" s="62">
         <v>2</v>
@@ -6258,27 +6252,27 @@
         <v>0</v>
       </c>
       <c r="E84" s="57" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F84" s="89">
-        <v>41792</v>
+        <v>41820</v>
       </c>
       <c r="G84" s="60" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="H84" s="91">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I84" s="60" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="J84" s="61"/>
       <c r="K84" s="53">
         <v>0.1</v>
       </c>
       <c r="L84" s="61">
-        <v>12622909</v>
+        <v>8695500</v>
       </c>
       <c r="M84" s="62">
         <v>2</v>
@@ -6297,13 +6291,13 @@
         <v>0</v>
       </c>
       <c r="E85" s="57" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F85" s="89">
-        <v>41820</v>
+        <v>41823</v>
       </c>
       <c r="G85" s="60" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H85" s="91">
         <f t="shared" si="4"/>
@@ -6317,10 +6311,10 @@
         <v>0.1</v>
       </c>
       <c r="L85" s="61">
-        <v>8695500</v>
+        <v>9834810</v>
       </c>
       <c r="M85" s="62">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N85" s="54"/>
       <c r="O85" s="55"/>
@@ -6336,13 +6330,13 @@
         <v>0</v>
       </c>
       <c r="E86" s="57" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F86" s="89">
-        <v>41823</v>
+        <v>41826</v>
       </c>
       <c r="G86" s="60" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H86" s="91">
         <f t="shared" si="4"/>
@@ -6356,7 +6350,7 @@
         <v>0.1</v>
       </c>
       <c r="L86" s="61">
-        <v>9834810</v>
+        <v>8215250</v>
       </c>
       <c r="M86" s="62">
         <v>3</v>
@@ -6375,27 +6369,27 @@
         <v>0</v>
       </c>
       <c r="E87" s="57" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F87" s="89">
-        <v>41826</v>
+        <v>41827</v>
       </c>
       <c r="G87" s="60" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="H87" s="91">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I87" s="60" t="s">
-        <v>489</v>
+        <v>124</v>
       </c>
       <c r="J87" s="61"/>
       <c r="K87" s="53">
         <v>0.1</v>
       </c>
       <c r="L87" s="61">
-        <v>8215250</v>
+        <v>12560700</v>
       </c>
       <c r="M87" s="62">
         <v>3</v>
@@ -6414,27 +6408,27 @@
         <v>0</v>
       </c>
       <c r="E88" s="57" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F88" s="89">
-        <v>41827</v>
+        <v>41830</v>
       </c>
       <c r="G88" s="60" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="H88" s="91">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I88" s="60" t="s">
-        <v>124</v>
+        <v>489</v>
       </c>
       <c r="J88" s="61"/>
       <c r="K88" s="53">
         <v>0.1</v>
       </c>
       <c r="L88" s="61">
-        <v>12560700</v>
+        <v>12959950</v>
       </c>
       <c r="M88" s="62">
         <v>3</v>
@@ -6453,27 +6447,27 @@
         <v>0</v>
       </c>
       <c r="E89" s="57" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F89" s="89">
-        <v>41830</v>
+        <v>41832</v>
       </c>
       <c r="G89" s="60" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="H89" s="91">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I89" s="60" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J89" s="61"/>
       <c r="K89" s="53">
         <v>0.1</v>
       </c>
       <c r="L89" s="61">
-        <v>12959950</v>
+        <v>1679265</v>
       </c>
       <c r="M89" s="62">
         <v>3</v>
@@ -6492,27 +6486,27 @@
         <v>0</v>
       </c>
       <c r="E90" s="57" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F90" s="89">
-        <v>41832</v>
+        <v>41834</v>
       </c>
       <c r="G90" s="60" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="H90" s="91">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I90" s="60" t="s">
-        <v>490</v>
+        <v>124</v>
       </c>
       <c r="J90" s="61"/>
       <c r="K90" s="53">
         <v>0.1</v>
       </c>
       <c r="L90" s="61">
-        <v>1679265</v>
+        <v>4110660</v>
       </c>
       <c r="M90" s="62">
         <v>3</v>
@@ -6531,27 +6525,27 @@
         <v>0</v>
       </c>
       <c r="E91" s="57" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F91" s="89">
         <v>41834</v>
       </c>
       <c r="G91" s="60" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="H91" s="91">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I91" s="60" t="s">
-        <v>124</v>
+        <v>490</v>
       </c>
       <c r="J91" s="61"/>
       <c r="K91" s="53">
         <v>0.1</v>
       </c>
       <c r="L91" s="61">
-        <v>4110660</v>
+        <v>4683840</v>
       </c>
       <c r="M91" s="62">
         <v>3</v>
@@ -6570,27 +6564,27 @@
         <v>0</v>
       </c>
       <c r="E92" s="57" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F92" s="89">
-        <v>41834</v>
+        <v>41835</v>
       </c>
       <c r="G92" s="60" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H92" s="91">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I92" s="60" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J92" s="61"/>
       <c r="K92" s="53">
         <v>0.1</v>
       </c>
       <c r="L92" s="61">
-        <v>4683840</v>
+        <v>7854000</v>
       </c>
       <c r="M92" s="62">
         <v>3</v>
@@ -6609,27 +6603,27 @@
         <v>0</v>
       </c>
       <c r="E93" s="57" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F93" s="89">
-        <v>41835</v>
+        <v>41836</v>
       </c>
       <c r="G93" s="60" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="H93" s="91">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I93" s="60" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J93" s="61"/>
       <c r="K93" s="53">
         <v>0.1</v>
       </c>
       <c r="L93" s="61">
-        <v>7854000</v>
+        <v>5287680</v>
       </c>
       <c r="M93" s="62">
         <v>3</v>
@@ -6648,10 +6642,10 @@
         <v>0</v>
       </c>
       <c r="E94" s="57" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F94" s="89">
-        <v>41836</v>
+        <v>41837</v>
       </c>
       <c r="G94" s="60" t="s">
         <v>483</v>
@@ -6668,7 +6662,7 @@
         <v>0.1</v>
       </c>
       <c r="L94" s="61">
-        <v>5287680</v>
+        <v>4987200</v>
       </c>
       <c r="M94" s="62">
         <v>3</v>
@@ -6687,10 +6681,10 @@
         <v>0</v>
       </c>
       <c r="E95" s="57" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F95" s="89">
-        <v>41837</v>
+        <v>41841</v>
       </c>
       <c r="G95" s="60" t="s">
         <v>483</v>
@@ -6707,7 +6701,7 @@
         <v>0.1</v>
       </c>
       <c r="L95" s="61">
-        <v>4987200</v>
+        <v>5992320</v>
       </c>
       <c r="M95" s="62">
         <v>3</v>
@@ -6726,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="E96" s="57" t="s">
-        <v>457</v>
+        <v>253</v>
       </c>
       <c r="F96" s="89">
         <v>41841</v>
@@ -6746,7 +6740,7 @@
         <v>0.1</v>
       </c>
       <c r="L96" s="61">
-        <v>5992320</v>
+        <v>3384960</v>
       </c>
       <c r="M96" s="62">
         <v>3</v>
@@ -6765,27 +6759,27 @@
         <v>0</v>
       </c>
       <c r="E97" s="57" t="s">
-        <v>253</v>
+        <v>458</v>
       </c>
       <c r="F97" s="89">
-        <v>41841</v>
+        <v>41847</v>
       </c>
       <c r="G97" s="60" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H97" s="91">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I97" s="60" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="J97" s="61"/>
       <c r="K97" s="53">
         <v>0.1</v>
       </c>
       <c r="L97" s="61">
-        <v>3384960</v>
+        <v>4998000</v>
       </c>
       <c r="M97" s="62">
         <v>3</v>
@@ -6804,27 +6798,27 @@
         <v>0</v>
       </c>
       <c r="E98" s="57" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F98" s="89">
-        <v>41847</v>
+        <v>41848</v>
       </c>
       <c r="G98" s="60" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="H98" s="91">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I98" s="60" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="J98" s="61"/>
       <c r="K98" s="53">
         <v>0.1</v>
       </c>
       <c r="L98" s="61">
-        <v>4998000</v>
+        <v>2357120</v>
       </c>
       <c r="M98" s="62">
         <v>3</v>
@@ -6843,27 +6837,27 @@
         <v>0</v>
       </c>
       <c r="E99" s="57" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F99" s="89">
-        <v>41848</v>
+        <v>41849</v>
       </c>
       <c r="G99" s="60" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="H99" s="91">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I99" s="60" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="J99" s="61"/>
       <c r="K99" s="53">
         <v>0.1</v>
       </c>
       <c r="L99" s="61">
-        <v>2357120</v>
+        <v>1777920</v>
       </c>
       <c r="M99" s="62">
         <v>3</v>
@@ -6882,10 +6876,10 @@
         <v>0</v>
       </c>
       <c r="E100" s="57" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F100" s="89">
-        <v>41849</v>
+        <v>41850</v>
       </c>
       <c r="G100" s="60" t="s">
         <v>483</v>
@@ -6895,14 +6889,14 @@
         <v>0</v>
       </c>
       <c r="I100" s="60" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="J100" s="61"/>
       <c r="K100" s="53">
         <v>0.1</v>
       </c>
       <c r="L100" s="61">
-        <v>1777920</v>
+        <v>5818560</v>
       </c>
       <c r="M100" s="62">
         <v>3</v>
@@ -6921,27 +6915,27 @@
         <v>0</v>
       </c>
       <c r="E101" s="57" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F101" s="89">
-        <v>41850</v>
+        <v>41852</v>
       </c>
       <c r="G101" s="60" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="H101" s="91">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I101" s="60" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="J101" s="61"/>
       <c r="K101" s="53">
         <v>0.1</v>
       </c>
       <c r="L101" s="61">
-        <v>5818560</v>
+        <v>4853500</v>
       </c>
       <c r="M101" s="62">
         <v>3</v>
@@ -6960,27 +6954,27 @@
         <v>0</v>
       </c>
       <c r="E102" s="57" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F102" s="89">
-        <v>41852</v>
+        <v>41853</v>
       </c>
       <c r="G102" s="60" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="H102" s="91">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I102" s="60" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="J102" s="61"/>
       <c r="K102" s="53">
         <v>0.1</v>
       </c>
       <c r="L102" s="61">
-        <v>4853500</v>
+        <v>9119240</v>
       </c>
       <c r="M102" s="62">
         <v>3</v>
@@ -6999,27 +6993,27 @@
         <v>0</v>
       </c>
       <c r="E103" s="57" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F103" s="89">
         <v>41853</v>
       </c>
       <c r="G103" s="60" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="H103" s="91">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I103" s="60" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J103" s="61"/>
       <c r="K103" s="53">
         <v>0.1</v>
       </c>
       <c r="L103" s="61">
-        <v>9119240</v>
+        <v>5916960</v>
       </c>
       <c r="M103" s="62">
         <v>3</v>
@@ -7038,10 +7032,10 @@
         <v>0</v>
       </c>
       <c r="E104" s="57" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F104" s="89">
-        <v>41853</v>
+        <v>41858</v>
       </c>
       <c r="G104" s="60" t="s">
         <v>483</v>
@@ -7051,14 +7045,14 @@
         <v>0</v>
       </c>
       <c r="I104" s="60" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J104" s="61"/>
       <c r="K104" s="53">
         <v>0.1</v>
       </c>
       <c r="L104" s="61">
-        <v>5916960</v>
+        <v>3912760</v>
       </c>
       <c r="M104" s="62">
         <v>3</v>
@@ -7077,10 +7071,10 @@
         <v>0</v>
       </c>
       <c r="E105" s="57" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F105" s="89">
-        <v>41858</v>
+        <v>41859</v>
       </c>
       <c r="G105" s="60" t="s">
         <v>483</v>
@@ -7090,14 +7084,14 @@
         <v>0</v>
       </c>
       <c r="I105" s="60" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="J105" s="61"/>
       <c r="K105" s="53">
         <v>0.1</v>
       </c>
       <c r="L105" s="61">
-        <v>3912760</v>
+        <v>5063040</v>
       </c>
       <c r="M105" s="62">
         <v>3</v>
@@ -7116,10 +7110,10 @@
         <v>0</v>
       </c>
       <c r="E106" s="57" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F106" s="89">
-        <v>41859</v>
+        <v>41864</v>
       </c>
       <c r="G106" s="60" t="s">
         <v>483</v>
@@ -7136,7 +7130,7 @@
         <v>0.1</v>
       </c>
       <c r="L106" s="61">
-        <v>5063040</v>
+        <v>4781840</v>
       </c>
       <c r="M106" s="62">
         <v>3</v>
@@ -7155,27 +7149,27 @@
         <v>0</v>
       </c>
       <c r="E107" s="57" t="s">
-        <v>467</v>
+        <v>133</v>
       </c>
       <c r="F107" s="89">
-        <v>41864</v>
+        <v>41900</v>
       </c>
       <c r="G107" s="60" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="H107" s="91">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
       <c r="I107" s="60" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="J107" s="61"/>
       <c r="K107" s="53">
         <v>0.1</v>
       </c>
       <c r="L107" s="61">
-        <v>4781840</v>
+        <v>4009760</v>
       </c>
       <c r="M107" s="62">
         <v>3</v>
@@ -7194,13 +7188,13 @@
         <v>0</v>
       </c>
       <c r="E108" s="57" t="s">
-        <v>133</v>
+        <v>468</v>
       </c>
       <c r="F108" s="89">
-        <v>41900</v>
+        <v>41928</v>
       </c>
       <c r="G108" s="60" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H108" s="91">
         <f t="shared" si="4"/>
@@ -7214,10 +7208,10 @@
         <v>0.1</v>
       </c>
       <c r="L108" s="61">
-        <v>4009760</v>
+        <v>1555200</v>
       </c>
       <c r="M108" s="62">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N108" s="54"/>
       <c r="O108" s="55"/>
@@ -7233,10 +7227,10 @@
         <v>0</v>
       </c>
       <c r="E109" s="57" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F109" s="89">
-        <v>41928</v>
+        <v>41941</v>
       </c>
       <c r="G109" s="60" t="s">
         <v>486</v>
@@ -7253,7 +7247,7 @@
         <v>0.1</v>
       </c>
       <c r="L109" s="61">
-        <v>1555200</v>
+        <v>1686240</v>
       </c>
       <c r="M109" s="62">
         <v>4</v>
@@ -7272,13 +7266,13 @@
         <v>0</v>
       </c>
       <c r="E110" s="57" t="s">
-        <v>469</v>
+        <v>156</v>
       </c>
       <c r="F110" s="89">
-        <v>41941</v>
+        <v>41946</v>
       </c>
       <c r="G110" s="60" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H110" s="91">
         <f t="shared" si="4"/>
@@ -7292,7 +7286,7 @@
         <v>0.1</v>
       </c>
       <c r="L110" s="61">
-        <v>1686240</v>
+        <v>1794000</v>
       </c>
       <c r="M110" s="62">
         <v>4</v>
@@ -7311,10 +7305,10 @@
         <v>0</v>
       </c>
       <c r="E111" s="57" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="F111" s="89">
-        <v>41946</v>
+        <v>41949</v>
       </c>
       <c r="G111" s="60" t="s">
         <v>485</v>
@@ -7331,7 +7325,7 @@
         <v>0.1</v>
       </c>
       <c r="L111" s="61">
-        <v>1794000</v>
+        <v>1731600</v>
       </c>
       <c r="M111" s="62">
         <v>4</v>
@@ -7350,10 +7344,10 @@
         <v>0</v>
       </c>
       <c r="E112" s="57" t="s">
-        <v>161</v>
+        <v>335</v>
       </c>
       <c r="F112" s="89">
-        <v>41949</v>
+        <v>41951</v>
       </c>
       <c r="G112" s="60" t="s">
         <v>485</v>
@@ -7370,7 +7364,7 @@
         <v>0.1</v>
       </c>
       <c r="L112" s="61">
-        <v>1731600</v>
+        <v>1443000</v>
       </c>
       <c r="M112" s="62">
         <v>4</v>
@@ -7389,10 +7383,10 @@
         <v>0</v>
       </c>
       <c r="E113" s="57" t="s">
-        <v>335</v>
+        <v>177</v>
       </c>
       <c r="F113" s="89">
-        <v>41951</v>
+        <v>41963</v>
       </c>
       <c r="G113" s="60" t="s">
         <v>485</v>
@@ -7409,7 +7403,7 @@
         <v>0.1</v>
       </c>
       <c r="L113" s="61">
-        <v>1443000</v>
+        <v>13930020</v>
       </c>
       <c r="M113" s="62">
         <v>4</v>
@@ -7428,13 +7422,13 @@
         <v>0</v>
       </c>
       <c r="E114" s="57" t="s">
-        <v>177</v>
+        <v>470</v>
       </c>
       <c r="F114" s="89">
-        <v>41963</v>
+        <v>41977</v>
       </c>
       <c r="G114" s="60" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H114" s="91">
         <f t="shared" si="4"/>
@@ -7448,7 +7442,7 @@
         <v>0.1</v>
       </c>
       <c r="L114" s="61">
-        <v>13930020</v>
+        <v>1695060</v>
       </c>
       <c r="M114" s="62">
         <v>4</v>
@@ -7467,10 +7461,10 @@
         <v>0</v>
       </c>
       <c r="E115" s="57" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F115" s="89">
-        <v>41977</v>
+        <v>41982</v>
       </c>
       <c r="G115" s="60" t="s">
         <v>486</v>
@@ -7487,7 +7481,7 @@
         <v>0.1</v>
       </c>
       <c r="L115" s="61">
-        <v>1695060</v>
+        <v>1751270</v>
       </c>
       <c r="M115" s="62">
         <v>4</v>
@@ -7506,10 +7500,10 @@
         <v>0</v>
       </c>
       <c r="E116" s="57" t="s">
-        <v>471</v>
+        <v>459</v>
       </c>
       <c r="F116" s="89">
-        <v>41982</v>
+        <v>41986</v>
       </c>
       <c r="G116" s="60" t="s">
         <v>486</v>
@@ -7526,7 +7520,7 @@
         <v>0.1</v>
       </c>
       <c r="L116" s="61">
-        <v>1751270</v>
+        <v>1576070</v>
       </c>
       <c r="M116" s="62">
         <v>4</v>
@@ -7545,13 +7539,13 @@
         <v>0</v>
       </c>
       <c r="E117" s="57" t="s">
-        <v>459</v>
+        <v>196</v>
       </c>
       <c r="F117" s="89">
-        <v>41986</v>
+        <v>41988</v>
       </c>
       <c r="G117" s="60" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="H117" s="91">
         <f t="shared" si="4"/>
@@ -7565,7 +7559,7 @@
         <v>0.1</v>
       </c>
       <c r="L117" s="61">
-        <v>1576070</v>
+        <v>12818520</v>
       </c>
       <c r="M117" s="62">
         <v>4</v>
@@ -7584,13 +7578,13 @@
         <v>0</v>
       </c>
       <c r="E118" s="57" t="s">
-        <v>196</v>
+        <v>472</v>
       </c>
       <c r="F118" s="89">
-        <v>41988</v>
+        <v>41992</v>
       </c>
       <c r="G118" s="60" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="H118" s="91">
         <f t="shared" si="4"/>
@@ -7604,7 +7598,7 @@
         <v>0.1</v>
       </c>
       <c r="L118" s="61">
-        <v>12818520</v>
+        <v>1449050</v>
       </c>
       <c r="M118" s="62">
         <v>4</v>
@@ -7623,10 +7617,10 @@
         <v>0</v>
       </c>
       <c r="E119" s="57" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F119" s="89">
-        <v>41992</v>
+        <v>41996</v>
       </c>
       <c r="G119" s="60" t="s">
         <v>486</v>
@@ -7643,7 +7637,7 @@
         <v>0.1</v>
       </c>
       <c r="L119" s="61">
-        <v>1449050</v>
+        <v>1719880</v>
       </c>
       <c r="M119" s="62">
         <v>4</v>
@@ -7662,10 +7656,10 @@
         <v>0</v>
       </c>
       <c r="E120" s="57" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F120" s="89">
-        <v>41996</v>
+        <v>41998</v>
       </c>
       <c r="G120" s="60" t="s">
         <v>486</v>
@@ -7682,7 +7676,7 @@
         <v>0.1</v>
       </c>
       <c r="L120" s="61">
-        <v>1719880</v>
+        <v>1716960</v>
       </c>
       <c r="M120" s="62">
         <v>4</v>
@@ -7701,10 +7695,10 @@
         <v>0</v>
       </c>
       <c r="E121" s="57" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F121" s="89">
-        <v>41998</v>
+        <v>42002</v>
       </c>
       <c r="G121" s="60" t="s">
         <v>486</v>
@@ -7721,7 +7715,7 @@
         <v>0.1</v>
       </c>
       <c r="L121" s="61">
-        <v>1716960</v>
+        <v>928560</v>
       </c>
       <c r="M121" s="62">
         <v>4</v>
@@ -7731,25 +7725,25 @@
     </row>
     <row r="122" spans="2:15" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="47">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="B122" si="6">IF(G122&lt;&gt;"",ROW()-16,"")</f>
         <v>106</v>
       </c>
       <c r="C122" s="63"/>
       <c r="D122" s="58">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D122" si="7">IF(ISNA(VLOOKUP(G122,DSMV,3,0)),"",VLOOKUP(G122,DSMV,3,0))</f>
         <v>0</v>
       </c>
       <c r="E122" s="57" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F122" s="89">
-        <v>42002</v>
+        <v>42003</v>
       </c>
       <c r="G122" s="60" t="s">
         <v>486</v>
       </c>
       <c r="H122" s="91">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="H122" si="8">IF(ISNA(VLOOKUP(G122,DSMV,2,0)),"",VLOOKUP(G122,DSMV,2,0))</f>
         <v>0</v>
       </c>
       <c r="I122" s="60" t="s">
@@ -7760,7 +7754,7 @@
         <v>0.1</v>
       </c>
       <c r="L122" s="61">
-        <v>928560</v>
+        <v>1649070</v>
       </c>
       <c r="M122" s="62">
         <v>4</v>
@@ -7769,292 +7763,269 @@
       <c r="O122" s="55"/>
     </row>
     <row r="123" spans="2:15" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B123" s="47">
-        <f t="shared" ref="B123" si="6">IF(G123&lt;&gt;"",ROW()-16,"")</f>
-        <v>107</v>
+      <c r="B123" s="47" t="str">
+        <f t="shared" ref="B123" si="9">IF(G123&lt;&gt;"",ROW()-16,"")</f>
+        <v/>
       </c>
       <c r="C123" s="63"/>
-      <c r="D123" s="58">
-        <f t="shared" ref="D123" si="7">IF(ISNA(VLOOKUP(G123,DSMV,3,0)),"",VLOOKUP(G123,DSMV,3,0))</f>
-        <v>0</v>
-      </c>
-      <c r="E123" s="57" t="s">
-        <v>476</v>
-      </c>
-      <c r="F123" s="89">
-        <v>42003</v>
-      </c>
-      <c r="G123" s="60" t="s">
-        <v>486</v>
-      </c>
-      <c r="H123" s="91">
-        <f t="shared" ref="H123" si="8">IF(ISNA(VLOOKUP(G123,DSMV,2,0)),"",VLOOKUP(G123,DSMV,2,0))</f>
-        <v>0</v>
-      </c>
-      <c r="I123" s="60" t="s">
-        <v>493</v>
-      </c>
+      <c r="D123" s="58"/>
+      <c r="E123" s="57"/>
+      <c r="F123" s="89"/>
+      <c r="G123" s="60"/>
+      <c r="H123" s="91"/>
+      <c r="I123" s="60"/>
       <c r="J123" s="61"/>
-      <c r="K123" s="53">
-        <v>0.1</v>
-      </c>
-      <c r="L123" s="61">
-        <v>1649070</v>
-      </c>
-      <c r="M123" s="62">
-        <v>4</v>
-      </c>
+      <c r="K123" s="53"/>
+      <c r="L123" s="61"/>
+      <c r="M123" s="64"/>
       <c r="N123" s="54"/>
       <c r="O123" s="55"/>
     </row>
-    <row r="124" spans="2:15" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B124" s="47" t="str">
-        <f t="shared" ref="B124" si="9">IF(G124&lt;&gt;"",ROW()-16,"")</f>
-        <v/>
-      </c>
-      <c r="C124" s="63"/>
-      <c r="D124" s="58"/>
-      <c r="E124" s="57"/>
-      <c r="F124" s="89"/>
-      <c r="G124" s="60"/>
-      <c r="H124" s="91"/>
-      <c r="I124" s="60"/>
-      <c r="J124" s="61"/>
-      <c r="K124" s="53"/>
-      <c r="L124" s="61"/>
-      <c r="M124" s="64"/>
-      <c r="N124" s="54"/>
-      <c r="O124" s="55"/>
-    </row>
-    <row r="125" spans="2:15" s="65" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B125" s="66" t="s">
+    <row r="124" spans="2:15" s="65" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B124" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C125" s="67"/>
-      <c r="D125" s="68"/>
-      <c r="E125" s="69"/>
-      <c r="F125" s="68"/>
-      <c r="G125" s="68"/>
-      <c r="H125" s="68"/>
-      <c r="I125" s="68"/>
-      <c r="J125" s="70">
-        <f>SUBTOTAL(9,J17:J124)</f>
-        <v>204329888</v>
-      </c>
-      <c r="K125" s="70"/>
-      <c r="L125" s="70">
-        <f>SUBTOTAL(9,L17:L124)</f>
-        <v>247079958</v>
-      </c>
-      <c r="M125" s="68"/>
+      <c r="C124" s="67"/>
+      <c r="D124" s="68"/>
+      <c r="E124" s="69"/>
+      <c r="F124" s="68"/>
+      <c r="G124" s="68"/>
+      <c r="H124" s="68"/>
+      <c r="I124" s="68"/>
+      <c r="J124" s="70">
+        <f>SUBTOTAL(9,J17:J123)</f>
+        <v>203685940</v>
+      </c>
+      <c r="K124" s="70"/>
+      <c r="L124" s="70">
+        <f>SUBTOTAL(9,L17:L123)</f>
+        <v>247015563</v>
+      </c>
+      <c r="M124" s="68"/>
+      <c r="N124" s="55"/>
+    </row>
+    <row r="125" spans="2:15" s="65" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B125" s="71"/>
+      <c r="C125" s="72"/>
+      <c r="D125" s="73"/>
+      <c r="E125" s="74"/>
+      <c r="F125" s="73"/>
+      <c r="G125" s="73"/>
+      <c r="H125" s="73"/>
+      <c r="I125" s="73"/>
+      <c r="J125" s="75"/>
+      <c r="K125" s="75"/>
+      <c r="L125" s="75"/>
+      <c r="M125" s="76"/>
       <c r="N125" s="55"/>
     </row>
-    <row r="126" spans="2:15" s="65" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B126" s="71"/>
-      <c r="C126" s="72"/>
-      <c r="D126" s="73"/>
-      <c r="E126" s="74"/>
-      <c r="F126" s="73"/>
-      <c r="G126" s="73"/>
-      <c r="H126" s="73"/>
-      <c r="I126" s="73"/>
-      <c r="J126" s="75"/>
-      <c r="K126" s="75"/>
-      <c r="L126" s="75"/>
-      <c r="M126" s="76"/>
+    <row r="126" spans="2:15" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B126" s="77" t="s">
+        <v>70</v>
+      </c>
+      <c r="C126" s="78"/>
+      <c r="D126" s="78"/>
+      <c r="E126" s="78"/>
+      <c r="F126" s="78"/>
+      <c r="G126" s="78"/>
+      <c r="H126" s="78"/>
+      <c r="I126" s="78"/>
+      <c r="J126" s="79"/>
+      <c r="K126" s="80"/>
+      <c r="L126" s="79"/>
+      <c r="M126" s="81"/>
       <c r="N126" s="55"/>
     </row>
-    <row r="127" spans="2:15" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B127" s="77" t="s">
-        <v>70</v>
-      </c>
-      <c r="C127" s="78"/>
-      <c r="D127" s="78"/>
-      <c r="E127" s="78"/>
-      <c r="F127" s="78"/>
-      <c r="G127" s="78"/>
-      <c r="H127" s="78"/>
-      <c r="I127" s="78"/>
-      <c r="J127" s="79"/>
-      <c r="K127" s="80"/>
-      <c r="L127" s="79"/>
-      <c r="M127" s="81"/>
+    <row r="127" spans="2:15" s="65" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B127" s="66" t="s">
+        <v>11</v>
+      </c>
+      <c r="C127" s="67"/>
+      <c r="D127" s="68"/>
+      <c r="E127" s="69"/>
+      <c r="F127" s="68"/>
+      <c r="G127" s="68"/>
+      <c r="H127" s="68"/>
+      <c r="I127" s="68"/>
+      <c r="J127" s="82"/>
+      <c r="K127" s="82"/>
+      <c r="L127" s="82"/>
+      <c r="M127" s="68"/>
       <c r="N127" s="55"/>
     </row>
-    <row r="128" spans="2:15" s="65" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B128" s="66" t="s">
+    <row r="128" spans="2:15" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B128" s="77" t="s">
+        <v>71</v>
+      </c>
+      <c r="C128" s="78"/>
+      <c r="D128" s="78"/>
+      <c r="E128" s="78"/>
+      <c r="F128" s="78"/>
+      <c r="G128" s="78"/>
+      <c r="H128" s="78"/>
+      <c r="I128" s="78"/>
+      <c r="J128" s="79"/>
+      <c r="K128" s="80"/>
+      <c r="L128" s="79"/>
+      <c r="M128" s="81"/>
+      <c r="N128" s="55"/>
+    </row>
+    <row r="129" spans="2:14" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B129" s="46"/>
+      <c r="C129" s="83"/>
+      <c r="D129" s="83"/>
+      <c r="E129" s="43"/>
+      <c r="F129" s="84"/>
+      <c r="G129" s="83"/>
+      <c r="H129" s="43"/>
+      <c r="I129" s="83"/>
+      <c r="J129" s="85"/>
+      <c r="K129" s="83"/>
+      <c r="L129" s="85"/>
+      <c r="M129" s="83"/>
+      <c r="N129" s="55"/>
+    </row>
+    <row r="130" spans="2:14" s="65" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B130" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C128" s="67"/>
-      <c r="D128" s="68"/>
-      <c r="E128" s="69"/>
-      <c r="F128" s="68"/>
-      <c r="G128" s="68"/>
-      <c r="H128" s="68"/>
-      <c r="I128" s="68"/>
-      <c r="J128" s="82"/>
-      <c r="K128" s="82"/>
-      <c r="L128" s="82"/>
-      <c r="M128" s="68"/>
-      <c r="N128" s="55"/>
-    </row>
-    <row r="129" spans="2:14" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B129" s="77" t="s">
-        <v>71</v>
-      </c>
-      <c r="C129" s="78"/>
-      <c r="D129" s="78"/>
-      <c r="E129" s="78"/>
-      <c r="F129" s="78"/>
-      <c r="G129" s="78"/>
-      <c r="H129" s="78"/>
-      <c r="I129" s="78"/>
-      <c r="J129" s="79"/>
-      <c r="K129" s="80"/>
-      <c r="L129" s="79"/>
-      <c r="M129" s="81"/>
-      <c r="N129" s="55"/>
-    </row>
-    <row r="130" spans="2:14" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B130" s="46"/>
-      <c r="C130" s="83"/>
-      <c r="D130" s="83"/>
-      <c r="E130" s="43"/>
-      <c r="F130" s="84"/>
-      <c r="G130" s="83"/>
-      <c r="H130" s="43"/>
-      <c r="I130" s="83"/>
-      <c r="J130" s="85"/>
-      <c r="K130" s="83"/>
-      <c r="L130" s="85"/>
-      <c r="M130" s="83"/>
+      <c r="C130" s="67"/>
+      <c r="D130" s="68"/>
+      <c r="E130" s="69"/>
+      <c r="F130" s="68"/>
+      <c r="G130" s="68"/>
+      <c r="H130" s="68"/>
+      <c r="I130" s="68"/>
+      <c r="J130" s="82"/>
+      <c r="K130" s="68"/>
+      <c r="L130" s="82"/>
+      <c r="M130" s="68"/>
       <c r="N130" s="55"/>
     </row>
     <row r="131" spans="2:14" s="65" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B131" s="66" t="s">
+      <c r="B131" s="77" t="s">
+        <v>72</v>
+      </c>
+      <c r="C131" s="78"/>
+      <c r="D131" s="78"/>
+      <c r="E131" s="78"/>
+      <c r="F131" s="78"/>
+      <c r="G131" s="78"/>
+      <c r="H131" s="78"/>
+      <c r="I131" s="78"/>
+      <c r="J131" s="79"/>
+      <c r="K131" s="80"/>
+      <c r="L131" s="79"/>
+      <c r="M131" s="81"/>
+      <c r="N131" s="55"/>
+    </row>
+    <row r="132" spans="2:14" s="65" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B132" s="46"/>
+      <c r="C132" s="83"/>
+      <c r="D132" s="83"/>
+      <c r="E132" s="43"/>
+      <c r="F132" s="84"/>
+      <c r="G132" s="83"/>
+      <c r="H132" s="43"/>
+      <c r="I132" s="83"/>
+      <c r="J132" s="85"/>
+      <c r="K132" s="83"/>
+      <c r="L132" s="85"/>
+      <c r="M132" s="83"/>
+      <c r="N132" s="55"/>
+    </row>
+    <row r="133" spans="2:14" s="65" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B133" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C131" s="67"/>
-      <c r="D131" s="68"/>
-      <c r="E131" s="69"/>
-      <c r="F131" s="68"/>
-      <c r="G131" s="68"/>
-      <c r="H131" s="68"/>
-      <c r="I131" s="68"/>
-      <c r="J131" s="82"/>
-      <c r="K131" s="68"/>
-      <c r="L131" s="82"/>
-      <c r="M131" s="68"/>
-      <c r="N131" s="55"/>
-    </row>
-    <row r="132" spans="2:14" s="65" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B132" s="77" t="s">
-        <v>72</v>
-      </c>
-      <c r="C132" s="78"/>
-      <c r="D132" s="78"/>
-      <c r="E132" s="78"/>
-      <c r="F132" s="78"/>
-      <c r="G132" s="78"/>
-      <c r="H132" s="78"/>
-      <c r="I132" s="78"/>
-      <c r="J132" s="79"/>
-      <c r="K132" s="80"/>
-      <c r="L132" s="79"/>
-      <c r="M132" s="81"/>
-      <c r="N132" s="55"/>
-    </row>
-    <row r="133" spans="2:14" s="65" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B133" s="46"/>
-      <c r="C133" s="83"/>
-      <c r="D133" s="83"/>
-      <c r="E133" s="43"/>
-      <c r="F133" s="84"/>
-      <c r="G133" s="83"/>
-      <c r="H133" s="43"/>
-      <c r="I133" s="83"/>
-      <c r="J133" s="85"/>
-      <c r="K133" s="83"/>
-      <c r="L133" s="85"/>
-      <c r="M133" s="83"/>
+      <c r="C133" s="67"/>
+      <c r="D133" s="68"/>
+      <c r="E133" s="69"/>
+      <c r="F133" s="68"/>
+      <c r="G133" s="68"/>
+      <c r="H133" s="68"/>
+      <c r="I133" s="68"/>
+      <c r="J133" s="82"/>
+      <c r="K133" s="68"/>
+      <c r="L133" s="82"/>
+      <c r="M133" s="68"/>
       <c r="N133" s="55"/>
     </row>
-    <row r="134" spans="2:14" s="65" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B134" s="66" t="s">
+    <row r="134" spans="2:14" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B134" s="77" t="s">
+        <v>40</v>
+      </c>
+      <c r="C134" s="78"/>
+      <c r="D134" s="78"/>
+      <c r="E134" s="78"/>
+      <c r="F134" s="78"/>
+      <c r="G134" s="78"/>
+      <c r="H134" s="78"/>
+      <c r="I134" s="78"/>
+      <c r="J134" s="79"/>
+      <c r="K134" s="80"/>
+      <c r="L134" s="79"/>
+      <c r="M134" s="81"/>
+      <c r="N134" s="55"/>
+    </row>
+    <row r="135" spans="2:14" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B135" s="46"/>
+      <c r="C135" s="83"/>
+      <c r="D135" s="83"/>
+      <c r="E135" s="43"/>
+      <c r="F135" s="84"/>
+      <c r="G135" s="83"/>
+      <c r="H135" s="43"/>
+      <c r="I135" s="83"/>
+      <c r="J135" s="85"/>
+      <c r="K135" s="83"/>
+      <c r="L135" s="85"/>
+      <c r="M135" s="83"/>
+      <c r="N135" s="55"/>
+    </row>
+    <row r="136" spans="2:14" s="65" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B136" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="C134" s="67"/>
-      <c r="D134" s="68"/>
-      <c r="E134" s="69"/>
-      <c r="F134" s="68"/>
-      <c r="G134" s="68"/>
-      <c r="H134" s="68"/>
-      <c r="I134" s="68"/>
-      <c r="J134" s="82"/>
-      <c r="K134" s="68"/>
-      <c r="L134" s="82"/>
-      <c r="M134" s="68"/>
-      <c r="N134" s="55"/>
-    </row>
-    <row r="135" spans="2:14" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B135" s="77" t="s">
-        <v>40</v>
-      </c>
-      <c r="C135" s="78"/>
-      <c r="D135" s="78"/>
-      <c r="E135" s="78"/>
-      <c r="F135" s="78"/>
-      <c r="G135" s="78"/>
-      <c r="H135" s="78"/>
-      <c r="I135" s="78"/>
-      <c r="J135" s="79"/>
-      <c r="K135" s="80"/>
-      <c r="L135" s="79"/>
-      <c r="M135" s="81"/>
-      <c r="N135" s="55"/>
-    </row>
-    <row r="136" spans="2:14" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B136" s="46"/>
-      <c r="C136" s="83"/>
-      <c r="D136" s="83"/>
-      <c r="E136" s="43"/>
-      <c r="F136" s="84"/>
-      <c r="G136" s="83"/>
-      <c r="H136" s="43"/>
-      <c r="I136" s="83"/>
-      <c r="J136" s="85"/>
-      <c r="K136" s="83"/>
-      <c r="L136" s="85"/>
-      <c r="M136" s="83"/>
-      <c r="N136" s="55"/>
-    </row>
-    <row r="137" spans="2:14" s="65" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B137" s="66" t="s">
-        <v>11</v>
-      </c>
-      <c r="C137" s="67"/>
-      <c r="D137" s="68"/>
-      <c r="E137" s="69"/>
-      <c r="F137" s="68"/>
-      <c r="G137" s="68"/>
-      <c r="H137" s="68"/>
-      <c r="I137" s="68"/>
-      <c r="J137" s="82"/>
-      <c r="K137" s="68"/>
-      <c r="L137" s="82"/>
-      <c r="M137" s="68"/>
-      <c r="N137" s="86"/>
+      <c r="C136" s="67"/>
+      <c r="D136" s="68"/>
+      <c r="E136" s="69"/>
+      <c r="F136" s="68"/>
+      <c r="G136" s="68"/>
+      <c r="H136" s="68"/>
+      <c r="I136" s="68"/>
+      <c r="J136" s="82"/>
+      <c r="K136" s="68"/>
+      <c r="L136" s="82"/>
+      <c r="M136" s="68"/>
+      <c r="N136" s="86"/>
+    </row>
+    <row r="137" spans="2:14" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="D137" s="37"/>
+      <c r="E137" s="38"/>
+      <c r="F137" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="G137" s="37"/>
+      <c r="H137" s="86">
+        <f>J124</f>
+        <v>203685940</v>
+      </c>
+      <c r="I137" s="37"/>
+      <c r="K137" s="39"/>
+      <c r="M137" s="37"/>
+      <c r="N137" s="55"/>
     </row>
     <row r="138" spans="2:14" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D138" s="37"/>
       <c r="E138" s="38"/>
       <c r="F138" s="36" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="G138" s="37"/>
       <c r="H138" s="86">
-        <f>J125</f>
-        <v>204329888</v>
+        <f>L124</f>
+        <v>247015563</v>
       </c>
       <c r="I138" s="37"/>
       <c r="K138" s="39"/>
@@ -8062,36 +8033,34 @@
       <c r="N138" s="55"/>
     </row>
     <row r="139" spans="2:14" s="36" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B139" s="87"/>
+      <c r="C139" s="87"/>
       <c r="D139" s="37"/>
       <c r="E139" s="38"/>
-      <c r="F139" s="36" t="s">
-        <v>86</v>
-      </c>
+      <c r="F139" s="37"/>
       <c r="G139" s="37"/>
-      <c r="H139" s="86">
-        <f>L125</f>
-        <v>247079958</v>
-      </c>
+      <c r="H139" s="37"/>
       <c r="I139" s="37"/>
-      <c r="K139" s="39"/>
-      <c r="M139" s="37"/>
+      <c r="J139" s="113" t="str">
+        <f>"Bình Chánh, "&amp;IF($O$14=1,"Ngày  31  Tháng  03  ",IF($O$14=2,"Ngày  30  Tháng  06  ",IF($O$14=3," Ngày 30  Tháng  09  ",IF($O$14=4," Ngày  31  Tháng  12  "))))&amp;"Năm  "&amp;YEAR(F26)</f>
+        <v>Bình Chánh, Ngày  30  Tháng  06  Năm  2014</v>
+      </c>
+      <c r="K139" s="113"/>
       <c r="N139" s="55"/>
     </row>
     <row r="140" spans="2:14" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B140" s="87"/>
-      <c r="C140" s="87"/>
       <c r="D140" s="37"/>
       <c r="E140" s="38"/>
       <c r="F140" s="37"/>
       <c r="G140" s="37"/>
       <c r="H140" s="37"/>
       <c r="I140" s="37"/>
-      <c r="J140" s="113" t="str">
-        <f>"Bình Chánh, Ngày  "&amp;N14&amp;"   Tháng   "&amp;O14&amp;"   Năm  "&amp;YEAR(F49)</f>
-        <v>Bình Chánh, Ngày  28   Tháng   2   Năm  2014</v>
-      </c>
-      <c r="K140" s="113"/>
-      <c r="N140" s="55"/>
+      <c r="J140" s="111" t="s">
+        <v>15</v>
+      </c>
+      <c r="K140" s="111"/>
+      <c r="L140" s="111"/>
+      <c r="M140" s="111"/>
     </row>
     <row r="141" spans="2:14" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D141" s="37"/>
@@ -8101,7 +8070,7 @@
       <c r="H141" s="37"/>
       <c r="I141" s="37"/>
       <c r="J141" s="111" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="K141" s="111"/>
       <c r="L141" s="111"/>
@@ -8115,7 +8084,7 @@
       <c r="H142" s="37"/>
       <c r="I142" s="37"/>
       <c r="J142" s="111" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="K142" s="111"/>
       <c r="L142" s="111"/>
@@ -8128,25 +8097,11 @@
       <c r="G143" s="37"/>
       <c r="H143" s="37"/>
       <c r="I143" s="37"/>
-      <c r="J143" s="111" t="s">
-        <v>17</v>
-      </c>
-      <c r="K143" s="111"/>
-      <c r="L143" s="111"/>
-      <c r="M143" s="111"/>
-    </row>
-    <row r="144" spans="2:14" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="D144" s="37"/>
-      <c r="E144" s="38"/>
-      <c r="F144" s="37"/>
-      <c r="G144" s="37"/>
-      <c r="H144" s="37"/>
-      <c r="I144" s="37"/>
-      <c r="K144" s="39"/>
-      <c r="M144" s="37"/>
+      <c r="K143" s="39"/>
+      <c r="M143" s="37"/>
     </row>
   </sheetData>
-  <autoFilter ref="A16:Q124"/>
+  <autoFilter ref="A16:Q123"/>
   <sortState ref="A240:Q249">
     <sortCondition ref="F240:F249"/>
   </sortState>
@@ -8168,7 +8123,7 @@
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O14">
-      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12"</formula1>
+      <formula1>"1,2,3,4"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
@@ -8187,10 +8142,10 @@
   </sheetPr>
   <dimension ref="A1:N255"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="bottomLeft" activeCell="G233" sqref="G233"/>
+      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8292,8 +8247,8 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B7" s="135" t="str">
-        <f>"Kỳ tính thuế: "&amp;IF(LEFT(N14,1)="Q","Quý "&amp;RIGHT(N14,1),"Tháng "&amp;N14)&amp;" Năm "&amp;YEAR(F28)</f>
-        <v>Kỳ tính thuế: Tháng 2 Năm 2014</v>
+        <f>"Kỳ tính thuế: Quý   "&amp;N14&amp;"  Năm  "&amp;YEAR(F26)</f>
+        <v>Kỳ tính thuế: Quý   2  Năm  2014</v>
       </c>
       <c r="C7" s="135"/>
       <c r="D7" s="135"/>
@@ -15409,8 +15364,8 @@
       <c r="G251" s="15"/>
       <c r="H251" s="15"/>
       <c r="I251" s="35" t="str">
-        <f>"Bình Dương, "&amp;IF($N$14=1,"Ngày 31 Tháng 03  ",IF($N$14=2,"Ngày 30 Tháng 06  ",IF($N$14=3,"Ngày 30 Tháng 09  ",IF($N$14=4,"Ngày 31 Tháng 12  "))))&amp;"Năm  "&amp;YEAR(F26)</f>
-        <v>Bình Dương, Ngày 30 Tháng 06  Năm  2014</v>
+        <f>"Bình Chánh, "&amp;IF($N$14=1,"Ngày  31  Tháng  03  ",IF($N$14=2,"Ngày  30  Tháng  06  ",IF($N$14=3," Ngày 30  Tháng  09  ",IF($N$14=4," Ngày  31  Tháng  12  "))))&amp;"Năm  "&amp;YEAR(F26)</f>
+        <v>Bình Chánh, Ngày  30  Tháng  06  Năm  2014</v>
       </c>
     </row>
     <row r="252" spans="2:12" x14ac:dyDescent="0.2">
@@ -15483,7 +15438,7 @@
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N14">
-      <formula1>"1,2,3,4,5,6,7,8,9,10,11,12"</formula1>
+      <formula1>"1,2,3,4"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>

--- a/SO SACH/0310686815/2014/BANGKE - 14.xlsx
+++ b/SO SACH/0310686815/2014/BANGKE - 14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8820" tabRatio="756" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8820" tabRatio="756"/>
   </bookViews>
   <sheets>
     <sheet name="TH-MV" sheetId="15" r:id="rId1"/>
@@ -197,7 +197,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1194" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1202" uniqueCount="500">
   <si>
     <t>(Kèm theo tờ khai thuế GTGT theo mẫu số 01/GTGT)</t>
   </si>
@@ -1679,6 +1679,24 @@
   </si>
   <si>
     <t>Giấy xeo</t>
+  </si>
+  <si>
+    <t>01GTKT3/001</t>
+  </si>
+  <si>
+    <t>KP/11P</t>
+  </si>
+  <si>
+    <t>0300954529</t>
+  </si>
+  <si>
+    <t>AA/11P</t>
+  </si>
+  <si>
+    <t>0300951119-001</t>
+  </si>
+  <si>
+    <t>AB/11T</t>
   </si>
 </sst>
 </file>
@@ -3226,7 +3244,7 @@
   </sheetPr>
   <dimension ref="A1:Q143"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
       <selection pane="bottomLeft" activeCell="A17" sqref="A17:XFD17"/>
@@ -3518,9 +3536,9 @@
         <v>1</v>
       </c>
       <c r="C17" s="48"/>
-      <c r="D17" s="49">
+      <c r="D17" s="49" t="str">
         <f t="shared" ref="D17:D79" si="0">IF(ISNA(VLOOKUP(G17,DSMV,3,0)),"",VLOOKUP(G17,DSMV,3,0))</f>
-        <v>0</v>
+        <v>AA/11P</v>
       </c>
       <c r="E17" s="50" t="s">
         <v>372</v>
@@ -3531,9 +3549,9 @@
       <c r="G17" s="51" t="s">
         <v>399</v>
       </c>
-      <c r="H17" s="90">
+      <c r="H17" s="90" t="str">
         <f t="shared" ref="H17:H79" si="1">IF(ISNA(VLOOKUP(G17,DSMV,2,0)),"",VLOOKUP(G17,DSMV,2,0))</f>
-        <v>0</v>
+        <v>0300954529</v>
       </c>
       <c r="I17" s="51" t="s">
         <v>407</v>
@@ -3604,9 +3622,9 @@
         <v>3</v>
       </c>
       <c r="C19" s="57"/>
-      <c r="D19" s="58">
+      <c r="D19" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>AB/11T</v>
       </c>
       <c r="E19" s="57" t="s">
         <v>374</v>
@@ -3617,9 +3635,9 @@
       <c r="G19" s="60" t="s">
         <v>400</v>
       </c>
-      <c r="H19" s="91">
+      <c r="H19" s="91" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0300951119-001</v>
       </c>
       <c r="I19" s="60" t="s">
         <v>111</v>
@@ -3646,9 +3664,9 @@
         <v>4</v>
       </c>
       <c r="C20" s="57"/>
-      <c r="D20" s="58">
+      <c r="D20" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>AA/11P</v>
       </c>
       <c r="E20" s="57" t="s">
         <v>375</v>
@@ -3659,9 +3677,9 @@
       <c r="G20" s="60" t="s">
         <v>399</v>
       </c>
-      <c r="H20" s="91">
+      <c r="H20" s="91" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0300954529</v>
       </c>
       <c r="I20" s="60" t="s">
         <v>407</v>
@@ -3730,9 +3748,9 @@
         <v>6</v>
       </c>
       <c r="C22" s="57"/>
-      <c r="D22" s="58">
+      <c r="D22" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>AB/11T</v>
       </c>
       <c r="E22" s="57" t="s">
         <v>376</v>
@@ -3743,9 +3761,9 @@
       <c r="G22" s="60" t="s">
         <v>400</v>
       </c>
-      <c r="H22" s="91">
+      <c r="H22" s="91" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0300951119-001</v>
       </c>
       <c r="I22" s="60" t="s">
         <v>111</v>
@@ -3772,9 +3790,9 @@
         <v>7</v>
       </c>
       <c r="C23" s="57"/>
-      <c r="D23" s="58">
+      <c r="D23" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>AA/11P</v>
       </c>
       <c r="E23" s="57" t="s">
         <v>377</v>
@@ -3785,9 +3803,9 @@
       <c r="G23" s="60" t="s">
         <v>399</v>
       </c>
-      <c r="H23" s="91">
+      <c r="H23" s="91" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0300954529</v>
       </c>
       <c r="I23" s="60" t="s">
         <v>407</v>
@@ -3854,9 +3872,9 @@
         <v>9</v>
       </c>
       <c r="C25" s="63"/>
-      <c r="D25" s="58">
+      <c r="D25" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>AB/11T</v>
       </c>
       <c r="E25" s="57" t="s">
         <v>378</v>
@@ -3867,9 +3885,9 @@
       <c r="G25" s="60" t="s">
         <v>400</v>
       </c>
-      <c r="H25" s="91">
+      <c r="H25" s="91" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0300951119-001</v>
       </c>
       <c r="I25" s="60" t="s">
         <v>111</v>
@@ -3977,9 +3995,9 @@
         <v>12</v>
       </c>
       <c r="C28" s="63"/>
-      <c r="D28" s="58">
+      <c r="D28" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>AA/11P</v>
       </c>
       <c r="E28" s="57" t="s">
         <v>380</v>
@@ -3990,9 +4008,9 @@
       <c r="G28" s="60" t="s">
         <v>399</v>
       </c>
-      <c r="H28" s="91">
+      <c r="H28" s="91" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0300954529</v>
       </c>
       <c r="I28" s="60" t="s">
         <v>407</v>
@@ -4059,9 +4077,9 @@
         <v>14</v>
       </c>
       <c r="C30" s="63"/>
-      <c r="D30" s="58">
+      <c r="D30" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>AB/11T</v>
       </c>
       <c r="E30" s="57" t="s">
         <v>382</v>
@@ -4072,9 +4090,9 @@
       <c r="G30" s="60" t="s">
         <v>400</v>
       </c>
-      <c r="H30" s="91">
+      <c r="H30" s="91" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0300951119-001</v>
       </c>
       <c r="I30" s="60" t="s">
         <v>111</v>
@@ -4141,9 +4159,9 @@
         <v>16</v>
       </c>
       <c r="C32" s="63"/>
-      <c r="D32" s="58">
+      <c r="D32" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>AB/11T</v>
       </c>
       <c r="E32" s="57" t="s">
         <v>384</v>
@@ -4154,9 +4172,9 @@
       <c r="G32" s="60" t="s">
         <v>400</v>
       </c>
-      <c r="H32" s="91">
+      <c r="H32" s="91" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0300951119-001</v>
       </c>
       <c r="I32" s="60" t="s">
         <v>111</v>
@@ -4346,9 +4364,9 @@
         <v>21</v>
       </c>
       <c r="C37" s="63"/>
-      <c r="D37" s="58">
+      <c r="D37" s="58" t="str">
         <f>IF(ISNA(VLOOKUP(G37,DSMV,3,0)),"",VLOOKUP(G37,DSMV,3,0))</f>
-        <v>0</v>
+        <v>AB/11T</v>
       </c>
       <c r="E37" s="57" t="s">
         <v>386</v>
@@ -4359,9 +4377,9 @@
       <c r="G37" s="60" t="s">
         <v>400</v>
       </c>
-      <c r="H37" s="91">
+      <c r="H37" s="91" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0300951119-001</v>
       </c>
       <c r="I37" s="60" t="s">
         <v>408</v>
@@ -4387,9 +4405,9 @@
         <v>22</v>
       </c>
       <c r="C38" s="63"/>
-      <c r="D38" s="58">
+      <c r="D38" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>AA/11P</v>
       </c>
       <c r="E38" s="57" t="s">
         <v>387</v>
@@ -4400,9 +4418,9 @@
       <c r="G38" s="60" t="s">
         <v>399</v>
       </c>
-      <c r="H38" s="91">
+      <c r="H38" s="91" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0300954529</v>
       </c>
       <c r="I38" s="60" t="s">
         <v>111</v>
@@ -4469,9 +4487,9 @@
         <v>24</v>
       </c>
       <c r="C40" s="63"/>
-      <c r="D40" s="58">
+      <c r="D40" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>AB/11T</v>
       </c>
       <c r="E40" s="57" t="s">
         <v>388</v>
@@ -4482,9 +4500,9 @@
       <c r="G40" s="60" t="s">
         <v>400</v>
       </c>
-      <c r="H40" s="91">
+      <c r="H40" s="91" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0300951119-001</v>
       </c>
       <c r="I40" s="60" t="s">
         <v>408</v>
@@ -4510,9 +4528,9 @@
         <v>25</v>
       </c>
       <c r="C41" s="63"/>
-      <c r="D41" s="58">
+      <c r="D41" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>AA/11P</v>
       </c>
       <c r="E41" s="57" t="s">
         <v>389</v>
@@ -4523,9 +4541,9 @@
       <c r="G41" s="60" t="s">
         <v>399</v>
       </c>
-      <c r="H41" s="91">
+      <c r="H41" s="91" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0300954529</v>
       </c>
       <c r="I41" s="60" t="s">
         <v>111</v>
@@ -4592,9 +4610,9 @@
         <v>27</v>
       </c>
       <c r="C43" s="63"/>
-      <c r="D43" s="58">
+      <c r="D43" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>AB/11T</v>
       </c>
       <c r="E43" s="57" t="s">
         <v>391</v>
@@ -4605,9 +4623,9 @@
       <c r="G43" s="60" t="s">
         <v>400</v>
       </c>
-      <c r="H43" s="91">
+      <c r="H43" s="91" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0300951119-001</v>
       </c>
       <c r="I43" s="60" t="s">
         <v>409</v>
@@ -4674,9 +4692,9 @@
         <v>29</v>
       </c>
       <c r="C45" s="63"/>
-      <c r="D45" s="58">
+      <c r="D45" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>AA/11P</v>
       </c>
       <c r="E45" s="57" t="s">
         <v>392</v>
@@ -4687,9 +4705,9 @@
       <c r="G45" s="60" t="s">
         <v>399</v>
       </c>
-      <c r="H45" s="91">
+      <c r="H45" s="91" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0300954529</v>
       </c>
       <c r="I45" s="60" t="s">
         <v>408</v>
@@ -4797,9 +4815,9 @@
         <v>32</v>
       </c>
       <c r="C48" s="63"/>
-      <c r="D48" s="58">
+      <c r="D48" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>AA/11P</v>
       </c>
       <c r="E48" s="57" t="s">
         <v>393</v>
@@ -4810,9 +4828,9 @@
       <c r="G48" s="60" t="s">
         <v>399</v>
       </c>
-      <c r="H48" s="91">
+      <c r="H48" s="91" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0300954529</v>
       </c>
       <c r="I48" s="60" t="s">
         <v>408</v>
@@ -4961,9 +4979,9 @@
         <v>36</v>
       </c>
       <c r="C52" s="63"/>
-      <c r="D52" s="58">
+      <c r="D52" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>AA/11P</v>
       </c>
       <c r="E52" s="57" t="s">
         <v>396</v>
@@ -4974,9 +4992,9 @@
       <c r="G52" s="60" t="s">
         <v>399</v>
       </c>
-      <c r="H52" s="91">
+      <c r="H52" s="91" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0300954529</v>
       </c>
       <c r="I52" s="60" t="s">
         <v>409</v>
@@ -5002,9 +5020,9 @@
         <v>37</v>
       </c>
       <c r="C53" s="63"/>
-      <c r="D53" s="58">
+      <c r="D53" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>AA/11P</v>
       </c>
       <c r="E53" s="57" t="s">
         <v>397</v>
@@ -5015,9 +5033,9 @@
       <c r="G53" s="60" t="s">
         <v>399</v>
       </c>
-      <c r="H53" s="91">
+      <c r="H53" s="91" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0300954529</v>
       </c>
       <c r="I53" s="60" t="s">
         <v>407</v>
@@ -5043,9 +5061,9 @@
         <v>38</v>
       </c>
       <c r="C54" s="63"/>
-      <c r="D54" s="58">
+      <c r="D54" s="58" t="str">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>AA/11P</v>
       </c>
       <c r="E54" s="57" t="s">
         <v>396</v>
@@ -5056,9 +5074,9 @@
       <c r="G54" s="60" t="s">
         <v>399</v>
       </c>
-      <c r="H54" s="91">
+      <c r="H54" s="91" t="str">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>0300954529</v>
       </c>
       <c r="I54" s="60" t="s">
         <v>407</v>
@@ -8142,10 +8160,10 @@
   </sheetPr>
   <dimension ref="A1:N255"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="bottomLeft" activeCell="G23" sqref="G23"/>
+      <selection pane="bottomLeft" activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8545,8 +8563,12 @@
         <f>IF(G26&lt;&gt;"",ROW()-25,"")</f>
         <v>1</v>
       </c>
-      <c r="C26" s="31"/>
-      <c r="D26" s="31"/>
+      <c r="C26" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>495</v>
+      </c>
       <c r="E26" s="10" t="s">
         <v>256</v>
       </c>
@@ -8576,8 +8598,12 @@
         <f t="shared" ref="B27:B90" si="1">IF(G27&lt;&gt;"",ROW()-25,"")</f>
         <v>2</v>
       </c>
-      <c r="C27" s="31"/>
-      <c r="D27" s="31"/>
+      <c r="C27" s="31" t="s">
+        <v>494</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>495</v>
+      </c>
       <c r="E27" s="10" t="s">
         <v>257</v>
       </c>
@@ -16523,7 +16549,7 @@
   <dimension ref="B1:T50"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="R30" sqref="R30"/>
+      <selection activeCell="S4" sqref="S4:T4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16562,8 +16588,12 @@
       <c r="R2" s="60" t="s">
         <v>399</v>
       </c>
-      <c r="S2" s="92"/>
-      <c r="T2" s="57"/>
+      <c r="S2" s="92" t="s">
+        <v>496</v>
+      </c>
+      <c r="T2" s="92" t="s">
+        <v>497</v>
+      </c>
     </row>
     <row r="3" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="158" t="s">
@@ -16610,8 +16640,12 @@
       <c r="R4" s="60" t="s">
         <v>400</v>
       </c>
-      <c r="S4" s="92"/>
-      <c r="T4" s="57"/>
+      <c r="S4" s="92" t="s">
+        <v>498</v>
+      </c>
+      <c r="T4" s="57" t="s">
+        <v>499</v>
+      </c>
     </row>
     <row r="5" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="103"/>

--- a/SO SACH/0310686815/2014/BANGKE - 14.xlsx
+++ b/SO SACH/0310686815/2014/BANGKE - 14.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8820" tabRatio="756"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="8820" tabRatio="756" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="TH-MV" sheetId="15" r:id="rId1"/>
@@ -2629,18 +2629,6 @@
     <xf numFmtId="43" fontId="6" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2662,6 +2650,30 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="17" xfId="4" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2671,41 +2683,14 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2725,6 +2710,45 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2742,30 +2766,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="21" xfId="4" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -2808,7 +2808,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3013,7 +3013,7 @@
         <xdr:cNvPr id="2" name="Text Box 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0100-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3475,10 +3475,10 @@
   </sheetPr>
   <dimension ref="A1:Q185"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A161" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="bottomLeft" activeCell="N181" sqref="N181"/>
+      <selection pane="bottomLeft" activeCell="L166" sqref="L166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3535,70 +3535,70 @@
       <c r="M3" s="37"/>
     </row>
     <row r="4" spans="1:15" s="36" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="128" t="s">
+      <c r="B4" s="135" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
-      <c r="G4" s="128"/>
-      <c r="H4" s="128"/>
-      <c r="I4" s="128"/>
-      <c r="J4" s="128"/>
-      <c r="K4" s="128"/>
-      <c r="L4" s="128"/>
-      <c r="M4" s="128"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="135"/>
+      <c r="E4" s="135"/>
+      <c r="F4" s="135"/>
+      <c r="G4" s="135"/>
+      <c r="H4" s="135"/>
+      <c r="I4" s="135"/>
+      <c r="J4" s="135"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="135"/>
+      <c r="M4" s="135"/>
     </row>
     <row r="5" spans="1:15" s="36" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="36" t="s">
         <v>63</v>
       </c>
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="129"/>
+      <c r="B5" s="136"/>
+      <c r="C5" s="136"/>
+      <c r="D5" s="136"/>
+      <c r="E5" s="136"/>
+      <c r="F5" s="136"/>
+      <c r="G5" s="136"/>
+      <c r="H5" s="136"/>
+      <c r="I5" s="136"/>
+      <c r="J5" s="136"/>
+      <c r="K5" s="136"/>
+      <c r="L5" s="136"/>
+      <c r="M5" s="136"/>
     </row>
     <row r="6" spans="1:15" s="36" customFormat="1" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="130" t="s">
+      <c r="B6" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="130"/>
-      <c r="D6" s="130"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="130"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="130"/>
-      <c r="I6" s="130"/>
-      <c r="J6" s="130"/>
-      <c r="K6" s="130"/>
-      <c r="L6" s="130"/>
-      <c r="M6" s="130"/>
+      <c r="C6" s="137"/>
+      <c r="D6" s="137"/>
+      <c r="E6" s="137"/>
+      <c r="F6" s="137"/>
+      <c r="G6" s="137"/>
+      <c r="H6" s="137"/>
+      <c r="I6" s="137"/>
+      <c r="J6" s="137"/>
+      <c r="K6" s="137"/>
+      <c r="L6" s="137"/>
+      <c r="M6" s="137"/>
     </row>
     <row r="7" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="130" t="str">
+      <c r="B7" s="137" t="str">
         <f>"Kỳ tính thuế: Quý   "&amp;O14&amp;"  Năm  "&amp;YEAR(F26)</f>
         <v>Kỳ tính thuế: Quý   2  Năm  2014</v>
       </c>
-      <c r="C7" s="130"/>
-      <c r="D7" s="130"/>
-      <c r="E7" s="130"/>
-      <c r="F7" s="130"/>
-      <c r="G7" s="130"/>
-      <c r="H7" s="130"/>
-      <c r="I7" s="130"/>
-      <c r="J7" s="130"/>
-      <c r="K7" s="130"/>
-      <c r="L7" s="130"/>
-      <c r="M7" s="130"/>
+      <c r="C7" s="137"/>
+      <c r="D7" s="137"/>
+      <c r="E7" s="137"/>
+      <c r="F7" s="137"/>
+      <c r="G7" s="137"/>
+      <c r="H7" s="137"/>
+      <c r="I7" s="137"/>
+      <c r="J7" s="137"/>
+      <c r="K7" s="137"/>
+      <c r="L7" s="137"/>
+      <c r="M7" s="137"/>
     </row>
     <row r="8" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B8" s="38"/>
@@ -3623,67 +3623,67 @@
       </c>
     </row>
     <row r="11" spans="1:15" s="36" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="131" t="s">
+      <c r="B11" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="131"/>
-      <c r="K11" s="131"/>
-      <c r="L11" s="131"/>
-      <c r="M11" s="131"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="138"/>
+      <c r="K11" s="138"/>
+      <c r="L11" s="138"/>
+      <c r="M11" s="138"/>
     </row>
     <row r="12" spans="1:15" s="36" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="134" t="s">
+      <c r="B12" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="135"/>
-      <c r="D12" s="135"/>
-      <c r="E12" s="135"/>
-      <c r="F12" s="136"/>
-      <c r="G12" s="132" t="s">
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="128" t="s">
         <v>64</v>
       </c>
-      <c r="H12" s="132" t="s">
+      <c r="H12" s="128" t="s">
         <v>65</v>
       </c>
-      <c r="I12" s="132" t="s">
+      <c r="I12" s="128" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="132" t="s">
+      <c r="J12" s="128" t="s">
         <v>66</v>
       </c>
-      <c r="K12" s="133" t="s">
+      <c r="K12" s="129" t="s">
         <v>67</v>
       </c>
-      <c r="L12" s="132" t="s">
+      <c r="L12" s="128" t="s">
         <v>5</v>
       </c>
-      <c r="M12" s="132" t="s">
+      <c r="M12" s="128" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:15" s="36" customFormat="1" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="134"/>
-      <c r="C13" s="137"/>
-      <c r="D13" s="137"/>
-      <c r="E13" s="137"/>
-      <c r="F13" s="138"/>
-      <c r="G13" s="132"/>
-      <c r="H13" s="132"/>
-      <c r="I13" s="132"/>
-      <c r="J13" s="132"/>
-      <c r="K13" s="133"/>
-      <c r="L13" s="132"/>
-      <c r="M13" s="132"/>
+      <c r="B13" s="130"/>
+      <c r="C13" s="133"/>
+      <c r="D13" s="133"/>
+      <c r="E13" s="133"/>
+      <c r="F13" s="134"/>
+      <c r="G13" s="128"/>
+      <c r="H13" s="128"/>
+      <c r="I13" s="128"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="129"/>
+      <c r="L13" s="128"/>
+      <c r="M13" s="128"/>
     </row>
     <row r="14" spans="1:15" s="36" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="134"/>
+      <c r="B14" s="130"/>
       <c r="C14" s="41" t="s">
         <v>43</v>
       </c>
@@ -3696,13 +3696,13 @@
       <c r="F14" s="41" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="132"/>
-      <c r="H14" s="132"/>
-      <c r="I14" s="132"/>
-      <c r="J14" s="132"/>
-      <c r="K14" s="133"/>
-      <c r="L14" s="132"/>
-      <c r="M14" s="132"/>
+      <c r="G14" s="128"/>
+      <c r="H14" s="128"/>
+      <c r="I14" s="128"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="129"/>
+      <c r="L14" s="128"/>
+      <c r="M14" s="128"/>
       <c r="N14" s="115"/>
       <c r="O14" s="114">
         <v>2</v>
@@ -3848,7 +3848,7 @@
       <c r="P18" s="54"/>
       <c r="Q18" s="56"/>
     </row>
-    <row r="19" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="47">
         <f t="shared" si="2"/>
         <v>3</v>
@@ -4098,7 +4098,7 @@
       <c r="N24" s="54"/>
       <c r="O24" s="55"/>
     </row>
-    <row r="25" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="47">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -4140,7 +4140,7 @@
       <c r="O25" s="55"/>
       <c r="P25" s="126"/>
     </row>
-    <row r="26" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="47">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -4182,7 +4182,7 @@
       <c r="O26" s="55"/>
       <c r="P26" s="126"/>
     </row>
-    <row r="27" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="47">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -4224,7 +4224,7 @@
       <c r="O27" s="55"/>
       <c r="P27" s="126"/>
     </row>
-    <row r="28" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="47">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -4266,7 +4266,7 @@
       <c r="O28" s="55"/>
       <c r="P28" s="126"/>
     </row>
-    <row r="29" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="47">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -4308,7 +4308,7 @@
       <c r="O29" s="55"/>
       <c r="P29" s="126"/>
     </row>
-    <row r="30" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="47">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -4350,7 +4350,7 @@
       <c r="O30" s="55"/>
       <c r="P30" s="126"/>
     </row>
-    <row r="31" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="47">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -4392,7 +4392,7 @@
       <c r="O31" s="55"/>
       <c r="P31" s="126"/>
     </row>
-    <row r="32" spans="2:17" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:17" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="47">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -4434,7 +4434,7 @@
       <c r="O32" s="55"/>
       <c r="P32" s="126"/>
     </row>
-    <row r="33" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="47">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -4476,7 +4476,7 @@
       <c r="O33" s="55"/>
       <c r="P33" s="126"/>
     </row>
-    <row r="34" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="47">
         <f t="shared" si="2"/>
         <v>18</v>
@@ -4518,7 +4518,7 @@
       <c r="O34" s="55"/>
       <c r="P34" s="126"/>
     </row>
-    <row r="35" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="47">
         <f t="shared" si="2"/>
         <v>19</v>
@@ -4560,7 +4560,7 @@
       <c r="O35" s="55"/>
       <c r="P35" s="126"/>
     </row>
-    <row r="36" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="47">
         <f t="shared" si="2"/>
         <v>20</v>
@@ -4602,7 +4602,7 @@
       <c r="O36" s="55"/>
       <c r="P36" s="126"/>
     </row>
-    <row r="37" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B37" s="47">
         <f>IF(G37&lt;&gt;"",ROW()-16,"")</f>
         <v>21</v>
@@ -5064,7 +5064,7 @@
       <c r="O47" s="55"/>
       <c r="P47" s="127"/>
     </row>
-    <row r="48" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B48" s="47">
         <f t="shared" si="2"/>
         <v>32</v>
@@ -5106,7 +5106,7 @@
       <c r="O48" s="55"/>
       <c r="P48" s="56"/>
     </row>
-    <row r="49" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B49" s="47">
         <f t="shared" si="2"/>
         <v>33</v>
@@ -5148,7 +5148,7 @@
       <c r="O49" s="55"/>
       <c r="P49" s="56"/>
     </row>
-    <row r="50" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="47">
         <f t="shared" si="2"/>
         <v>34</v>
@@ -5190,7 +5190,7 @@
       <c r="O50" s="55"/>
       <c r="P50" s="56"/>
     </row>
-    <row r="51" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="47">
         <f t="shared" si="2"/>
         <v>35</v>
@@ -5232,7 +5232,7 @@
       <c r="O51" s="55"/>
       <c r="P51" s="56"/>
     </row>
-    <row r="52" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="47">
         <f t="shared" si="2"/>
         <v>36</v>
@@ -5274,7 +5274,7 @@
       <c r="O52" s="55"/>
       <c r="P52" s="56"/>
     </row>
-    <row r="53" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="47">
         <f t="shared" si="2"/>
         <v>37</v>
@@ -5316,7 +5316,7 @@
       <c r="O53" s="55"/>
       <c r="P53" s="56"/>
     </row>
-    <row r="54" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="47">
         <f t="shared" si="2"/>
         <v>38</v>
@@ -5358,7 +5358,7 @@
       <c r="O54" s="55"/>
       <c r="P54" s="56"/>
     </row>
-    <row r="55" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="47">
         <f t="shared" si="2"/>
         <v>39</v>
@@ -5400,7 +5400,7 @@
       <c r="O55" s="55"/>
       <c r="P55" s="56"/>
     </row>
-    <row r="56" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="47">
         <f t="shared" si="2"/>
         <v>40</v>
@@ -5778,7 +5778,7 @@
       <c r="O64" s="55"/>
       <c r="P64" s="127"/>
     </row>
-    <row r="65" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="47">
         <f t="shared" si="2"/>
         <v>49</v>
@@ -5820,7 +5820,7 @@
       <c r="O65" s="55"/>
       <c r="P65" s="56"/>
     </row>
-    <row r="66" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="47">
         <f t="shared" si="2"/>
         <v>50</v>
@@ -5862,7 +5862,7 @@
       <c r="O66" s="55"/>
       <c r="P66" s="56"/>
     </row>
-    <row r="67" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="47">
         <f t="shared" si="2"/>
         <v>51</v>
@@ -5904,7 +5904,7 @@
       <c r="O67" s="55"/>
       <c r="P67" s="56"/>
     </row>
-    <row r="68" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="47">
         <f t="shared" si="2"/>
         <v>52</v>
@@ -5946,7 +5946,7 @@
       <c r="O68" s="55"/>
       <c r="P68" s="56"/>
     </row>
-    <row r="69" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="47">
         <f t="shared" si="2"/>
         <v>53</v>
@@ -5988,7 +5988,7 @@
       <c r="O69" s="55"/>
       <c r="P69" s="56"/>
     </row>
-    <row r="70" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="47">
         <f t="shared" si="2"/>
         <v>54</v>
@@ -6153,7 +6153,7 @@
       <c r="N73" s="54"/>
       <c r="O73" s="55"/>
     </row>
-    <row r="74" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="47">
         <f t="shared" si="2"/>
         <v>58</v>
@@ -6195,7 +6195,7 @@
       <c r="O74" s="55"/>
       <c r="P74" s="126"/>
     </row>
-    <row r="75" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="47">
         <f t="shared" si="2"/>
         <v>59</v>
@@ -6237,7 +6237,7 @@
       <c r="O75" s="55"/>
       <c r="P75" s="126"/>
     </row>
-    <row r="76" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="47">
         <f t="shared" si="2"/>
         <v>60</v>
@@ -6279,7 +6279,7 @@
       <c r="O76" s="55"/>
       <c r="P76" s="126"/>
     </row>
-    <row r="77" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="47">
         <f t="shared" si="2"/>
         <v>61</v>
@@ -6321,7 +6321,7 @@
       <c r="O77" s="55"/>
       <c r="P77" s="126"/>
     </row>
-    <row r="78" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="47">
         <f t="shared" si="2"/>
         <v>62</v>
@@ -6363,7 +6363,7 @@
       <c r="O78" s="55"/>
       <c r="P78" s="126"/>
     </row>
-    <row r="79" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="47">
         <f t="shared" si="2"/>
         <v>63</v>
@@ -6405,7 +6405,7 @@
       <c r="O79" s="55"/>
       <c r="P79" s="126"/>
     </row>
-    <row r="80" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="47">
         <f t="shared" si="2"/>
         <v>64</v>
@@ -6447,7 +6447,7 @@
       <c r="O80" s="55"/>
       <c r="P80" s="126"/>
     </row>
-    <row r="81" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="47">
         <f t="shared" ref="B81:B121" si="5">IF(G81&lt;&gt;"",ROW()-16,"")</f>
         <v>65</v>
@@ -6489,7 +6489,7 @@
       <c r="O81" s="55"/>
       <c r="P81" s="126"/>
     </row>
-    <row r="82" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="47">
         <f t="shared" si="5"/>
         <v>66</v>
@@ -6531,7 +6531,7 @@
       <c r="O82" s="55"/>
       <c r="P82" s="126"/>
     </row>
-    <row r="83" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="47">
         <f t="shared" si="5"/>
         <v>67</v>
@@ -6573,7 +6573,7 @@
       <c r="O83" s="55"/>
       <c r="P83" s="126"/>
     </row>
-    <row r="84" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="47">
         <f t="shared" si="5"/>
         <v>68</v>
@@ -7581,7 +7581,7 @@
       <c r="O107" s="55"/>
       <c r="P107" s="127"/>
     </row>
-    <row r="108" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B108" s="47">
         <f t="shared" si="5"/>
         <v>92</v>
@@ -7623,7 +7623,7 @@
       <c r="O108" s="55"/>
       <c r="P108" s="56"/>
     </row>
-    <row r="109" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B109" s="47">
         <f t="shared" si="5"/>
         <v>93</v>
@@ -7665,7 +7665,7 @@
       <c r="O109" s="55"/>
       <c r="P109" s="56"/>
     </row>
-    <row r="110" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B110" s="47">
         <f t="shared" si="5"/>
         <v>94</v>
@@ -7707,7 +7707,7 @@
       <c r="O110" s="55"/>
       <c r="P110" s="56"/>
     </row>
-    <row r="111" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B111" s="47">
         <f t="shared" si="5"/>
         <v>95</v>
@@ -7749,7 +7749,7 @@
       <c r="O111" s="55"/>
       <c r="P111" s="56"/>
     </row>
-    <row r="112" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B112" s="47">
         <f t="shared" si="5"/>
         <v>96</v>
@@ -7791,7 +7791,7 @@
       <c r="O112" s="55"/>
       <c r="P112" s="56"/>
     </row>
-    <row r="113" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B113" s="47">
         <f t="shared" si="5"/>
         <v>97</v>
@@ -7833,7 +7833,7 @@
       <c r="O113" s="55"/>
       <c r="P113" s="56"/>
     </row>
-    <row r="114" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B114" s="47">
         <f t="shared" si="5"/>
         <v>98</v>
@@ -7875,7 +7875,7 @@
       <c r="O114" s="55"/>
       <c r="P114" s="56"/>
     </row>
-    <row r="115" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B115" s="47">
         <f t="shared" si="5"/>
         <v>99</v>
@@ -7917,7 +7917,7 @@
       <c r="O115" s="55"/>
       <c r="P115" s="56"/>
     </row>
-    <row r="116" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B116" s="47">
         <f t="shared" si="5"/>
         <v>100</v>
@@ -7959,7 +7959,7 @@
       <c r="O116" s="55"/>
       <c r="P116" s="56"/>
     </row>
-    <row r="117" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B117" s="47">
         <f t="shared" si="5"/>
         <v>101</v>
@@ -8001,7 +8001,7 @@
       <c r="O117" s="55"/>
       <c r="P117" s="56"/>
     </row>
-    <row r="118" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B118" s="47">
         <f t="shared" si="5"/>
         <v>102</v>
@@ -8043,7 +8043,7 @@
       <c r="O118" s="55"/>
       <c r="P118" s="56"/>
     </row>
-    <row r="119" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B119" s="47">
         <f t="shared" si="5"/>
         <v>103</v>
@@ -8085,7 +8085,7 @@
       <c r="O119" s="55"/>
       <c r="P119" s="56"/>
     </row>
-    <row r="120" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B120" s="47">
         <f t="shared" si="5"/>
         <v>104</v>
@@ -8127,7 +8127,7 @@
       <c r="O120" s="55"/>
       <c r="P120" s="56"/>
     </row>
-    <row r="121" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B121" s="47">
         <f t="shared" si="5"/>
         <v>105</v>
@@ -8169,7 +8169,7 @@
       <c r="O121" s="55"/>
       <c r="P121" s="56"/>
     </row>
-    <row r="122" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B122" s="47">
         <f t="shared" ref="B122" si="6">IF(G122&lt;&gt;"",ROW()-16,"")</f>
         <v>106</v>
@@ -8211,7 +8211,7 @@
       <c r="O122" s="55"/>
       <c r="P122" s="56"/>
     </row>
-    <row r="123" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B123" s="47"/>
       <c r="C123" s="63"/>
       <c r="D123" s="58"/>
@@ -8242,7 +8242,7 @@
       <c r="O123" s="55"/>
       <c r="P123" s="56"/>
     </row>
-    <row r="124" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B124" s="47"/>
       <c r="C124" s="63"/>
       <c r="D124" s="58"/>
@@ -8273,7 +8273,7 @@
       <c r="O124" s="55"/>
       <c r="P124" s="56"/>
     </row>
-    <row r="125" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B125" s="47"/>
       <c r="C125" s="63"/>
       <c r="D125" s="58"/>
@@ -8304,7 +8304,7 @@
       <c r="O125" s="55"/>
       <c r="P125" s="56"/>
     </row>
-    <row r="126" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B126" s="47"/>
       <c r="C126" s="63"/>
       <c r="D126" s="58"/>
@@ -8335,7 +8335,7 @@
       <c r="O126" s="55"/>
       <c r="P126" s="56"/>
     </row>
-    <row r="127" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B127" s="47"/>
       <c r="C127" s="63"/>
       <c r="D127" s="58"/>
@@ -8366,7 +8366,7 @@
       <c r="O127" s="55"/>
       <c r="P127" s="56"/>
     </row>
-    <row r="128" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B128" s="47"/>
       <c r="C128" s="63"/>
       <c r="D128" s="58"/>
@@ -8397,7 +8397,7 @@
       <c r="O128" s="55"/>
       <c r="P128" s="56"/>
     </row>
-    <row r="129" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B129" s="47"/>
       <c r="C129" s="63"/>
       <c r="D129" s="58"/>
@@ -8428,7 +8428,7 @@
       <c r="O129" s="55"/>
       <c r="P129" s="56"/>
     </row>
-    <row r="130" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B130" s="47"/>
       <c r="C130" s="63"/>
       <c r="D130" s="58"/>
@@ -8459,7 +8459,7 @@
       <c r="O130" s="55"/>
       <c r="P130" s="56"/>
     </row>
-    <row r="131" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B131" s="47"/>
       <c r="C131" s="63"/>
       <c r="D131" s="58"/>
@@ -8490,7 +8490,7 @@
       <c r="O131" s="55"/>
       <c r="P131" s="56"/>
     </row>
-    <row r="132" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B132" s="47"/>
       <c r="C132" s="63"/>
       <c r="D132" s="58"/>
@@ -8521,7 +8521,7 @@
       <c r="O132" s="55"/>
       <c r="P132" s="56"/>
     </row>
-    <row r="133" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B133" s="47"/>
       <c r="C133" s="63"/>
       <c r="D133" s="58"/>
@@ -8552,7 +8552,7 @@
       <c r="O133" s="55"/>
       <c r="P133" s="56"/>
     </row>
-    <row r="134" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B134" s="47"/>
       <c r="C134" s="63"/>
       <c r="D134" s="58"/>
@@ -8583,7 +8583,7 @@
       <c r="O134" s="55"/>
       <c r="P134" s="56"/>
     </row>
-    <row r="135" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B135" s="47"/>
       <c r="C135" s="63"/>
       <c r="D135" s="58"/>
@@ -8614,7 +8614,7 @@
       <c r="O135" s="55"/>
       <c r="P135" s="56"/>
     </row>
-    <row r="136" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B136" s="47"/>
       <c r="C136" s="63"/>
       <c r="D136" s="58"/>
@@ -8645,7 +8645,7 @@
       <c r="O136" s="55"/>
       <c r="P136" s="56"/>
     </row>
-    <row r="137" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B137" s="47"/>
       <c r="C137" s="63"/>
       <c r="D137" s="58"/>
@@ -8676,7 +8676,7 @@
       <c r="O137" s="55"/>
       <c r="P137" s="56"/>
     </row>
-    <row r="138" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B138" s="47"/>
       <c r="C138" s="63"/>
       <c r="D138" s="58"/>
@@ -8707,7 +8707,7 @@
       <c r="O138" s="55"/>
       <c r="P138" s="56"/>
     </row>
-    <row r="139" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B139" s="47"/>
       <c r="C139" s="63"/>
       <c r="D139" s="58"/>
@@ -8738,7 +8738,7 @@
       <c r="O139" s="55"/>
       <c r="P139" s="56"/>
     </row>
-    <row r="140" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B140" s="47"/>
       <c r="C140" s="63"/>
       <c r="D140" s="58"/>
@@ -8769,7 +8769,7 @@
       <c r="O140" s="55"/>
       <c r="P140" s="56"/>
     </row>
-    <row r="141" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B141" s="47"/>
       <c r="C141" s="63"/>
       <c r="D141" s="58"/>
@@ -8800,7 +8800,7 @@
       <c r="O141" s="55"/>
       <c r="P141" s="56"/>
     </row>
-    <row r="142" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B142" s="47"/>
       <c r="C142" s="63"/>
       <c r="D142" s="58"/>
@@ -8831,7 +8831,7 @@
       <c r="O142" s="55"/>
       <c r="P142" s="56"/>
     </row>
-    <row r="143" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B143" s="47"/>
       <c r="C143" s="63"/>
       <c r="D143" s="58"/>
@@ -8862,7 +8862,7 @@
       <c r="O143" s="55"/>
       <c r="P143" s="56"/>
     </row>
-    <row r="144" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B144" s="47"/>
       <c r="C144" s="63"/>
       <c r="D144" s="58"/>
@@ -8893,7 +8893,7 @@
       <c r="O144" s="55"/>
       <c r="P144" s="56"/>
     </row>
-    <row r="145" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B145" s="47"/>
       <c r="C145" s="63"/>
       <c r="D145" s="58"/>
@@ -8924,7 +8924,7 @@
       <c r="O145" s="55"/>
       <c r="P145" s="56"/>
     </row>
-    <row r="146" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B146" s="47"/>
       <c r="C146" s="63"/>
       <c r="D146" s="58"/>
@@ -8955,7 +8955,7 @@
       <c r="O146" s="55"/>
       <c r="P146" s="56"/>
     </row>
-    <row r="147" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B147" s="47"/>
       <c r="C147" s="63"/>
       <c r="D147" s="58"/>
@@ -8986,7 +8986,7 @@
       <c r="O147" s="55"/>
       <c r="P147" s="56"/>
     </row>
-    <row r="148" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B148" s="47"/>
       <c r="C148" s="63"/>
       <c r="D148" s="58"/>
@@ -9017,7 +9017,7 @@
       <c r="O148" s="55"/>
       <c r="P148" s="56"/>
     </row>
-    <row r="149" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B149" s="47"/>
       <c r="C149" s="63"/>
       <c r="D149" s="58"/>
@@ -9048,7 +9048,7 @@
       <c r="O149" s="55"/>
       <c r="P149" s="56"/>
     </row>
-    <row r="150" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B150" s="47"/>
       <c r="C150" s="63"/>
       <c r="D150" s="58"/>
@@ -9079,7 +9079,7 @@
       <c r="O150" s="55"/>
       <c r="P150" s="56"/>
     </row>
-    <row r="151" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B151" s="47"/>
       <c r="C151" s="63"/>
       <c r="D151" s="58"/>
@@ -9110,7 +9110,7 @@
       <c r="O151" s="55"/>
       <c r="P151" s="56"/>
     </row>
-    <row r="152" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B152" s="47"/>
       <c r="C152" s="63"/>
       <c r="D152" s="58"/>
@@ -9141,7 +9141,7 @@
       <c r="O152" s="55"/>
       <c r="P152" s="56"/>
     </row>
-    <row r="153" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B153" s="47"/>
       <c r="C153" s="63"/>
       <c r="D153" s="58"/>
@@ -9172,7 +9172,7 @@
       <c r="O153" s="55"/>
       <c r="P153" s="56"/>
     </row>
-    <row r="154" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B154" s="47"/>
       <c r="C154" s="63"/>
       <c r="D154" s="58"/>
@@ -9203,7 +9203,7 @@
       <c r="O154" s="55"/>
       <c r="P154" s="56"/>
     </row>
-    <row r="155" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="47"/>
       <c r="C155" s="63"/>
       <c r="D155" s="58"/>
@@ -9234,7 +9234,7 @@
       <c r="O155" s="55"/>
       <c r="P155" s="56"/>
     </row>
-    <row r="156" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="47"/>
       <c r="C156" s="63"/>
       <c r="D156" s="58"/>
@@ -9265,7 +9265,7 @@
       <c r="O156" s="55"/>
       <c r="P156" s="56"/>
     </row>
-    <row r="157" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B157" s="47"/>
       <c r="C157" s="63"/>
       <c r="D157" s="58"/>
@@ -9296,7 +9296,7 @@
       <c r="O157" s="55"/>
       <c r="P157" s="56"/>
     </row>
-    <row r="158" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B158" s="47"/>
       <c r="C158" s="63"/>
       <c r="D158" s="58"/>
@@ -9327,7 +9327,7 @@
       <c r="O158" s="55"/>
       <c r="P158" s="56"/>
     </row>
-    <row r="159" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B159" s="47"/>
       <c r="C159" s="63"/>
       <c r="D159" s="58"/>
@@ -9358,7 +9358,7 @@
       <c r="O159" s="55"/>
       <c r="P159" s="56"/>
     </row>
-    <row r="160" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B160" s="47"/>
       <c r="C160" s="63"/>
       <c r="D160" s="58"/>
@@ -9389,7 +9389,7 @@
       <c r="O160" s="55"/>
       <c r="P160" s="56"/>
     </row>
-    <row r="161" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B161" s="47"/>
       <c r="C161" s="63"/>
       <c r="D161" s="58"/>
@@ -9420,7 +9420,7 @@
       <c r="O161" s="55"/>
       <c r="P161" s="56"/>
     </row>
-    <row r="162" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B162" s="47"/>
       <c r="C162" s="63"/>
       <c r="D162" s="58"/>
@@ -9451,7 +9451,7 @@
       <c r="O162" s="55"/>
       <c r="P162" s="56"/>
     </row>
-    <row r="163" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="47"/>
       <c r="C163" s="63"/>
       <c r="D163" s="58"/>
@@ -9482,7 +9482,7 @@
       <c r="O163" s="55"/>
       <c r="P163" s="56"/>
     </row>
-    <row r="164" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="47"/>
       <c r="C164" s="63"/>
       <c r="D164" s="58"/>
@@ -9513,7 +9513,7 @@
       <c r="O164" s="55"/>
       <c r="P164" s="56"/>
     </row>
-    <row r="165" spans="2:16" s="36" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:16" s="36" customFormat="1" ht="21.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="47"/>
       <c r="C165" s="63"/>
       <c r="D165" s="58"/>
@@ -9543,12 +9543,12 @@
       <c r="I166" s="67"/>
       <c r="J166" s="69">
         <f>SUBTOTAL(9,J17:J165)</f>
-        <v>527289707</v>
+        <v>437718244</v>
       </c>
       <c r="K166" s="69"/>
       <c r="L166" s="69">
         <f>SUBTOTAL(9,L17:L165)</f>
-        <v>52728957</v>
+        <v>43771820</v>
       </c>
       <c r="M166" s="67"/>
       <c r="N166" s="55"/>
@@ -9758,7 +9758,7 @@
       <c r="G179" s="37"/>
       <c r="H179" s="85">
         <f>J166</f>
-        <v>527289707</v>
+        <v>437718244</v>
       </c>
       <c r="I179" s="37"/>
       <c r="K179" s="39"/>
@@ -9774,7 +9774,7 @@
       <c r="G180" s="37"/>
       <c r="H180" s="85">
         <f>L166</f>
-        <v>52728957</v>
+        <v>43771820</v>
       </c>
       <c r="I180" s="37"/>
       <c r="K180" s="39"/>
@@ -9852,8 +9852,8 @@
   </sheetData>
   <autoFilter ref="A16:Q165">
     <filterColumn colId="12">
-      <filters blank="1">
-        <filter val="4"/>
+      <filters>
+        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -9861,6 +9861,11 @@
     <sortCondition ref="F240:F249"/>
   </sortState>
   <mergeCells count="14">
+    <mergeCell ref="B4:M4"/>
+    <mergeCell ref="B5:M5"/>
+    <mergeCell ref="B6:M6"/>
+    <mergeCell ref="B7:M7"/>
+    <mergeCell ref="B11:M11"/>
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="L12:L14"/>
@@ -9870,11 +9875,6 @@
     <mergeCell ref="G12:G14"/>
     <mergeCell ref="H12:H14"/>
     <mergeCell ref="I12:I14"/>
-    <mergeCell ref="B4:M4"/>
-    <mergeCell ref="B5:M5"/>
-    <mergeCell ref="B6:M6"/>
-    <mergeCell ref="B7:M7"/>
-    <mergeCell ref="B11:M11"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O14">
@@ -9897,10 +9897,10 @@
   </sheetPr>
   <dimension ref="A1:O255"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="A12" sqref="A12"/>
-      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
+      <selection pane="bottomLeft" activeCell="K243" sqref="K243"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9955,66 +9955,66 @@
       <c r="L3" s="15"/>
     </row>
     <row r="4" spans="1:14" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="139" t="s">
+      <c r="B4" s="143" t="s">
         <v>18</v>
       </c>
-      <c r="C4" s="139"/>
-      <c r="D4" s="139"/>
-      <c r="E4" s="139"/>
-      <c r="F4" s="139"/>
-      <c r="G4" s="139"/>
-      <c r="H4" s="139"/>
-      <c r="I4" s="139"/>
-      <c r="J4" s="139"/>
-      <c r="K4" s="139"/>
-      <c r="L4" s="139"/>
+      <c r="C4" s="143"/>
+      <c r="D4" s="143"/>
+      <c r="E4" s="143"/>
+      <c r="F4" s="143"/>
+      <c r="G4" s="143"/>
+      <c r="H4" s="143"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="143"/>
     </row>
     <row r="5" spans="1:14" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="B5" s="140"/>
-      <c r="C5" s="140"/>
-      <c r="D5" s="140"/>
-      <c r="E5" s="140"/>
-      <c r="F5" s="140"/>
-      <c r="G5" s="140"/>
-      <c r="H5" s="140"/>
-      <c r="I5" s="140"/>
-      <c r="J5" s="140"/>
-      <c r="K5" s="140"/>
-      <c r="L5" s="140"/>
+      <c r="B5" s="144"/>
+      <c r="C5" s="144"/>
+      <c r="D5" s="144"/>
+      <c r="E5" s="144"/>
+      <c r="F5" s="144"/>
+      <c r="G5" s="144"/>
+      <c r="H5" s="144"/>
+      <c r="I5" s="144"/>
+      <c r="J5" s="144"/>
+      <c r="K5" s="144"/>
+      <c r="L5" s="144"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="145" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
-      <c r="K6" s="141"/>
-      <c r="L6" s="141"/>
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+      <c r="K6" s="145"/>
+      <c r="L6" s="145"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B7" s="141" t="str">
+      <c r="B7" s="145" t="str">
         <f>"Kỳ tính thuế: Quý   "&amp;N14&amp;"  Năm  "&amp;YEAR(F26)</f>
         <v>Kỳ tính thuế: Quý   2  Năm  2014</v>
       </c>
-      <c r="C7" s="141"/>
-      <c r="D7" s="141"/>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141"/>
-      <c r="K7" s="141"/>
-      <c r="L7" s="141"/>
+      <c r="C7" s="145"/>
+      <c r="D7" s="145"/>
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="145"/>
+      <c r="K7" s="145"/>
+      <c r="L7" s="145"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B8" s="17"/>
@@ -10038,80 +10038,80 @@
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B11" s="145" t="s">
+      <c r="B11" s="141" t="s">
         <v>1</v>
       </c>
-      <c r="C11" s="145"/>
-      <c r="D11" s="145"/>
-      <c r="E11" s="145"/>
-      <c r="F11" s="145"/>
-      <c r="G11" s="145"/>
-      <c r="H11" s="145"/>
-      <c r="I11" s="145"/>
-      <c r="J11" s="145"/>
-      <c r="K11" s="145"/>
-      <c r="L11" s="145"/>
+      <c r="C11" s="141"/>
+      <c r="D11" s="141"/>
+      <c r="E11" s="141"/>
+      <c r="F11" s="141"/>
+      <c r="G11" s="141"/>
+      <c r="H11" s="141"/>
+      <c r="I11" s="141"/>
+      <c r="J11" s="141"/>
+      <c r="K11" s="141"/>
+      <c r="L11" s="141"/>
     </row>
     <row r="12" spans="1:14" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="144" t="s">
+      <c r="B12" s="142" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="144" t="s">
+      <c r="C12" s="142" t="s">
         <v>43</v>
       </c>
-      <c r="D12" s="144" t="s">
+      <c r="D12" s="142" t="s">
         <v>7</v>
       </c>
-      <c r="E12" s="144" t="s">
+      <c r="E12" s="142" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="144" t="s">
+      <c r="F12" s="142" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="144" t="s">
+      <c r="G12" s="142" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="144" t="s">
+      <c r="H12" s="142" t="s">
         <v>29</v>
       </c>
-      <c r="I12" s="144" t="s">
+      <c r="I12" s="142" t="s">
         <v>4</v>
       </c>
-      <c r="J12" s="144" t="s">
+      <c r="J12" s="142" t="s">
         <v>30</v>
       </c>
-      <c r="K12" s="144" t="s">
+      <c r="K12" s="142" t="s">
         <v>5</v>
       </c>
-      <c r="L12" s="144" t="s">
+      <c r="L12" s="142" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="144"/>
-      <c r="C13" s="144"/>
-      <c r="D13" s="144"/>
-      <c r="E13" s="144"/>
-      <c r="F13" s="144"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="144"/>
-      <c r="K13" s="144"/>
-      <c r="L13" s="144"/>
+      <c r="B13" s="142"/>
+      <c r="C13" s="142"/>
+      <c r="D13" s="142"/>
+      <c r="E13" s="142"/>
+      <c r="F13" s="142"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="142"/>
+      <c r="J13" s="142"/>
+      <c r="K13" s="142"/>
+      <c r="L13" s="142"/>
     </row>
     <row r="14" spans="1:14" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="144"/>
-      <c r="C14" s="144"/>
-      <c r="D14" s="144"/>
-      <c r="E14" s="144"/>
-      <c r="F14" s="144"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="144"/>
-      <c r="J14" s="144"/>
-      <c r="K14" s="144"/>
-      <c r="L14" s="144"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="142"/>
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="142"/>
+      <c r="K14" s="142"/>
+      <c r="L14" s="142"/>
       <c r="N14" s="114">
         <v>2</v>
       </c>
@@ -10152,16 +10152,16 @@
       </c>
     </row>
     <row r="16" spans="1:14" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="142" t="s">
+      <c r="B16" s="139" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="143"/>
-      <c r="D16" s="143"/>
-      <c r="E16" s="143"/>
-      <c r="F16" s="143"/>
-      <c r="G16" s="143"/>
-      <c r="H16" s="143"/>
-      <c r="I16" s="143"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+      <c r="I16" s="140"/>
       <c r="J16" s="19"/>
       <c r="K16" s="19"/>
       <c r="L16" s="20"/>
@@ -10195,16 +10195,16 @@
       <c r="L18" s="22"/>
     </row>
     <row r="19" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="142" t="s">
+      <c r="B19" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="143"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="143"/>
-      <c r="F19" s="143"/>
-      <c r="G19" s="143"/>
-      <c r="H19" s="143"/>
-      <c r="I19" s="143"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+      <c r="I19" s="140"/>
       <c r="J19" s="19"/>
       <c r="K19" s="19"/>
       <c r="L19" s="24"/>
@@ -10238,16 +10238,16 @@
       <c r="L21" s="22"/>
     </row>
     <row r="22" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="142" t="s">
+      <c r="B22" s="139" t="s">
         <v>13</v>
       </c>
-      <c r="C22" s="143"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="143"/>
-      <c r="F22" s="143"/>
-      <c r="G22" s="143"/>
-      <c r="H22" s="143"/>
-      <c r="I22" s="143"/>
+      <c r="C22" s="140"/>
+      <c r="D22" s="140"/>
+      <c r="E22" s="140"/>
+      <c r="F22" s="140"/>
+      <c r="G22" s="140"/>
+      <c r="H22" s="140"/>
+      <c r="I22" s="140"/>
       <c r="J22" s="19"/>
       <c r="K22" s="19"/>
       <c r="L22" s="24"/>
@@ -11207,7 +11207,7 @@
       </c>
       <c r="O49" s="125"/>
     </row>
-    <row r="50" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B50" s="9">
         <f t="shared" si="1"/>
         <v>25</v>
@@ -11245,7 +11245,7 @@
       </c>
       <c r="O50" s="125"/>
     </row>
-    <row r="51" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B51" s="9">
         <f t="shared" si="1"/>
         <v>26</v>
@@ -11283,7 +11283,7 @@
       </c>
       <c r="O51" s="125"/>
     </row>
-    <row r="52" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B52" s="9">
         <f t="shared" si="1"/>
         <v>27</v>
@@ -11321,7 +11321,7 @@
       </c>
       <c r="O52" s="125"/>
     </row>
-    <row r="53" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B53" s="9">
         <f t="shared" si="1"/>
         <v>28</v>
@@ -11359,7 +11359,7 @@
       </c>
       <c r="O53" s="125"/>
     </row>
-    <row r="54" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B54" s="9">
         <f t="shared" si="1"/>
         <v>29</v>
@@ -11397,7 +11397,7 @@
       </c>
       <c r="O54" s="125"/>
     </row>
-    <row r="55" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B55" s="9">
         <f t="shared" si="1"/>
         <v>30</v>
@@ -11435,7 +11435,7 @@
       </c>
       <c r="O55" s="125"/>
     </row>
-    <row r="56" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B56" s="9">
         <f t="shared" si="1"/>
         <v>31</v>
@@ -11473,7 +11473,7 @@
       </c>
       <c r="O56" s="125"/>
     </row>
-    <row r="57" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B57" s="9">
         <f t="shared" si="1"/>
         <v>32</v>
@@ -11511,7 +11511,7 @@
       </c>
       <c r="O57" s="125"/>
     </row>
-    <row r="58" spans="2:15" s="124" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:15" s="124" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B58" s="116">
         <f t="shared" si="1"/>
         <v>33</v>
@@ -11550,7 +11550,7 @@
       <c r="M58" s="14"/>
       <c r="O58" s="125"/>
     </row>
-    <row r="59" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B59" s="9">
         <f t="shared" si="1"/>
         <v>34</v>
@@ -11588,7 +11588,7 @@
       </c>
       <c r="O59" s="125"/>
     </row>
-    <row r="60" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B60" s="9">
         <f t="shared" si="1"/>
         <v>35</v>
@@ -11626,7 +11626,7 @@
       </c>
       <c r="O60" s="125"/>
     </row>
-    <row r="61" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="9">
         <f t="shared" si="1"/>
         <v>36</v>
@@ -11664,7 +11664,7 @@
       </c>
       <c r="O61" s="125"/>
     </row>
-    <row r="62" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B62" s="9">
         <f t="shared" si="1"/>
         <v>37</v>
@@ -11702,7 +11702,7 @@
       </c>
       <c r="O62" s="125"/>
     </row>
-    <row r="63" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B63" s="9">
         <f t="shared" si="1"/>
         <v>38</v>
@@ -11740,7 +11740,7 @@
       </c>
       <c r="O63" s="125"/>
     </row>
-    <row r="64" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B64" s="9">
         <f t="shared" si="1"/>
         <v>39</v>
@@ -11778,7 +11778,7 @@
       </c>
       <c r="O64" s="125"/>
     </row>
-    <row r="65" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B65" s="9">
         <f t="shared" si="1"/>
         <v>40</v>
@@ -11816,7 +11816,7 @@
       </c>
       <c r="O65" s="125"/>
     </row>
-    <row r="66" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B66" s="9">
         <f t="shared" si="1"/>
         <v>41</v>
@@ -11854,7 +11854,7 @@
       </c>
       <c r="O66" s="125"/>
     </row>
-    <row r="67" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B67" s="9">
         <f t="shared" si="1"/>
         <v>42</v>
@@ -11892,7 +11892,7 @@
       </c>
       <c r="O67" s="125"/>
     </row>
-    <row r="68" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B68" s="9">
         <f t="shared" si="1"/>
         <v>43</v>
@@ -11930,7 +11930,7 @@
       </c>
       <c r="O68" s="125"/>
     </row>
-    <row r="69" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B69" s="9">
         <f t="shared" si="1"/>
         <v>44</v>
@@ -11968,7 +11968,7 @@
       </c>
       <c r="O69" s="125"/>
     </row>
-    <row r="70" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B70" s="9">
         <f t="shared" si="1"/>
         <v>45</v>
@@ -12006,7 +12006,7 @@
       </c>
       <c r="O70" s="125"/>
     </row>
-    <row r="71" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B71" s="9">
         <f t="shared" si="1"/>
         <v>46</v>
@@ -12044,7 +12044,7 @@
       </c>
       <c r="O71" s="125"/>
     </row>
-    <row r="72" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B72" s="9">
         <f t="shared" si="1"/>
         <v>47</v>
@@ -12082,7 +12082,7 @@
       </c>
       <c r="O72" s="125"/>
     </row>
-    <row r="73" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B73" s="9">
         <f t="shared" si="1"/>
         <v>48</v>
@@ -12120,7 +12120,7 @@
       </c>
       <c r="O73" s="125"/>
     </row>
-    <row r="74" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B74" s="9">
         <f t="shared" si="1"/>
         <v>49</v>
@@ -12158,7 +12158,7 @@
       </c>
       <c r="O74" s="125"/>
     </row>
-    <row r="75" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B75" s="9">
         <f t="shared" si="1"/>
         <v>50</v>
@@ -12196,7 +12196,7 @@
       </c>
       <c r="O75" s="125"/>
     </row>
-    <row r="76" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B76" s="9">
         <f t="shared" si="1"/>
         <v>51</v>
@@ -12234,7 +12234,7 @@
       </c>
       <c r="O76" s="125"/>
     </row>
-    <row r="77" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B77" s="9">
         <f t="shared" si="1"/>
         <v>52</v>
@@ -12272,7 +12272,7 @@
       </c>
       <c r="O77" s="125"/>
     </row>
-    <row r="78" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B78" s="9">
         <f t="shared" si="1"/>
         <v>53</v>
@@ -12310,7 +12310,7 @@
       </c>
       <c r="O78" s="125"/>
     </row>
-    <row r="79" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B79" s="9">
         <f t="shared" si="1"/>
         <v>54</v>
@@ -12348,7 +12348,7 @@
       </c>
       <c r="O79" s="125"/>
     </row>
-    <row r="80" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B80" s="9">
         <f t="shared" si="1"/>
         <v>55</v>
@@ -12386,7 +12386,7 @@
       </c>
       <c r="O80" s="125"/>
     </row>
-    <row r="81" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B81" s="9">
         <f t="shared" si="1"/>
         <v>56</v>
@@ -12424,7 +12424,7 @@
       </c>
       <c r="O81" s="125"/>
     </row>
-    <row r="82" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B82" s="9">
         <f t="shared" si="1"/>
         <v>57</v>
@@ -12462,7 +12462,7 @@
       </c>
       <c r="O82" s="125"/>
     </row>
-    <row r="83" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B83" s="9">
         <f t="shared" si="1"/>
         <v>58</v>
@@ -12500,7 +12500,7 @@
       </c>
       <c r="O83" s="125"/>
     </row>
-    <row r="84" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B84" s="9">
         <f t="shared" si="1"/>
         <v>59</v>
@@ -12538,7 +12538,7 @@
       </c>
       <c r="O84" s="125"/>
     </row>
-    <row r="85" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B85" s="9">
         <f t="shared" si="1"/>
         <v>60</v>
@@ -12576,7 +12576,7 @@
       </c>
       <c r="O85" s="125"/>
     </row>
-    <row r="86" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B86" s="9">
         <f t="shared" si="1"/>
         <v>61</v>
@@ -12614,7 +12614,7 @@
       </c>
       <c r="O86" s="125"/>
     </row>
-    <row r="87" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B87" s="9">
         <f t="shared" si="1"/>
         <v>62</v>
@@ -12652,7 +12652,7 @@
       </c>
       <c r="O87" s="125"/>
     </row>
-    <row r="88" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B88" s="9">
         <f t="shared" si="1"/>
         <v>63</v>
@@ -12690,7 +12690,7 @@
       </c>
       <c r="O88" s="125"/>
     </row>
-    <row r="89" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B89" s="9">
         <f t="shared" si="1"/>
         <v>64</v>
@@ -12728,7 +12728,7 @@
       </c>
       <c r="O89" s="125"/>
     </row>
-    <row r="90" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B90" s="9">
         <f t="shared" si="1"/>
         <v>65</v>
@@ -12766,7 +12766,7 @@
       </c>
       <c r="O90" s="125"/>
     </row>
-    <row r="91" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B91" s="9">
         <f t="shared" ref="B91:B228" si="3">IF(G91&lt;&gt;"",ROW()-25,"")</f>
         <v>66</v>
@@ -15502,7 +15502,7 @@
       </c>
       <c r="O162" s="125"/>
     </row>
-    <row r="163" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B163" s="9">
         <f t="shared" si="4"/>
         <v>138</v>
@@ -15540,7 +15540,7 @@
       </c>
       <c r="O163" s="125"/>
     </row>
-    <row r="164" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B164" s="9">
         <f t="shared" si="4"/>
         <v>139</v>
@@ -15578,7 +15578,7 @@
       </c>
       <c r="O164" s="125"/>
     </row>
-    <row r="165" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B165" s="9">
         <f t="shared" si="4"/>
         <v>140</v>
@@ -15616,7 +15616,7 @@
       </c>
       <c r="O165" s="125"/>
     </row>
-    <row r="166" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B166" s="9">
         <f t="shared" si="4"/>
         <v>141</v>
@@ -15654,7 +15654,7 @@
       </c>
       <c r="O166" s="125"/>
     </row>
-    <row r="167" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B167" s="9">
         <f t="shared" si="4"/>
         <v>142</v>
@@ -15692,7 +15692,7 @@
       </c>
       <c r="O167" s="125"/>
     </row>
-    <row r="168" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B168" s="9">
         <f t="shared" si="4"/>
         <v>143</v>
@@ -15730,7 +15730,7 @@
       </c>
       <c r="O168" s="125"/>
     </row>
-    <row r="169" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B169" s="9">
         <f t="shared" si="4"/>
         <v>144</v>
@@ -15768,7 +15768,7 @@
       </c>
       <c r="O169" s="125"/>
     </row>
-    <row r="170" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B170" s="9">
         <f t="shared" si="4"/>
         <v>145</v>
@@ -15806,7 +15806,7 @@
       </c>
       <c r="O170" s="125"/>
     </row>
-    <row r="171" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B171" s="9">
         <f t="shared" si="4"/>
         <v>146</v>
@@ -15844,7 +15844,7 @@
       </c>
       <c r="O171" s="125"/>
     </row>
-    <row r="172" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B172" s="9">
         <f t="shared" si="4"/>
         <v>147</v>
@@ -15882,7 +15882,7 @@
       </c>
       <c r="O172" s="125"/>
     </row>
-    <row r="173" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B173" s="9">
         <f t="shared" si="4"/>
         <v>148</v>
@@ -15920,7 +15920,7 @@
       </c>
       <c r="O173" s="125"/>
     </row>
-    <row r="174" spans="2:15" s="124" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="2:15" s="124" customFormat="1" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B174" s="116">
         <f t="shared" si="4"/>
         <v>149</v>
@@ -15959,7 +15959,7 @@
       <c r="M174" s="14"/>
       <c r="O174" s="125"/>
     </row>
-    <row r="175" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B175" s="9">
         <f t="shared" si="4"/>
         <v>150</v>
@@ -15997,7 +15997,7 @@
       </c>
       <c r="O175" s="125"/>
     </row>
-    <row r="176" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B176" s="9">
         <f t="shared" si="4"/>
         <v>151</v>
@@ -16035,7 +16035,7 @@
       </c>
       <c r="O176" s="125"/>
     </row>
-    <row r="177" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B177" s="9">
         <f t="shared" si="4"/>
         <v>152</v>
@@ -16073,7 +16073,7 @@
       </c>
       <c r="O177" s="125"/>
     </row>
-    <row r="178" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B178" s="9">
         <f t="shared" si="4"/>
         <v>153</v>
@@ -16111,7 +16111,7 @@
       </c>
       <c r="O178" s="125"/>
     </row>
-    <row r="179" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B179" s="9">
         <f t="shared" si="4"/>
         <v>154</v>
@@ -16149,7 +16149,7 @@
       </c>
       <c r="O179" s="125"/>
     </row>
-    <row r="180" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B180" s="9">
         <f t="shared" si="4"/>
         <v>155</v>
@@ -16187,7 +16187,7 @@
       </c>
       <c r="O180" s="125"/>
     </row>
-    <row r="181" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B181" s="9">
         <f t="shared" si="4"/>
         <v>156</v>
@@ -16225,7 +16225,7 @@
       </c>
       <c r="O181" s="125"/>
     </row>
-    <row r="182" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B182" s="9">
         <f t="shared" si="4"/>
         <v>157</v>
@@ -16263,7 +16263,7 @@
       </c>
       <c r="O182" s="125"/>
     </row>
-    <row r="183" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B183" s="9">
         <f t="shared" si="4"/>
         <v>158</v>
@@ -16301,7 +16301,7 @@
       </c>
       <c r="O183" s="125"/>
     </row>
-    <row r="184" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B184" s="9">
         <f t="shared" si="3"/>
         <v>159</v>
@@ -16339,7 +16339,7 @@
       </c>
       <c r="O184" s="125"/>
     </row>
-    <row r="185" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B185" s="9">
         <f t="shared" si="3"/>
         <v>160</v>
@@ -16377,7 +16377,7 @@
       </c>
       <c r="O185" s="125"/>
     </row>
-    <row r="186" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B186" s="9">
         <f t="shared" si="3"/>
         <v>161</v>
@@ -16415,7 +16415,7 @@
       </c>
       <c r="O186" s="125"/>
     </row>
-    <row r="187" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B187" s="9">
         <f t="shared" si="3"/>
         <v>162</v>
@@ -16453,7 +16453,7 @@
       </c>
       <c r="O187" s="125"/>
     </row>
-    <row r="188" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B188" s="9">
         <f t="shared" si="3"/>
         <v>163</v>
@@ -16491,7 +16491,7 @@
       </c>
       <c r="O188" s="125"/>
     </row>
-    <row r="189" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B189" s="9">
         <f t="shared" si="3"/>
         <v>164</v>
@@ -16529,7 +16529,7 @@
       </c>
       <c r="O189" s="125"/>
     </row>
-    <row r="190" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B190" s="9">
         <f t="shared" si="3"/>
         <v>165</v>
@@ -16567,7 +16567,7 @@
       </c>
       <c r="O190" s="125"/>
     </row>
-    <row r="191" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B191" s="9">
         <f t="shared" si="3"/>
         <v>166</v>
@@ -16605,7 +16605,7 @@
       </c>
       <c r="O191" s="125"/>
     </row>
-    <row r="192" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B192" s="9">
         <f t="shared" si="3"/>
         <v>167</v>
@@ -16643,7 +16643,7 @@
       </c>
       <c r="O192" s="125"/>
     </row>
-    <row r="193" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B193" s="9">
         <f t="shared" si="3"/>
         <v>168</v>
@@ -16681,7 +16681,7 @@
       </c>
       <c r="O193" s="125"/>
     </row>
-    <row r="194" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B194" s="9">
         <f t="shared" si="3"/>
         <v>169</v>
@@ -16719,7 +16719,7 @@
       </c>
       <c r="O194" s="125"/>
     </row>
-    <row r="195" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B195" s="9">
         <f t="shared" si="3"/>
         <v>170</v>
@@ -16757,7 +16757,7 @@
       </c>
       <c r="O195" s="125"/>
     </row>
-    <row r="196" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B196" s="9">
         <f t="shared" si="3"/>
         <v>171</v>
@@ -16795,7 +16795,7 @@
       </c>
       <c r="O196" s="125"/>
     </row>
-    <row r="197" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B197" s="9">
         <f t="shared" si="3"/>
         <v>172</v>
@@ -16833,7 +16833,7 @@
       </c>
       <c r="O197" s="125"/>
     </row>
-    <row r="198" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B198" s="9">
         <f t="shared" si="3"/>
         <v>173</v>
@@ -16871,7 +16871,7 @@
       </c>
       <c r="O198" s="125"/>
     </row>
-    <row r="199" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B199" s="9">
         <f t="shared" si="3"/>
         <v>174</v>
@@ -16909,7 +16909,7 @@
       </c>
       <c r="O199" s="125"/>
     </row>
-    <row r="200" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B200" s="9">
         <f t="shared" si="3"/>
         <v>175</v>
@@ -16947,7 +16947,7 @@
       </c>
       <c r="O200" s="125"/>
     </row>
-    <row r="201" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B201" s="9">
         <f t="shared" si="3"/>
         <v>176</v>
@@ -16985,7 +16985,7 @@
       </c>
       <c r="O201" s="125"/>
     </row>
-    <row r="202" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B202" s="9">
         <f t="shared" si="3"/>
         <v>177</v>
@@ -17023,7 +17023,7 @@
       </c>
       <c r="O202" s="125"/>
     </row>
-    <row r="203" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B203" s="9">
         <f t="shared" si="3"/>
         <v>178</v>
@@ -17061,7 +17061,7 @@
       </c>
       <c r="O203" s="125"/>
     </row>
-    <row r="204" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B204" s="9">
         <f t="shared" si="3"/>
         <v>179</v>
@@ -17099,7 +17099,7 @@
       </c>
       <c r="O204" s="125"/>
     </row>
-    <row r="205" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B205" s="9">
         <f t="shared" si="3"/>
         <v>180</v>
@@ -17137,7 +17137,7 @@
       </c>
       <c r="O205" s="125"/>
     </row>
-    <row r="206" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B206" s="9">
         <f t="shared" si="3"/>
         <v>181</v>
@@ -17175,7 +17175,7 @@
       </c>
       <c r="O206" s="125"/>
     </row>
-    <row r="207" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B207" s="9">
         <f t="shared" si="3"/>
         <v>182</v>
@@ -17213,7 +17213,7 @@
       </c>
       <c r="O207" s="125"/>
     </row>
-    <row r="208" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B208" s="9">
         <f t="shared" si="3"/>
         <v>183</v>
@@ -17251,7 +17251,7 @@
       </c>
       <c r="O208" s="125"/>
     </row>
-    <row r="209" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B209" s="9">
         <f t="shared" si="3"/>
         <v>184</v>
@@ -17289,7 +17289,7 @@
       </c>
       <c r="O209" s="125"/>
     </row>
-    <row r="210" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B210" s="9">
         <f t="shared" si="3"/>
         <v>185</v>
@@ -17327,7 +17327,7 @@
       </c>
       <c r="O210" s="125"/>
     </row>
-    <row r="211" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B211" s="9">
         <f t="shared" si="3"/>
         <v>186</v>
@@ -17365,7 +17365,7 @@
       </c>
       <c r="O211" s="125"/>
     </row>
-    <row r="212" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B212" s="9">
         <f t="shared" si="3"/>
         <v>187</v>
@@ -17403,7 +17403,7 @@
       </c>
       <c r="O212" s="125"/>
     </row>
-    <row r="213" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B213" s="9">
         <f t="shared" si="3"/>
         <v>188</v>
@@ -17441,7 +17441,7 @@
       </c>
       <c r="O213" s="125"/>
     </row>
-    <row r="214" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B214" s="9">
         <f t="shared" si="3"/>
         <v>189</v>
@@ -17479,7 +17479,7 @@
       </c>
       <c r="O214" s="125"/>
     </row>
-    <row r="215" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B215" s="9">
         <f t="shared" si="3"/>
         <v>190</v>
@@ -17517,7 +17517,7 @@
       </c>
       <c r="O215" s="125"/>
     </row>
-    <row r="216" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B216" s="9">
         <f t="shared" si="3"/>
         <v>191</v>
@@ -17555,7 +17555,7 @@
       </c>
       <c r="O216" s="125"/>
     </row>
-    <row r="217" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B217" s="9">
         <f t="shared" si="3"/>
         <v>192</v>
@@ -17593,7 +17593,7 @@
       </c>
       <c r="O217" s="125"/>
     </row>
-    <row r="218" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B218" s="9">
         <f t="shared" si="3"/>
         <v>193</v>
@@ -17631,7 +17631,7 @@
       </c>
       <c r="O218" s="125"/>
     </row>
-    <row r="219" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B219" s="9">
         <f t="shared" si="3"/>
         <v>194</v>
@@ -17669,7 +17669,7 @@
       </c>
       <c r="O219" s="125"/>
     </row>
-    <row r="220" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B220" s="9">
         <f t="shared" si="3"/>
         <v>195</v>
@@ -17707,7 +17707,7 @@
       </c>
       <c r="O220" s="125"/>
     </row>
-    <row r="221" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B221" s="9">
         <f t="shared" si="3"/>
         <v>196</v>
@@ -17745,7 +17745,7 @@
       </c>
       <c r="O221" s="125"/>
     </row>
-    <row r="222" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B222" s="9">
         <f t="shared" si="3"/>
         <v>197</v>
@@ -17783,7 +17783,7 @@
       </c>
       <c r="O222" s="125"/>
     </row>
-    <row r="223" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B223" s="9">
         <f t="shared" si="3"/>
         <v>198</v>
@@ -17821,7 +17821,7 @@
       </c>
       <c r="O223" s="125"/>
     </row>
-    <row r="224" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B224" s="9">
         <f t="shared" si="3"/>
         <v>199</v>
@@ -17859,7 +17859,7 @@
       </c>
       <c r="O224" s="125"/>
     </row>
-    <row r="225" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B225" s="9">
         <f t="shared" si="3"/>
         <v>200</v>
@@ -17897,7 +17897,7 @@
       </c>
       <c r="O225" s="125"/>
     </row>
-    <row r="226" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B226" s="9">
         <f t="shared" si="3"/>
         <v>201</v>
@@ -17935,7 +17935,7 @@
       </c>
       <c r="O226" s="125"/>
     </row>
-    <row r="227" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B227" s="9">
         <f t="shared" si="3"/>
         <v>202</v>
@@ -17973,7 +17973,7 @@
       </c>
       <c r="O227" s="125"/>
     </row>
-    <row r="228" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B228" s="9">
         <f t="shared" si="3"/>
         <v>203</v>
@@ -18011,7 +18011,7 @@
       </c>
       <c r="O228" s="125"/>
     </row>
-    <row r="229" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B229" s="9">
         <f t="shared" ref="B229:B241" si="6">IF(G229&lt;&gt;"",ROW()-25,"")</f>
         <v>204</v>
@@ -18049,7 +18049,7 @@
       </c>
       <c r="O229" s="125"/>
     </row>
-    <row r="230" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B230" s="9">
         <f t="shared" si="6"/>
         <v>205</v>
@@ -18087,7 +18087,7 @@
       </c>
       <c r="O230" s="125"/>
     </row>
-    <row r="231" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B231" s="9">
         <f t="shared" si="6"/>
         <v>206</v>
@@ -18125,7 +18125,7 @@
       </c>
       <c r="O231" s="125"/>
     </row>
-    <row r="232" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B232" s="9">
         <f t="shared" si="6"/>
         <v>207</v>
@@ -18163,7 +18163,7 @@
       </c>
       <c r="O232" s="125"/>
     </row>
-    <row r="233" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B233" s="9">
         <f t="shared" si="6"/>
         <v>208</v>
@@ -18201,7 +18201,7 @@
       </c>
       <c r="O233" s="125"/>
     </row>
-    <row r="234" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B234" s="9">
         <f t="shared" si="6"/>
         <v>209</v>
@@ -18239,7 +18239,7 @@
       </c>
       <c r="O234" s="125"/>
     </row>
-    <row r="235" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B235" s="9">
         <f t="shared" si="6"/>
         <v>210</v>
@@ -18277,7 +18277,7 @@
       </c>
       <c r="O235" s="125"/>
     </row>
-    <row r="236" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B236" s="9">
         <f t="shared" si="6"/>
         <v>211</v>
@@ -18315,7 +18315,7 @@
       </c>
       <c r="O236" s="125"/>
     </row>
-    <row r="237" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B237" s="9">
         <f t="shared" si="6"/>
         <v>212</v>
@@ -18353,7 +18353,7 @@
       </c>
       <c r="O237" s="125"/>
     </row>
-    <row r="238" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B238" s="9">
         <f t="shared" si="6"/>
         <v>213</v>
@@ -18391,7 +18391,7 @@
       </c>
       <c r="O238" s="125"/>
     </row>
-    <row r="239" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B239" s="9">
         <f t="shared" si="6"/>
         <v>214</v>
@@ -18429,7 +18429,7 @@
       </c>
       <c r="O239" s="125"/>
     </row>
-    <row r="240" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B240" s="9">
         <f t="shared" si="6"/>
         <v>215</v>
@@ -18467,7 +18467,7 @@
       </c>
       <c r="O240" s="125"/>
     </row>
-    <row r="241" spans="2:15" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B241" s="9">
         <f t="shared" si="6"/>
         <v>216</v>
@@ -18531,26 +18531,26 @@
       <c r="I243" s="27"/>
       <c r="J243" s="28">
         <f>SUBTOTAL(9,J26:J242)</f>
-        <v>894827877</v>
+        <v>334838960</v>
       </c>
       <c r="K243" s="28">
         <f>SUBTOTAL(9,K26:K242)</f>
-        <v>89482788</v>
+        <v>33483896</v>
       </c>
       <c r="L243" s="29"/>
     </row>
     <row r="244" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="245" spans="2:15" ht="21" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B245" s="142" t="s">
+      <c r="B245" s="139" t="s">
         <v>40</v>
       </c>
-      <c r="C245" s="143"/>
-      <c r="D245" s="143"/>
-      <c r="E245" s="143"/>
-      <c r="F245" s="143"/>
-      <c r="G245" s="143"/>
-      <c r="H245" s="143"/>
-      <c r="I245" s="143"/>
+      <c r="C245" s="140"/>
+      <c r="D245" s="140"/>
+      <c r="E245" s="140"/>
+      <c r="F245" s="140"/>
+      <c r="G245" s="140"/>
+      <c r="H245" s="140"/>
+      <c r="I245" s="140"/>
       <c r="J245" s="19"/>
       <c r="K245" s="19"/>
       <c r="L245" s="24"/>
@@ -18593,7 +18593,7 @@
       <c r="G248" s="15"/>
       <c r="H248" s="85">
         <f>J243</f>
-        <v>894827877</v>
+        <v>334838960</v>
       </c>
       <c r="I248" s="15"/>
       <c r="L248" s="15"/>
@@ -18608,7 +18608,7 @@
       <c r="G249" s="15"/>
       <c r="H249" s="85">
         <f>K243</f>
-        <v>89482788</v>
+        <v>33483896</v>
       </c>
       <c r="I249" s="15"/>
       <c r="L249" s="15"/>
@@ -18688,11 +18688,20 @@
   <autoFilter ref="A25:N241">
     <filterColumn colId="11">
       <filters>
-        <filter val="4"/>
+        <filter val="2"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <mergeCells count="20">
+    <mergeCell ref="B4:L4"/>
+    <mergeCell ref="B5:L5"/>
+    <mergeCell ref="B6:L6"/>
+    <mergeCell ref="B7:L7"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="C12:C14"/>
+    <mergeCell ref="D12:D14"/>
+    <mergeCell ref="E12:E14"/>
+    <mergeCell ref="F12:F14"/>
     <mergeCell ref="B19:I19"/>
     <mergeCell ref="B22:I22"/>
     <mergeCell ref="B245:I245"/>
@@ -18704,15 +18713,6 @@
     <mergeCell ref="J12:J14"/>
     <mergeCell ref="K12:K14"/>
     <mergeCell ref="L12:L14"/>
-    <mergeCell ref="B4:L4"/>
-    <mergeCell ref="B5:L5"/>
-    <mergeCell ref="B6:L6"/>
-    <mergeCell ref="B7:L7"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="C12:C14"/>
-    <mergeCell ref="D12:D14"/>
-    <mergeCell ref="E12:E14"/>
-    <mergeCell ref="F12:F14"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N14">
@@ -18755,23 +18755,23 @@
   <sheetData>
     <row r="1" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B2" s="154" t="s">
+      <c r="B2" s="149" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="155"/>
-      <c r="I2" s="155"/>
-      <c r="J2" s="155"/>
-      <c r="K2" s="155"/>
-      <c r="L2" s="155"/>
-      <c r="M2" s="155"/>
-      <c r="N2" s="155"/>
-      <c r="O2" s="155"/>
-      <c r="P2" s="156"/>
+      <c r="C2" s="150"/>
+      <c r="D2" s="150"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="150"/>
+      <c r="G2" s="150"/>
+      <c r="H2" s="150"/>
+      <c r="I2" s="150"/>
+      <c r="J2" s="150"/>
+      <c r="K2" s="150"/>
+      <c r="L2" s="150"/>
+      <c r="M2" s="150"/>
+      <c r="N2" s="150"/>
+      <c r="O2" s="150"/>
+      <c r="P2" s="151"/>
       <c r="R2" s="11" t="s">
         <v>94</v>
       </c>
@@ -18780,23 +18780,23 @@
       </c>
     </row>
     <row r="3" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B3" s="157" t="s">
+      <c r="B3" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="158"/>
-      <c r="I3" s="158"/>
-      <c r="J3" s="158"/>
-      <c r="K3" s="158"/>
-      <c r="L3" s="158"/>
-      <c r="M3" s="158"/>
-      <c r="N3" s="158"/>
-      <c r="O3" s="158"/>
-      <c r="P3" s="159"/>
+      <c r="C3" s="153"/>
+      <c r="D3" s="153"/>
+      <c r="E3" s="153"/>
+      <c r="F3" s="153"/>
+      <c r="G3" s="153"/>
+      <c r="H3" s="153"/>
+      <c r="I3" s="153"/>
+      <c r="J3" s="153"/>
+      <c r="K3" s="153"/>
+      <c r="L3" s="153"/>
+      <c r="M3" s="153"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="153"/>
+      <c r="P3" s="154"/>
       <c r="R3" s="11" t="s">
         <v>105</v>
       </c>
@@ -18806,22 +18806,22 @@
     </row>
     <row r="4" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B4" s="92"/>
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="146" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="150"/>
-      <c r="E4" s="150"/>
-      <c r="F4" s="150"/>
-      <c r="G4" s="150"/>
-      <c r="H4" s="150"/>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="150"/>
-      <c r="P4" s="151"/>
+      <c r="D4" s="146"/>
+      <c r="E4" s="146"/>
+      <c r="F4" s="146"/>
+      <c r="G4" s="146"/>
+      <c r="H4" s="146"/>
+      <c r="I4" s="146"/>
+      <c r="J4" s="146"/>
+      <c r="K4" s="146"/>
+      <c r="L4" s="146"/>
+      <c r="M4" s="146"/>
+      <c r="N4" s="146"/>
+      <c r="O4" s="146"/>
+      <c r="P4" s="155"/>
       <c r="R4" s="11" t="s">
         <v>343</v>
       </c>
@@ -18831,22 +18831,22 @@
     </row>
     <row r="5" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B5" s="92"/>
-      <c r="C5" s="150" t="s">
+      <c r="C5" s="146" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="150"/>
-      <c r="E5" s="150"/>
-      <c r="F5" s="150"/>
-      <c r="G5" s="150"/>
-      <c r="H5" s="150"/>
-      <c r="I5" s="150"/>
-      <c r="J5" s="150"/>
-      <c r="K5" s="150"/>
-      <c r="L5" s="150"/>
-      <c r="M5" s="150"/>
-      <c r="N5" s="150"/>
-      <c r="O5" s="150"/>
-      <c r="P5" s="151"/>
+      <c r="D5" s="146"/>
+      <c r="E5" s="146"/>
+      <c r="F5" s="146"/>
+      <c r="G5" s="146"/>
+      <c r="H5" s="146"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="146"/>
+      <c r="N5" s="146"/>
+      <c r="O5" s="146"/>
+      <c r="P5" s="155"/>
       <c r="R5" s="11" t="s">
         <v>100</v>
       </c>
@@ -18857,21 +18857,21 @@
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B6" s="92"/>
       <c r="C6" s="93"/>
-      <c r="D6" s="150" t="s">
+      <c r="D6" s="146" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="146"/>
-      <c r="F6" s="146"/>
-      <c r="G6" s="146"/>
-      <c r="H6" s="146"/>
-      <c r="I6" s="146"/>
-      <c r="J6" s="146"/>
-      <c r="K6" s="146"/>
-      <c r="L6" s="146"/>
-      <c r="M6" s="146"/>
-      <c r="N6" s="146"/>
-      <c r="O6" s="146"/>
-      <c r="P6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="147"/>
+      <c r="I6" s="147"/>
+      <c r="J6" s="147"/>
+      <c r="K6" s="147"/>
+      <c r="L6" s="147"/>
+      <c r="M6" s="147"/>
+      <c r="N6" s="147"/>
+      <c r="O6" s="147"/>
+      <c r="P6" s="148"/>
       <c r="R6" s="11" t="s">
         <v>107</v>
       </c>
@@ -18882,21 +18882,21 @@
     <row r="7" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B7" s="92"/>
       <c r="C7" s="93"/>
-      <c r="D7" s="150" t="s">
+      <c r="D7" s="146" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="146"/>
-      <c r="F7" s="146"/>
-      <c r="G7" s="146"/>
-      <c r="H7" s="146"/>
-      <c r="I7" s="146"/>
-      <c r="J7" s="146"/>
-      <c r="K7" s="146"/>
-      <c r="L7" s="146"/>
-      <c r="M7" s="146"/>
-      <c r="N7" s="146"/>
-      <c r="O7" s="146"/>
-      <c r="P7" s="147"/>
+      <c r="E7" s="147"/>
+      <c r="F7" s="147"/>
+      <c r="G7" s="147"/>
+      <c r="H7" s="147"/>
+      <c r="I7" s="147"/>
+      <c r="J7" s="147"/>
+      <c r="K7" s="147"/>
+      <c r="L7" s="147"/>
+      <c r="M7" s="147"/>
+      <c r="N7" s="147"/>
+      <c r="O7" s="147"/>
+      <c r="P7" s="148"/>
       <c r="R7" s="11" t="s">
         <v>90</v>
       </c>
@@ -18907,21 +18907,21 @@
     <row r="8" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B8" s="92"/>
       <c r="C8" s="93"/>
-      <c r="D8" s="150" t="s">
+      <c r="D8" s="146" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="146"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="146"/>
-      <c r="H8" s="146"/>
-      <c r="I8" s="146"/>
-      <c r="J8" s="146"/>
-      <c r="K8" s="146"/>
-      <c r="L8" s="146"/>
-      <c r="M8" s="146"/>
-      <c r="N8" s="146"/>
-      <c r="O8" s="146"/>
-      <c r="P8" s="147"/>
+      <c r="E8" s="147"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="147"/>
+      <c r="H8" s="147"/>
+      <c r="I8" s="147"/>
+      <c r="J8" s="147"/>
+      <c r="K8" s="147"/>
+      <c r="L8" s="147"/>
+      <c r="M8" s="147"/>
+      <c r="N8" s="147"/>
+      <c r="O8" s="147"/>
+      <c r="P8" s="148"/>
       <c r="R8" s="11" t="s">
         <v>351</v>
       </c>
@@ -18932,21 +18932,21 @@
     <row r="9" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B9" s="92"/>
       <c r="C9" s="93"/>
-      <c r="D9" s="150" t="s">
+      <c r="D9" s="146" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="146"/>
-      <c r="F9" s="146"/>
-      <c r="G9" s="146"/>
-      <c r="H9" s="146"/>
-      <c r="I9" s="146"/>
-      <c r="J9" s="146"/>
-      <c r="K9" s="146"/>
-      <c r="L9" s="146"/>
-      <c r="M9" s="146"/>
-      <c r="N9" s="146"/>
-      <c r="O9" s="146"/>
-      <c r="P9" s="147"/>
+      <c r="E9" s="147"/>
+      <c r="F9" s="147"/>
+      <c r="G9" s="147"/>
+      <c r="H9" s="147"/>
+      <c r="I9" s="147"/>
+      <c r="J9" s="147"/>
+      <c r="K9" s="147"/>
+      <c r="L9" s="147"/>
+      <c r="M9" s="147"/>
+      <c r="N9" s="147"/>
+      <c r="O9" s="147"/>
+      <c r="P9" s="148"/>
       <c r="R9" s="11" t="s">
         <v>97</v>
       </c>
@@ -18957,21 +18957,21 @@
     <row r="10" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B10" s="92"/>
       <c r="C10" s="93"/>
-      <c r="D10" s="150" t="s">
+      <c r="D10" s="146" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="146"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="146"/>
-      <c r="H10" s="146"/>
-      <c r="I10" s="146"/>
-      <c r="J10" s="146"/>
-      <c r="K10" s="146"/>
-      <c r="L10" s="146"/>
-      <c r="M10" s="146"/>
-      <c r="N10" s="146"/>
-      <c r="O10" s="146"/>
-      <c r="P10" s="147"/>
+      <c r="E10" s="147"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="147"/>
+      <c r="H10" s="147"/>
+      <c r="I10" s="147"/>
+      <c r="J10" s="147"/>
+      <c r="K10" s="147"/>
+      <c r="L10" s="147"/>
+      <c r="M10" s="147"/>
+      <c r="N10" s="147"/>
+      <c r="O10" s="147"/>
+      <c r="P10" s="148"/>
       <c r="R10" s="11" t="s">
         <v>364</v>
       </c>
@@ -18981,22 +18981,22 @@
     </row>
     <row r="11" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B11" s="92"/>
-      <c r="C11" s="150" t="s">
+      <c r="C11" s="146" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="150"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="150"/>
-      <c r="J11" s="150"/>
-      <c r="K11" s="150"/>
-      <c r="L11" s="150"/>
-      <c r="M11" s="150"/>
-      <c r="N11" s="150"/>
-      <c r="O11" s="150"/>
-      <c r="P11" s="151"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="146"/>
+      <c r="K11" s="146"/>
+      <c r="L11" s="146"/>
+      <c r="M11" s="146"/>
+      <c r="N11" s="146"/>
+      <c r="O11" s="146"/>
+      <c r="P11" s="155"/>
       <c r="R11" s="11" t="s">
         <v>93</v>
       </c>
@@ -19006,22 +19006,22 @@
     </row>
     <row r="12" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B12" s="92"/>
-      <c r="C12" s="150" t="s">
+      <c r="C12" s="146" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="150"/>
-      <c r="E12" s="150"/>
-      <c r="F12" s="150"/>
-      <c r="G12" s="150"/>
-      <c r="H12" s="150"/>
-      <c r="I12" s="150"/>
-      <c r="J12" s="150"/>
-      <c r="K12" s="150"/>
-      <c r="L12" s="150"/>
-      <c r="M12" s="150"/>
-      <c r="N12" s="150"/>
-      <c r="O12" s="150"/>
-      <c r="P12" s="151"/>
+      <c r="D12" s="146"/>
+      <c r="E12" s="146"/>
+      <c r="F12" s="146"/>
+      <c r="G12" s="146"/>
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="146"/>
+      <c r="K12" s="146"/>
+      <c r="L12" s="146"/>
+      <c r="M12" s="146"/>
+      <c r="N12" s="146"/>
+      <c r="O12" s="146"/>
+      <c r="P12" s="155"/>
       <c r="R12" s="11" t="s">
         <v>92</v>
       </c>
@@ -19053,23 +19053,23 @@
       </c>
     </row>
     <row r="14" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="B14" s="157" t="s">
+      <c r="B14" s="152" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="158"/>
-      <c r="D14" s="158"/>
-      <c r="E14" s="158"/>
-      <c r="F14" s="158"/>
-      <c r="G14" s="158"/>
-      <c r="H14" s="158"/>
-      <c r="I14" s="158"/>
-      <c r="J14" s="158"/>
-      <c r="K14" s="158"/>
-      <c r="L14" s="158"/>
-      <c r="M14" s="158"/>
-      <c r="N14" s="158"/>
-      <c r="O14" s="158"/>
-      <c r="P14" s="159"/>
+      <c r="C14" s="153"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="153"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="153"/>
+      <c r="H14" s="153"/>
+      <c r="I14" s="153"/>
+      <c r="J14" s="153"/>
+      <c r="K14" s="153"/>
+      <c r="L14" s="153"/>
+      <c r="M14" s="153"/>
+      <c r="N14" s="153"/>
+      <c r="O14" s="153"/>
+      <c r="P14" s="154"/>
       <c r="R14" s="11" t="s">
         <v>344</v>
       </c>
@@ -19079,22 +19079,22 @@
     </row>
     <row r="15" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B15" s="92"/>
-      <c r="C15" s="150" t="s">
+      <c r="C15" s="146" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="150"/>
-      <c r="E15" s="150"/>
-      <c r="F15" s="150"/>
-      <c r="G15" s="150"/>
-      <c r="H15" s="150"/>
-      <c r="I15" s="150"/>
-      <c r="J15" s="150"/>
-      <c r="K15" s="150"/>
-      <c r="L15" s="150"/>
-      <c r="M15" s="150"/>
-      <c r="N15" s="150"/>
-      <c r="O15" s="150"/>
-      <c r="P15" s="151"/>
+      <c r="D15" s="146"/>
+      <c r="E15" s="146"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="146"/>
+      <c r="H15" s="146"/>
+      <c r="I15" s="146"/>
+      <c r="J15" s="146"/>
+      <c r="K15" s="146"/>
+      <c r="L15" s="146"/>
+      <c r="M15" s="146"/>
+      <c r="N15" s="146"/>
+      <c r="O15" s="146"/>
+      <c r="P15" s="155"/>
       <c r="R15" s="11" t="s">
         <v>91</v>
       </c>
@@ -19105,21 +19105,21 @@
     <row r="16" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B16" s="92"/>
       <c r="C16" s="95"/>
-      <c r="D16" s="146" t="s">
+      <c r="D16" s="147" t="s">
         <v>42</v>
       </c>
-      <c r="E16" s="146"/>
-      <c r="F16" s="146"/>
-      <c r="G16" s="146"/>
-      <c r="H16" s="146"/>
-      <c r="I16" s="146"/>
-      <c r="J16" s="146"/>
-      <c r="K16" s="146"/>
-      <c r="L16" s="146"/>
-      <c r="M16" s="146"/>
-      <c r="N16" s="146"/>
-      <c r="O16" s="146"/>
-      <c r="P16" s="147"/>
+      <c r="E16" s="147"/>
+      <c r="F16" s="147"/>
+      <c r="G16" s="147"/>
+      <c r="H16" s="147"/>
+      <c r="I16" s="147"/>
+      <c r="J16" s="147"/>
+      <c r="K16" s="147"/>
+      <c r="L16" s="147"/>
+      <c r="M16" s="147"/>
+      <c r="N16" s="147"/>
+      <c r="O16" s="147"/>
+      <c r="P16" s="148"/>
       <c r="R16" s="11" t="s">
         <v>252</v>
       </c>
@@ -19155,21 +19155,21 @@
     <row r="18" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B18" s="92"/>
       <c r="C18" s="93"/>
-      <c r="D18" s="146" t="s">
+      <c r="D18" s="147" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="146"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="146"/>
-      <c r="H18" s="146"/>
-      <c r="I18" s="146"/>
-      <c r="J18" s="146"/>
-      <c r="K18" s="146"/>
-      <c r="L18" s="146"/>
-      <c r="M18" s="146"/>
-      <c r="N18" s="146"/>
-      <c r="O18" s="146"/>
-      <c r="P18" s="147"/>
+      <c r="E18" s="147"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="147"/>
+      <c r="H18" s="147"/>
+      <c r="I18" s="147"/>
+      <c r="J18" s="147"/>
+      <c r="K18" s="147"/>
+      <c r="L18" s="147"/>
+      <c r="M18" s="147"/>
+      <c r="N18" s="147"/>
+      <c r="O18" s="147"/>
+      <c r="P18" s="148"/>
       <c r="R18" s="11" t="s">
         <v>251</v>
       </c>
@@ -19180,21 +19180,21 @@
     <row r="19" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B19" s="92"/>
       <c r="C19" s="93"/>
-      <c r="D19" s="146" t="s">
+      <c r="D19" s="147" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="146"/>
-      <c r="F19" s="146"/>
-      <c r="G19" s="146"/>
-      <c r="H19" s="146"/>
-      <c r="I19" s="146"/>
-      <c r="J19" s="146"/>
-      <c r="K19" s="146"/>
-      <c r="L19" s="146"/>
-      <c r="M19" s="146"/>
-      <c r="N19" s="146"/>
-      <c r="O19" s="146"/>
-      <c r="P19" s="147"/>
+      <c r="E19" s="147"/>
+      <c r="F19" s="147"/>
+      <c r="G19" s="147"/>
+      <c r="H19" s="147"/>
+      <c r="I19" s="147"/>
+      <c r="J19" s="147"/>
+      <c r="K19" s="147"/>
+      <c r="L19" s="147"/>
+      <c r="M19" s="147"/>
+      <c r="N19" s="147"/>
+      <c r="O19" s="147"/>
+      <c r="P19" s="148"/>
       <c r="R19" s="11" t="s">
         <v>346</v>
       </c>
@@ -19205,21 +19205,21 @@
     <row r="20" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B20" s="92"/>
       <c r="C20" s="93"/>
-      <c r="D20" s="146" t="s">
+      <c r="D20" s="147" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="146"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="146"/>
-      <c r="H20" s="146"/>
-      <c r="I20" s="146"/>
-      <c r="J20" s="146"/>
-      <c r="K20" s="146"/>
-      <c r="L20" s="146"/>
-      <c r="M20" s="146"/>
-      <c r="N20" s="146"/>
-      <c r="O20" s="146"/>
-      <c r="P20" s="147"/>
+      <c r="E20" s="147"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="147"/>
+      <c r="H20" s="147"/>
+      <c r="I20" s="147"/>
+      <c r="J20" s="147"/>
+      <c r="K20" s="147"/>
+      <c r="L20" s="147"/>
+      <c r="M20" s="147"/>
+      <c r="N20" s="147"/>
+      <c r="O20" s="147"/>
+      <c r="P20" s="148"/>
       <c r="R20" s="11" t="s">
         <v>347</v>
       </c>
@@ -19230,21 +19230,21 @@
     <row r="21" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B21" s="92"/>
       <c r="C21" s="93"/>
-      <c r="D21" s="146" t="s">
+      <c r="D21" s="147" t="s">
         <v>51</v>
       </c>
-      <c r="E21" s="146"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="146"/>
-      <c r="H21" s="146"/>
-      <c r="I21" s="146"/>
-      <c r="J21" s="146"/>
-      <c r="K21" s="146"/>
-      <c r="L21" s="146"/>
-      <c r="M21" s="146"/>
-      <c r="N21" s="146"/>
-      <c r="O21" s="146"/>
-      <c r="P21" s="147"/>
+      <c r="E21" s="147"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="147"/>
+      <c r="H21" s="147"/>
+      <c r="I21" s="147"/>
+      <c r="J21" s="147"/>
+      <c r="K21" s="147"/>
+      <c r="L21" s="147"/>
+      <c r="M21" s="147"/>
+      <c r="N21" s="147"/>
+      <c r="O21" s="147"/>
+      <c r="P21" s="148"/>
       <c r="R21" s="11" t="s">
         <v>348</v>
       </c>
@@ -19255,21 +19255,21 @@
     <row r="22" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B22" s="92"/>
       <c r="C22" s="93"/>
-      <c r="D22" s="146" t="s">
+      <c r="D22" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="146"/>
-      <c r="F22" s="146"/>
-      <c r="G22" s="146"/>
-      <c r="H22" s="146"/>
-      <c r="I22" s="146"/>
-      <c r="J22" s="146"/>
-      <c r="K22" s="146"/>
-      <c r="L22" s="146"/>
-      <c r="M22" s="146"/>
-      <c r="N22" s="146"/>
-      <c r="O22" s="146"/>
-      <c r="P22" s="147"/>
+      <c r="E22" s="147"/>
+      <c r="F22" s="147"/>
+      <c r="G22" s="147"/>
+      <c r="H22" s="147"/>
+      <c r="I22" s="147"/>
+      <c r="J22" s="147"/>
+      <c r="K22" s="147"/>
+      <c r="L22" s="147"/>
+      <c r="M22" s="147"/>
+      <c r="N22" s="147"/>
+      <c r="O22" s="147"/>
+      <c r="P22" s="148"/>
       <c r="R22" s="11" t="s">
         <v>349</v>
       </c>
@@ -19280,21 +19280,21 @@
     <row r="23" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B23" s="92"/>
       <c r="C23" s="93"/>
-      <c r="D23" s="146" t="s">
+      <c r="D23" s="147" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="146"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="146"/>
-      <c r="H23" s="146"/>
-      <c r="I23" s="146"/>
-      <c r="J23" s="146"/>
-      <c r="K23" s="146"/>
-      <c r="L23" s="146"/>
-      <c r="M23" s="146"/>
-      <c r="N23" s="146"/>
-      <c r="O23" s="146"/>
-      <c r="P23" s="147"/>
+      <c r="E23" s="147"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="147"/>
+      <c r="H23" s="147"/>
+      <c r="I23" s="147"/>
+      <c r="J23" s="147"/>
+      <c r="K23" s="147"/>
+      <c r="L23" s="147"/>
+      <c r="M23" s="147"/>
+      <c r="N23" s="147"/>
+      <c r="O23" s="147"/>
+      <c r="P23" s="148"/>
       <c r="R23" s="11" t="s">
         <v>350</v>
       </c>
@@ -19305,21 +19305,21 @@
     <row r="24" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B24" s="92"/>
       <c r="C24" s="93"/>
-      <c r="D24" s="146" t="s">
+      <c r="D24" s="147" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="146"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="146"/>
-      <c r="H24" s="146"/>
-      <c r="I24" s="146"/>
-      <c r="J24" s="146"/>
-      <c r="K24" s="146"/>
-      <c r="L24" s="146"/>
-      <c r="M24" s="146"/>
-      <c r="N24" s="146"/>
-      <c r="O24" s="146"/>
-      <c r="P24" s="147"/>
+      <c r="E24" s="147"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="147"/>
+      <c r="H24" s="147"/>
+      <c r="I24" s="147"/>
+      <c r="J24" s="147"/>
+      <c r="K24" s="147"/>
+      <c r="L24" s="147"/>
+      <c r="M24" s="147"/>
+      <c r="N24" s="147"/>
+      <c r="O24" s="147"/>
+      <c r="P24" s="148"/>
       <c r="R24" s="11" t="s">
         <v>352</v>
       </c>
@@ -19330,21 +19330,21 @@
     <row r="25" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B25" s="92"/>
       <c r="C25" s="93"/>
-      <c r="D25" s="146" t="s">
+      <c r="D25" s="147" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="146"/>
-      <c r="F25" s="146"/>
-      <c r="G25" s="146"/>
-      <c r="H25" s="146"/>
-      <c r="I25" s="146"/>
-      <c r="J25" s="146"/>
-      <c r="K25" s="146"/>
-      <c r="L25" s="146"/>
-      <c r="M25" s="146"/>
-      <c r="N25" s="146"/>
-      <c r="O25" s="146"/>
-      <c r="P25" s="147"/>
+      <c r="E25" s="147"/>
+      <c r="F25" s="147"/>
+      <c r="G25" s="147"/>
+      <c r="H25" s="147"/>
+      <c r="I25" s="147"/>
+      <c r="J25" s="147"/>
+      <c r="K25" s="147"/>
+      <c r="L25" s="147"/>
+      <c r="M25" s="147"/>
+      <c r="N25" s="147"/>
+      <c r="O25" s="147"/>
+      <c r="P25" s="148"/>
       <c r="R25" s="11" t="s">
         <v>353</v>
       </c>
@@ -19355,21 +19355,21 @@
     <row r="26" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B26" s="92"/>
       <c r="C26" s="93"/>
-      <c r="D26" s="146" t="s">
+      <c r="D26" s="147" t="s">
         <v>56</v>
       </c>
-      <c r="E26" s="146"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="146"/>
-      <c r="H26" s="146"/>
-      <c r="I26" s="146"/>
-      <c r="J26" s="146"/>
-      <c r="K26" s="146"/>
-      <c r="L26" s="146"/>
-      <c r="M26" s="146"/>
-      <c r="N26" s="146"/>
-      <c r="O26" s="146"/>
-      <c r="P26" s="147"/>
+      <c r="E26" s="147"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="147"/>
+      <c r="H26" s="147"/>
+      <c r="I26" s="147"/>
+      <c r="J26" s="147"/>
+      <c r="K26" s="147"/>
+      <c r="L26" s="147"/>
+      <c r="M26" s="147"/>
+      <c r="N26" s="147"/>
+      <c r="O26" s="147"/>
+      <c r="P26" s="148"/>
       <c r="R26" s="11" t="s">
         <v>250</v>
       </c>
@@ -19402,22 +19402,22 @@
     </row>
     <row r="28" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B28" s="92"/>
-      <c r="C28" s="150" t="s">
+      <c r="C28" s="146" t="s">
         <v>39</v>
       </c>
-      <c r="D28" s="150"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="150"/>
-      <c r="G28" s="150"/>
-      <c r="H28" s="150"/>
-      <c r="I28" s="150"/>
-      <c r="J28" s="150"/>
-      <c r="K28" s="150"/>
-      <c r="L28" s="150"/>
-      <c r="M28" s="150"/>
-      <c r="N28" s="150"/>
-      <c r="O28" s="150"/>
-      <c r="P28" s="151"/>
+      <c r="D28" s="146"/>
+      <c r="E28" s="146"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="146"/>
+      <c r="H28" s="146"/>
+      <c r="I28" s="146"/>
+      <c r="J28" s="146"/>
+      <c r="K28" s="146"/>
+      <c r="L28" s="146"/>
+      <c r="M28" s="146"/>
+      <c r="N28" s="146"/>
+      <c r="O28" s="146"/>
+      <c r="P28" s="155"/>
       <c r="R28" s="11" t="s">
         <v>355</v>
       </c>
@@ -19428,21 +19428,21 @@
     <row r="29" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B29" s="92"/>
       <c r="C29" s="93"/>
-      <c r="D29" s="146" t="s">
+      <c r="D29" s="147" t="s">
         <v>60</v>
       </c>
-      <c r="E29" s="146"/>
-      <c r="F29" s="146"/>
-      <c r="G29" s="146"/>
-      <c r="H29" s="146"/>
-      <c r="I29" s="146"/>
-      <c r="J29" s="146"/>
-      <c r="K29" s="146"/>
-      <c r="L29" s="146"/>
-      <c r="M29" s="146"/>
-      <c r="N29" s="146"/>
-      <c r="O29" s="146"/>
-      <c r="P29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="147"/>
+      <c r="K29" s="147"/>
+      <c r="L29" s="147"/>
+      <c r="M29" s="147"/>
+      <c r="N29" s="147"/>
+      <c r="O29" s="147"/>
+      <c r="P29" s="148"/>
       <c r="R29" s="11" t="s">
         <v>356</v>
       </c>
@@ -19453,21 +19453,21 @@
     <row r="30" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B30" s="92"/>
       <c r="C30" s="93"/>
-      <c r="D30" s="146" t="s">
+      <c r="D30" s="147" t="s">
         <v>45</v>
       </c>
-      <c r="E30" s="146"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="146"/>
-      <c r="H30" s="146"/>
-      <c r="I30" s="146"/>
-      <c r="J30" s="146"/>
-      <c r="K30" s="146"/>
-      <c r="L30" s="146"/>
-      <c r="M30" s="146"/>
-      <c r="N30" s="146"/>
-      <c r="O30" s="146"/>
-      <c r="P30" s="147"/>
+      <c r="E30" s="147"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="147"/>
+      <c r="H30" s="147"/>
+      <c r="I30" s="147"/>
+      <c r="J30" s="147"/>
+      <c r="K30" s="147"/>
+      <c r="L30" s="147"/>
+      <c r="M30" s="147"/>
+      <c r="N30" s="147"/>
+      <c r="O30" s="147"/>
+      <c r="P30" s="148"/>
       <c r="R30" s="11" t="s">
         <v>358</v>
       </c>
@@ -19478,21 +19478,21 @@
     <row r="31" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B31" s="92"/>
       <c r="C31" s="93"/>
-      <c r="D31" s="146" t="s">
+      <c r="D31" s="147" t="s">
         <v>57</v>
       </c>
-      <c r="E31" s="146"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="146"/>
-      <c r="H31" s="146"/>
-      <c r="I31" s="146"/>
-      <c r="J31" s="146"/>
-      <c r="K31" s="146"/>
-      <c r="L31" s="146"/>
-      <c r="M31" s="146"/>
-      <c r="N31" s="146"/>
-      <c r="O31" s="146"/>
-      <c r="P31" s="147"/>
+      <c r="E31" s="147"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="147"/>
+      <c r="I31" s="147"/>
+      <c r="J31" s="147"/>
+      <c r="K31" s="147"/>
+      <c r="L31" s="147"/>
+      <c r="M31" s="147"/>
+      <c r="N31" s="147"/>
+      <c r="O31" s="147"/>
+      <c r="P31" s="148"/>
       <c r="R31" s="11" t="s">
         <v>359</v>
       </c>
@@ -19503,21 +19503,21 @@
     <row r="32" spans="2:19" x14ac:dyDescent="0.25">
       <c r="B32" s="92"/>
       <c r="C32" s="93"/>
-      <c r="D32" s="146" t="s">
+      <c r="D32" s="147" t="s">
         <v>61</v>
       </c>
-      <c r="E32" s="146"/>
-      <c r="F32" s="146"/>
-      <c r="G32" s="146"/>
-      <c r="H32" s="146"/>
-      <c r="I32" s="146"/>
-      <c r="J32" s="146"/>
-      <c r="K32" s="146"/>
-      <c r="L32" s="146"/>
-      <c r="M32" s="146"/>
-      <c r="N32" s="146"/>
-      <c r="O32" s="146"/>
-      <c r="P32" s="147"/>
+      <c r="E32" s="147"/>
+      <c r="F32" s="147"/>
+      <c r="G32" s="147"/>
+      <c r="H32" s="147"/>
+      <c r="I32" s="147"/>
+      <c r="J32" s="147"/>
+      <c r="K32" s="147"/>
+      <c r="L32" s="147"/>
+      <c r="M32" s="147"/>
+      <c r="N32" s="147"/>
+      <c r="O32" s="147"/>
+      <c r="P32" s="148"/>
       <c r="R32" s="11" t="s">
         <v>357</v>
       </c>
@@ -19528,21 +19528,21 @@
     <row r="33" spans="2:19" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="92"/>
       <c r="C33" s="93"/>
-      <c r="D33" s="152" t="s">
+      <c r="D33" s="158" t="s">
         <v>58</v>
       </c>
-      <c r="E33" s="152"/>
-      <c r="F33" s="152"/>
-      <c r="G33" s="152"/>
-      <c r="H33" s="152"/>
-      <c r="I33" s="152"/>
-      <c r="J33" s="152"/>
-      <c r="K33" s="152"/>
-      <c r="L33" s="152"/>
-      <c r="M33" s="152"/>
-      <c r="N33" s="152"/>
-      <c r="O33" s="152"/>
-      <c r="P33" s="153"/>
+      <c r="E33" s="158"/>
+      <c r="F33" s="158"/>
+      <c r="G33" s="158"/>
+      <c r="H33" s="158"/>
+      <c r="I33" s="158"/>
+      <c r="J33" s="158"/>
+      <c r="K33" s="158"/>
+      <c r="L33" s="158"/>
+      <c r="M33" s="158"/>
+      <c r="N33" s="158"/>
+      <c r="O33" s="158"/>
+      <c r="P33" s="159"/>
       <c r="R33" s="11" t="s">
         <v>360</v>
       </c>
@@ -19553,21 +19553,21 @@
     <row r="34" spans="2:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B34" s="98"/>
       <c r="C34" s="99"/>
-      <c r="D34" s="148" t="s">
+      <c r="D34" s="156" t="s">
         <v>59</v>
       </c>
-      <c r="E34" s="148"/>
-      <c r="F34" s="148"/>
-      <c r="G34" s="148"/>
-      <c r="H34" s="148"/>
-      <c r="I34" s="148"/>
-      <c r="J34" s="148"/>
-      <c r="K34" s="148"/>
-      <c r="L34" s="148"/>
-      <c r="M34" s="148"/>
-      <c r="N34" s="148"/>
-      <c r="O34" s="148"/>
-      <c r="P34" s="149"/>
+      <c r="E34" s="156"/>
+      <c r="F34" s="156"/>
+      <c r="G34" s="156"/>
+      <c r="H34" s="156"/>
+      <c r="I34" s="156"/>
+      <c r="J34" s="156"/>
+      <c r="K34" s="156"/>
+      <c r="L34" s="156"/>
+      <c r="M34" s="156"/>
+      <c r="N34" s="156"/>
+      <c r="O34" s="156"/>
+      <c r="P34" s="157"/>
       <c r="R34" s="11" t="s">
         <v>361</v>
       </c>
@@ -19816,6 +19816,22 @@
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="D25:P25"/>
+    <mergeCell ref="D24:P24"/>
+    <mergeCell ref="D18:P18"/>
+    <mergeCell ref="D19:P19"/>
+    <mergeCell ref="D20:P20"/>
+    <mergeCell ref="D21:P21"/>
+    <mergeCell ref="D23:P23"/>
+    <mergeCell ref="D22:P22"/>
+    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D26:P26"/>
+    <mergeCell ref="C28:P28"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D29:P29"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D33:P33"/>
     <mergeCell ref="D10:P10"/>
     <mergeCell ref="D16:P16"/>
     <mergeCell ref="B2:P2"/>
@@ -19830,22 +19846,6 @@
     <mergeCell ref="D7:P7"/>
     <mergeCell ref="D8:P8"/>
     <mergeCell ref="D9:P9"/>
-    <mergeCell ref="D34:P34"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D26:P26"/>
-    <mergeCell ref="C28:P28"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="D29:P29"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="D25:P25"/>
-    <mergeCell ref="D24:P24"/>
-    <mergeCell ref="D18:P18"/>
-    <mergeCell ref="D19:P19"/>
-    <mergeCell ref="D20:P20"/>
-    <mergeCell ref="D21:P21"/>
-    <mergeCell ref="D23:P23"/>
-    <mergeCell ref="D22:P22"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -19880,23 +19880,23 @@
   <sheetData>
     <row r="1" spans="2:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="163" t="s">
+      <c r="B2" s="171" t="s">
         <v>32</v>
       </c>
-      <c r="C2" s="164"/>
-      <c r="D2" s="164"/>
-      <c r="E2" s="164"/>
-      <c r="F2" s="164"/>
-      <c r="G2" s="164"/>
-      <c r="H2" s="164"/>
-      <c r="I2" s="164"/>
-      <c r="J2" s="164"/>
-      <c r="K2" s="164"/>
-      <c r="L2" s="164"/>
-      <c r="M2" s="164"/>
-      <c r="N2" s="164"/>
-      <c r="O2" s="164"/>
-      <c r="P2" s="165"/>
+      <c r="C2" s="172"/>
+      <c r="D2" s="172"/>
+      <c r="E2" s="172"/>
+      <c r="F2" s="172"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="172"/>
+      <c r="M2" s="172"/>
+      <c r="N2" s="172"/>
+      <c r="O2" s="172"/>
+      <c r="P2" s="173"/>
       <c r="R2" s="60" t="s">
         <v>399</v>
       </c>
@@ -19908,23 +19908,23 @@
       </c>
     </row>
     <row r="3" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="160" t="s">
+      <c r="B3" s="168" t="s">
         <v>33</v>
       </c>
-      <c r="C3" s="161"/>
-      <c r="D3" s="161"/>
-      <c r="E3" s="161"/>
-      <c r="F3" s="161"/>
-      <c r="G3" s="161"/>
-      <c r="H3" s="161"/>
-      <c r="I3" s="161"/>
-      <c r="J3" s="161"/>
-      <c r="K3" s="161"/>
-      <c r="L3" s="161"/>
-      <c r="M3" s="161"/>
-      <c r="N3" s="161"/>
-      <c r="O3" s="161"/>
-      <c r="P3" s="162"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
+      <c r="N3" s="169"/>
+      <c r="O3" s="169"/>
+      <c r="P3" s="170"/>
       <c r="R3" s="60" t="s">
         <v>89</v>
       </c>
@@ -19937,22 +19937,22 @@
     </row>
     <row r="4" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="102"/>
-      <c r="C4" s="166" t="s">
+      <c r="C4" s="164" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="166"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="166"/>
-      <c r="G4" s="166"/>
-      <c r="H4" s="166"/>
-      <c r="I4" s="166"/>
-      <c r="J4" s="166"/>
-      <c r="K4" s="166"/>
-      <c r="L4" s="166"/>
-      <c r="M4" s="166"/>
-      <c r="N4" s="166"/>
-      <c r="O4" s="166"/>
-      <c r="P4" s="167"/>
+      <c r="D4" s="164"/>
+      <c r="E4" s="164"/>
+      <c r="F4" s="164"/>
+      <c r="G4" s="164"/>
+      <c r="H4" s="164"/>
+      <c r="I4" s="164"/>
+      <c r="J4" s="164"/>
+      <c r="K4" s="164"/>
+      <c r="L4" s="164"/>
+      <c r="M4" s="164"/>
+      <c r="N4" s="164"/>
+      <c r="O4" s="164"/>
+      <c r="P4" s="165"/>
       <c r="R4" s="60" t="s">
         <v>400</v>
       </c>
@@ -19965,22 +19965,22 @@
     </row>
     <row r="5" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="102"/>
-      <c r="C5" s="166" t="s">
+      <c r="C5" s="164" t="s">
         <v>41</v>
       </c>
-      <c r="D5" s="166"/>
-      <c r="E5" s="166"/>
-      <c r="F5" s="166"/>
-      <c r="G5" s="166"/>
-      <c r="H5" s="166"/>
-      <c r="I5" s="166"/>
-      <c r="J5" s="166"/>
-      <c r="K5" s="166"/>
-      <c r="L5" s="166"/>
-      <c r="M5" s="166"/>
-      <c r="N5" s="166"/>
-      <c r="O5" s="166"/>
-      <c r="P5" s="167"/>
+      <c r="D5" s="164"/>
+      <c r="E5" s="164"/>
+      <c r="F5" s="164"/>
+      <c r="G5" s="164"/>
+      <c r="H5" s="164"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
+      <c r="K5" s="164"/>
+      <c r="L5" s="164"/>
+      <c r="M5" s="164"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="164"/>
+      <c r="P5" s="165"/>
       <c r="R5" s="60" t="s">
         <v>401</v>
       </c>
@@ -19994,21 +19994,21 @@
     <row r="6" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="102"/>
       <c r="C6" s="103"/>
-      <c r="D6" s="168" t="s">
+      <c r="D6" s="166" t="s">
         <v>73</v>
       </c>
-      <c r="E6" s="168"/>
-      <c r="F6" s="168"/>
-      <c r="G6" s="168"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="168"/>
-      <c r="K6" s="168"/>
-      <c r="L6" s="168"/>
-      <c r="M6" s="168"/>
-      <c r="N6" s="168"/>
-      <c r="O6" s="168"/>
-      <c r="P6" s="169"/>
+      <c r="E6" s="166"/>
+      <c r="F6" s="166"/>
+      <c r="G6" s="166"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="166"/>
+      <c r="J6" s="166"/>
+      <c r="K6" s="166"/>
+      <c r="L6" s="166"/>
+      <c r="M6" s="166"/>
+      <c r="N6" s="166"/>
+      <c r="O6" s="166"/>
+      <c r="P6" s="167"/>
       <c r="R6" s="60" t="s">
         <v>402</v>
       </c>
@@ -20022,21 +20022,21 @@
     <row r="7" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="102"/>
       <c r="C7" s="103"/>
-      <c r="D7" s="166" t="s">
+      <c r="D7" s="164" t="s">
         <v>70</v>
       </c>
-      <c r="E7" s="168"/>
-      <c r="F7" s="168"/>
-      <c r="G7" s="168"/>
-      <c r="H7" s="168"/>
-      <c r="I7" s="168"/>
-      <c r="J7" s="168"/>
-      <c r="K7" s="168"/>
-      <c r="L7" s="168"/>
-      <c r="M7" s="168"/>
-      <c r="N7" s="168"/>
-      <c r="O7" s="168"/>
-      <c r="P7" s="169"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="166"/>
+      <c r="G7" s="166"/>
+      <c r="H7" s="166"/>
+      <c r="I7" s="166"/>
+      <c r="J7" s="166"/>
+      <c r="K7" s="166"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="166"/>
+      <c r="N7" s="166"/>
+      <c r="O7" s="166"/>
+      <c r="P7" s="167"/>
       <c r="R7" s="60" t="s">
         <v>403</v>
       </c>
@@ -20050,21 +20050,21 @@
     <row r="8" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="102"/>
       <c r="C8" s="103"/>
-      <c r="D8" s="166" t="s">
+      <c r="D8" s="164" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="168"/>
-      <c r="F8" s="168"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="168"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="168"/>
-      <c r="K8" s="168"/>
-      <c r="L8" s="168"/>
-      <c r="M8" s="168"/>
-      <c r="N8" s="168"/>
-      <c r="O8" s="168"/>
-      <c r="P8" s="169"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="166"/>
+      <c r="G8" s="166"/>
+      <c r="H8" s="166"/>
+      <c r="I8" s="166"/>
+      <c r="J8" s="166"/>
+      <c r="K8" s="166"/>
+      <c r="L8" s="166"/>
+      <c r="M8" s="166"/>
+      <c r="N8" s="166"/>
+      <c r="O8" s="166"/>
+      <c r="P8" s="167"/>
       <c r="R8" s="60" t="s">
         <v>534</v>
       </c>
@@ -20078,21 +20078,21 @@
     <row r="9" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B9" s="102"/>
       <c r="C9" s="103"/>
-      <c r="D9" s="166" t="s">
+      <c r="D9" s="164" t="s">
         <v>72</v>
       </c>
-      <c r="E9" s="168"/>
-      <c r="F9" s="168"/>
-      <c r="G9" s="168"/>
-      <c r="H9" s="168"/>
-      <c r="I9" s="168"/>
-      <c r="J9" s="168"/>
-      <c r="K9" s="168"/>
-      <c r="L9" s="168"/>
-      <c r="M9" s="168"/>
-      <c r="N9" s="168"/>
-      <c r="O9" s="168"/>
-      <c r="P9" s="169"/>
+      <c r="E9" s="166"/>
+      <c r="F9" s="166"/>
+      <c r="G9" s="166"/>
+      <c r="H9" s="166"/>
+      <c r="I9" s="166"/>
+      <c r="J9" s="166"/>
+      <c r="K9" s="166"/>
+      <c r="L9" s="166"/>
+      <c r="M9" s="166"/>
+      <c r="N9" s="166"/>
+      <c r="O9" s="166"/>
+      <c r="P9" s="167"/>
       <c r="R9" s="60" t="s">
         <v>404</v>
       </c>
@@ -20104,21 +20104,21 @@
     <row r="10" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B10" s="102"/>
       <c r="C10" s="103"/>
-      <c r="D10" s="166" t="s">
+      <c r="D10" s="164" t="s">
         <v>40</v>
       </c>
-      <c r="E10" s="168"/>
-      <c r="F10" s="168"/>
-      <c r="G10" s="168"/>
-      <c r="H10" s="168"/>
-      <c r="I10" s="168"/>
-      <c r="J10" s="168"/>
-      <c r="K10" s="168"/>
-      <c r="L10" s="168"/>
-      <c r="M10" s="168"/>
-      <c r="N10" s="168"/>
-      <c r="O10" s="168"/>
-      <c r="P10" s="169"/>
+      <c r="E10" s="166"/>
+      <c r="F10" s="166"/>
+      <c r="G10" s="166"/>
+      <c r="H10" s="166"/>
+      <c r="I10" s="166"/>
+      <c r="J10" s="166"/>
+      <c r="K10" s="166"/>
+      <c r="L10" s="166"/>
+      <c r="M10" s="166"/>
+      <c r="N10" s="166"/>
+      <c r="O10" s="166"/>
+      <c r="P10" s="167"/>
       <c r="R10" s="60" t="s">
         <v>405</v>
       </c>
@@ -20129,22 +20129,22 @@
     </row>
     <row r="11" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B11" s="102"/>
-      <c r="C11" s="166" t="s">
+      <c r="C11" s="164" t="s">
         <v>35</v>
       </c>
-      <c r="D11" s="166"/>
-      <c r="E11" s="166"/>
-      <c r="F11" s="166"/>
-      <c r="G11" s="166"/>
-      <c r="H11" s="166"/>
-      <c r="I11" s="166"/>
-      <c r="J11" s="166"/>
-      <c r="K11" s="166"/>
-      <c r="L11" s="166"/>
-      <c r="M11" s="166"/>
-      <c r="N11" s="166"/>
-      <c r="O11" s="166"/>
-      <c r="P11" s="167"/>
+      <c r="D11" s="164"/>
+      <c r="E11" s="164"/>
+      <c r="F11" s="164"/>
+      <c r="G11" s="164"/>
+      <c r="H11" s="164"/>
+      <c r="I11" s="164"/>
+      <c r="J11" s="164"/>
+      <c r="K11" s="164"/>
+      <c r="L11" s="164"/>
+      <c r="M11" s="164"/>
+      <c r="N11" s="164"/>
+      <c r="O11" s="164"/>
+      <c r="P11" s="165"/>
       <c r="R11" s="60" t="s">
         <v>112</v>
       </c>
@@ -20157,22 +20157,22 @@
     </row>
     <row r="12" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="102"/>
-      <c r="C12" s="166" t="s">
+      <c r="C12" s="164" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="166"/>
-      <c r="E12" s="166"/>
-      <c r="F12" s="166"/>
-      <c r="G12" s="166"/>
-      <c r="H12" s="166"/>
-      <c r="I12" s="166"/>
-      <c r="J12" s="166"/>
-      <c r="K12" s="166"/>
-      <c r="L12" s="166"/>
-      <c r="M12" s="166"/>
-      <c r="N12" s="166"/>
-      <c r="O12" s="166"/>
-      <c r="P12" s="167"/>
+      <c r="D12" s="164"/>
+      <c r="E12" s="164"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="164"/>
+      <c r="H12" s="164"/>
+      <c r="I12" s="164"/>
+      <c r="J12" s="164"/>
+      <c r="K12" s="164"/>
+      <c r="L12" s="164"/>
+      <c r="M12" s="164"/>
+      <c r="N12" s="164"/>
+      <c r="O12" s="164"/>
+      <c r="P12" s="165"/>
       <c r="R12" s="60" t="s">
         <v>425</v>
       </c>
@@ -20208,23 +20208,23 @@
       <c r="T13" s="57"/>
     </row>
     <row r="14" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B14" s="160" t="s">
+      <c r="B14" s="168" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="161"/>
-      <c r="D14" s="161"/>
-      <c r="E14" s="161"/>
-      <c r="F14" s="161"/>
-      <c r="G14" s="161"/>
-      <c r="H14" s="161"/>
-      <c r="I14" s="161"/>
-      <c r="J14" s="161"/>
-      <c r="K14" s="161"/>
-      <c r="L14" s="161"/>
-      <c r="M14" s="161"/>
-      <c r="N14" s="161"/>
-      <c r="O14" s="161"/>
-      <c r="P14" s="162"/>
+      <c r="C14" s="169"/>
+      <c r="D14" s="169"/>
+      <c r="E14" s="169"/>
+      <c r="F14" s="169"/>
+      <c r="G14" s="169"/>
+      <c r="H14" s="169"/>
+      <c r="I14" s="169"/>
+      <c r="J14" s="169"/>
+      <c r="K14" s="169"/>
+      <c r="L14" s="169"/>
+      <c r="M14" s="169"/>
+      <c r="N14" s="169"/>
+      <c r="O14" s="169"/>
+      <c r="P14" s="170"/>
       <c r="R14" s="60" t="s">
         <v>426</v>
       </c>
@@ -20235,22 +20235,22 @@
     </row>
     <row r="15" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B15" s="102"/>
-      <c r="C15" s="166" t="s">
+      <c r="C15" s="164" t="s">
         <v>38</v>
       </c>
-      <c r="D15" s="166"/>
-      <c r="E15" s="166"/>
-      <c r="F15" s="166"/>
-      <c r="G15" s="166"/>
-      <c r="H15" s="166"/>
-      <c r="I15" s="166"/>
-      <c r="J15" s="166"/>
-      <c r="K15" s="166"/>
-      <c r="L15" s="166"/>
-      <c r="M15" s="166"/>
-      <c r="N15" s="166"/>
-      <c r="O15" s="166"/>
-      <c r="P15" s="167"/>
+      <c r="D15" s="164"/>
+      <c r="E15" s="164"/>
+      <c r="F15" s="164"/>
+      <c r="G15" s="164"/>
+      <c r="H15" s="164"/>
+      <c r="I15" s="164"/>
+      <c r="J15" s="164"/>
+      <c r="K15" s="164"/>
+      <c r="L15" s="164"/>
+      <c r="M15" s="164"/>
+      <c r="N15" s="164"/>
+      <c r="O15" s="164"/>
+      <c r="P15" s="165"/>
       <c r="R15" s="60" t="s">
         <v>427</v>
       </c>
@@ -20262,21 +20262,21 @@
     <row r="16" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B16" s="102"/>
       <c r="C16" s="105"/>
-      <c r="D16" s="168" t="s">
+      <c r="D16" s="166" t="s">
         <v>74</v>
       </c>
-      <c r="E16" s="168"/>
-      <c r="F16" s="168"/>
-      <c r="G16" s="168"/>
-      <c r="H16" s="168"/>
-      <c r="I16" s="168"/>
-      <c r="J16" s="168"/>
-      <c r="K16" s="168"/>
-      <c r="L16" s="168"/>
-      <c r="M16" s="168"/>
-      <c r="N16" s="168"/>
-      <c r="O16" s="168"/>
-      <c r="P16" s="169"/>
+      <c r="E16" s="166"/>
+      <c r="F16" s="166"/>
+      <c r="G16" s="166"/>
+      <c r="H16" s="166"/>
+      <c r="I16" s="166"/>
+      <c r="J16" s="166"/>
+      <c r="K16" s="166"/>
+      <c r="L16" s="166"/>
+      <c r="M16" s="166"/>
+      <c r="N16" s="166"/>
+      <c r="O16" s="166"/>
+      <c r="P16" s="167"/>
       <c r="R16" s="60" t="s">
         <v>475</v>
       </c>
@@ -20318,21 +20318,21 @@
     <row r="18" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="102"/>
       <c r="C18" s="103"/>
-      <c r="D18" s="168" t="s">
+      <c r="D18" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="E18" s="168"/>
-      <c r="F18" s="168"/>
-      <c r="G18" s="168"/>
-      <c r="H18" s="168"/>
-      <c r="I18" s="168"/>
-      <c r="J18" s="168"/>
-      <c r="K18" s="168"/>
-      <c r="L18" s="168"/>
-      <c r="M18" s="168"/>
-      <c r="N18" s="168"/>
-      <c r="O18" s="168"/>
-      <c r="P18" s="169"/>
+      <c r="E18" s="166"/>
+      <c r="F18" s="166"/>
+      <c r="G18" s="166"/>
+      <c r="H18" s="166"/>
+      <c r="I18" s="166"/>
+      <c r="J18" s="166"/>
+      <c r="K18" s="166"/>
+      <c r="L18" s="166"/>
+      <c r="M18" s="166"/>
+      <c r="N18" s="166"/>
+      <c r="O18" s="166"/>
+      <c r="P18" s="167"/>
       <c r="R18" s="60" t="s">
         <v>477</v>
       </c>
@@ -20346,21 +20346,21 @@
     <row r="19" spans="2:20" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B19" s="102"/>
       <c r="C19" s="103"/>
-      <c r="D19" s="168" t="s">
+      <c r="D19" s="166" t="s">
         <v>49</v>
       </c>
-      <c r="E19" s="168"/>
-      <c r="F19" s="168"/>
-      <c r="G19" s="168"/>
-      <c r="H19" s="168"/>
-      <c r="I19" s="168"/>
-      <c r="J19" s="168"/>
-      <c r="K19" s="168"/>
-      <c r="L19" s="168"/>
-      <c r="M19" s="168"/>
-      <c r="N19" s="168"/>
-      <c r="O19" s="168"/>
-      <c r="P19" s="169"/>
+      <c r="E19" s="166"/>
+      <c r="F19" s="166"/>
+      <c r="G19" s="166"/>
+      <c r="H19" s="166"/>
+      <c r="I19" s="166"/>
+      <c r="J19" s="166"/>
+      <c r="K19" s="166"/>
+      <c r="L19" s="166"/>
+      <c r="M19" s="166"/>
+      <c r="N19" s="166"/>
+      <c r="O19" s="166"/>
+      <c r="P19" s="167"/>
       <c r="R19" s="60" t="s">
         <v>478</v>
       </c>
@@ -20374,21 +20374,21 @@
     <row r="20" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B20" s="102"/>
       <c r="C20" s="103"/>
-      <c r="D20" s="168" t="s">
+      <c r="D20" s="166" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="168"/>
-      <c r="F20" s="168"/>
-      <c r="G20" s="168"/>
-      <c r="H20" s="168"/>
-      <c r="I20" s="168"/>
-      <c r="J20" s="168"/>
-      <c r="K20" s="168"/>
-      <c r="L20" s="168"/>
-      <c r="M20" s="168"/>
-      <c r="N20" s="168"/>
-      <c r="O20" s="168"/>
-      <c r="P20" s="169"/>
+      <c r="E20" s="166"/>
+      <c r="F20" s="166"/>
+      <c r="G20" s="166"/>
+      <c r="H20" s="166"/>
+      <c r="I20" s="166"/>
+      <c r="J20" s="166"/>
+      <c r="K20" s="166"/>
+      <c r="L20" s="166"/>
+      <c r="M20" s="166"/>
+      <c r="N20" s="166"/>
+      <c r="O20" s="166"/>
+      <c r="P20" s="167"/>
       <c r="R20" s="60" t="s">
         <v>479</v>
       </c>
@@ -20402,21 +20402,21 @@
     <row r="21" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B21" s="102"/>
       <c r="C21" s="103"/>
-      <c r="D21" s="168" t="s">
+      <c r="D21" s="166" t="s">
         <v>76</v>
       </c>
-      <c r="E21" s="168"/>
-      <c r="F21" s="168"/>
-      <c r="G21" s="168"/>
-      <c r="H21" s="168"/>
-      <c r="I21" s="168"/>
-      <c r="J21" s="168"/>
-      <c r="K21" s="168"/>
-      <c r="L21" s="168"/>
-      <c r="M21" s="168"/>
-      <c r="N21" s="168"/>
-      <c r="O21" s="168"/>
-      <c r="P21" s="169"/>
+      <c r="E21" s="166"/>
+      <c r="F21" s="166"/>
+      <c r="G21" s="166"/>
+      <c r="H21" s="166"/>
+      <c r="I21" s="166"/>
+      <c r="J21" s="166"/>
+      <c r="K21" s="166"/>
+      <c r="L21" s="166"/>
+      <c r="M21" s="166"/>
+      <c r="N21" s="166"/>
+      <c r="O21" s="166"/>
+      <c r="P21" s="167"/>
       <c r="R21" s="60" t="s">
         <v>480</v>
       </c>
@@ -20430,21 +20430,21 @@
     <row r="22" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B22" s="102"/>
       <c r="C22" s="103"/>
-      <c r="D22" s="168" t="s">
+      <c r="D22" s="166" t="s">
         <v>77</v>
       </c>
-      <c r="E22" s="168"/>
-      <c r="F22" s="168"/>
-      <c r="G22" s="168"/>
-      <c r="H22" s="168"/>
-      <c r="I22" s="168"/>
-      <c r="J22" s="168"/>
-      <c r="K22" s="168"/>
-      <c r="L22" s="168"/>
-      <c r="M22" s="168"/>
-      <c r="N22" s="168"/>
-      <c r="O22" s="168"/>
-      <c r="P22" s="169"/>
+      <c r="E22" s="166"/>
+      <c r="F22" s="166"/>
+      <c r="G22" s="166"/>
+      <c r="H22" s="166"/>
+      <c r="I22" s="166"/>
+      <c r="J22" s="166"/>
+      <c r="K22" s="166"/>
+      <c r="L22" s="166"/>
+      <c r="M22" s="166"/>
+      <c r="N22" s="166"/>
+      <c r="O22" s="166"/>
+      <c r="P22" s="167"/>
       <c r="R22" s="60" t="s">
         <v>481</v>
       </c>
@@ -20458,21 +20458,21 @@
     <row r="23" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B23" s="102"/>
       <c r="C23" s="103"/>
-      <c r="D23" s="168" t="s">
+      <c r="D23" s="166" t="s">
         <v>53</v>
       </c>
-      <c r="E23" s="168"/>
-      <c r="F23" s="168"/>
-      <c r="G23" s="168"/>
-      <c r="H23" s="168"/>
-      <c r="I23" s="168"/>
-      <c r="J23" s="168"/>
-      <c r="K23" s="168"/>
-      <c r="L23" s="168"/>
-      <c r="M23" s="168"/>
-      <c r="N23" s="168"/>
-      <c r="O23" s="168"/>
-      <c r="P23" s="169"/>
+      <c r="E23" s="166"/>
+      <c r="F23" s="166"/>
+      <c r="G23" s="166"/>
+      <c r="H23" s="166"/>
+      <c r="I23" s="166"/>
+      <c r="J23" s="166"/>
+      <c r="K23" s="166"/>
+      <c r="L23" s="166"/>
+      <c r="M23" s="166"/>
+      <c r="N23" s="166"/>
+      <c r="O23" s="166"/>
+      <c r="P23" s="167"/>
       <c r="R23" s="60" t="s">
         <v>482</v>
       </c>
@@ -20486,21 +20486,21 @@
     <row r="24" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B24" s="102"/>
       <c r="C24" s="103"/>
-      <c r="D24" s="168" t="s">
+      <c r="D24" s="166" t="s">
         <v>54</v>
       </c>
-      <c r="E24" s="168"/>
-      <c r="F24" s="168"/>
-      <c r="G24" s="168"/>
-      <c r="H24" s="168"/>
-      <c r="I24" s="168"/>
-      <c r="J24" s="168"/>
-      <c r="K24" s="168"/>
-      <c r="L24" s="168"/>
-      <c r="M24" s="168"/>
-      <c r="N24" s="168"/>
-      <c r="O24" s="168"/>
-      <c r="P24" s="169"/>
+      <c r="E24" s="166"/>
+      <c r="F24" s="166"/>
+      <c r="G24" s="166"/>
+      <c r="H24" s="166"/>
+      <c r="I24" s="166"/>
+      <c r="J24" s="166"/>
+      <c r="K24" s="166"/>
+      <c r="L24" s="166"/>
+      <c r="M24" s="166"/>
+      <c r="N24" s="166"/>
+      <c r="O24" s="166"/>
+      <c r="P24" s="167"/>
       <c r="R24" s="60" t="s">
         <v>483</v>
       </c>
@@ -20514,21 +20514,21 @@
     <row r="25" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B25" s="102"/>
       <c r="C25" s="103"/>
-      <c r="D25" s="168" t="s">
+      <c r="D25" s="166" t="s">
         <v>78</v>
       </c>
-      <c r="E25" s="168"/>
-      <c r="F25" s="168"/>
-      <c r="G25" s="168"/>
-      <c r="H25" s="168"/>
-      <c r="I25" s="168"/>
-      <c r="J25" s="168"/>
-      <c r="K25" s="168"/>
-      <c r="L25" s="168"/>
-      <c r="M25" s="168"/>
-      <c r="N25" s="168"/>
-      <c r="O25" s="168"/>
-      <c r="P25" s="169"/>
+      <c r="E25" s="166"/>
+      <c r="F25" s="166"/>
+      <c r="G25" s="166"/>
+      <c r="H25" s="166"/>
+      <c r="I25" s="166"/>
+      <c r="J25" s="166"/>
+      <c r="K25" s="166"/>
+      <c r="L25" s="166"/>
+      <c r="M25" s="166"/>
+      <c r="N25" s="166"/>
+      <c r="O25" s="166"/>
+      <c r="P25" s="167"/>
       <c r="R25" s="60" t="s">
         <v>484</v>
       </c>
@@ -20540,21 +20540,21 @@
     <row r="26" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B26" s="102"/>
       <c r="C26" s="103"/>
-      <c r="D26" s="168" t="s">
+      <c r="D26" s="166" t="s">
         <v>79</v>
       </c>
-      <c r="E26" s="168"/>
-      <c r="F26" s="168"/>
-      <c r="G26" s="168"/>
-      <c r="H26" s="168"/>
-      <c r="I26" s="168"/>
-      <c r="J26" s="168"/>
-      <c r="K26" s="168"/>
-      <c r="L26" s="168"/>
-      <c r="M26" s="168"/>
-      <c r="N26" s="168"/>
-      <c r="O26" s="168"/>
-      <c r="P26" s="169"/>
+      <c r="E26" s="166"/>
+      <c r="F26" s="166"/>
+      <c r="G26" s="166"/>
+      <c r="H26" s="166"/>
+      <c r="I26" s="166"/>
+      <c r="J26" s="166"/>
+      <c r="K26" s="166"/>
+      <c r="L26" s="166"/>
+      <c r="M26" s="166"/>
+      <c r="N26" s="166"/>
+      <c r="O26" s="166"/>
+      <c r="P26" s="167"/>
       <c r="R26" s="60"/>
       <c r="S26" s="91"/>
       <c r="T26" s="91"/>
@@ -20562,21 +20562,21 @@
     <row r="27" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B27" s="102"/>
       <c r="C27" s="103"/>
-      <c r="D27" s="168" t="s">
+      <c r="D27" s="166" t="s">
         <v>80</v>
       </c>
-      <c r="E27" s="168"/>
-      <c r="F27" s="168"/>
-      <c r="G27" s="168"/>
-      <c r="H27" s="168"/>
-      <c r="I27" s="168"/>
-      <c r="J27" s="168"/>
-      <c r="K27" s="168"/>
-      <c r="L27" s="168"/>
-      <c r="M27" s="168"/>
-      <c r="N27" s="168"/>
-      <c r="O27" s="168"/>
-      <c r="P27" s="169"/>
+      <c r="E27" s="166"/>
+      <c r="F27" s="166"/>
+      <c r="G27" s="166"/>
+      <c r="H27" s="166"/>
+      <c r="I27" s="166"/>
+      <c r="J27" s="166"/>
+      <c r="K27" s="166"/>
+      <c r="L27" s="166"/>
+      <c r="M27" s="166"/>
+      <c r="N27" s="166"/>
+      <c r="O27" s="166"/>
+      <c r="P27" s="167"/>
       <c r="R27" s="60"/>
       <c r="S27" s="91"/>
       <c r="T27" s="91"/>
@@ -20603,22 +20603,22 @@
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B29" s="102"/>
-      <c r="C29" s="166" t="s">
+      <c r="C29" s="164" t="s">
         <v>39</v>
       </c>
-      <c r="D29" s="166"/>
-      <c r="E29" s="166"/>
-      <c r="F29" s="166"/>
-      <c r="G29" s="166"/>
-      <c r="H29" s="166"/>
-      <c r="I29" s="166"/>
-      <c r="J29" s="166"/>
-      <c r="K29" s="166"/>
-      <c r="L29" s="166"/>
-      <c r="M29" s="166"/>
-      <c r="N29" s="166"/>
-      <c r="O29" s="166"/>
-      <c r="P29" s="167"/>
+      <c r="D29" s="164"/>
+      <c r="E29" s="164"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="164"/>
+      <c r="H29" s="164"/>
+      <c r="I29" s="164"/>
+      <c r="J29" s="164"/>
+      <c r="K29" s="164"/>
+      <c r="L29" s="164"/>
+      <c r="M29" s="164"/>
+      <c r="N29" s="164"/>
+      <c r="O29" s="164"/>
+      <c r="P29" s="165"/>
       <c r="R29" s="60"/>
       <c r="S29" s="91"/>
       <c r="T29" s="91"/>
@@ -20626,21 +20626,21 @@
     <row r="30" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B30" s="102"/>
       <c r="C30" s="103"/>
-      <c r="D30" s="168" t="s">
+      <c r="D30" s="166" t="s">
         <v>81</v>
       </c>
-      <c r="E30" s="168"/>
-      <c r="F30" s="168"/>
-      <c r="G30" s="168"/>
-      <c r="H30" s="168"/>
-      <c r="I30" s="168"/>
-      <c r="J30" s="168"/>
-      <c r="K30" s="168"/>
-      <c r="L30" s="168"/>
-      <c r="M30" s="168"/>
-      <c r="N30" s="168"/>
-      <c r="O30" s="168"/>
-      <c r="P30" s="169"/>
+      <c r="E30" s="166"/>
+      <c r="F30" s="166"/>
+      <c r="G30" s="166"/>
+      <c r="H30" s="166"/>
+      <c r="I30" s="166"/>
+      <c r="J30" s="166"/>
+      <c r="K30" s="166"/>
+      <c r="L30" s="166"/>
+      <c r="M30" s="166"/>
+      <c r="N30" s="166"/>
+      <c r="O30" s="166"/>
+      <c r="P30" s="167"/>
       <c r="R30" s="60"/>
       <c r="S30" s="91"/>
       <c r="T30" s="91"/>
@@ -20648,21 +20648,21 @@
     <row r="31" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B31" s="102"/>
       <c r="C31" s="103"/>
-      <c r="D31" s="168" t="s">
+      <c r="D31" s="166" t="s">
         <v>82</v>
       </c>
-      <c r="E31" s="168"/>
-      <c r="F31" s="168"/>
-      <c r="G31" s="168"/>
-      <c r="H31" s="168"/>
-      <c r="I31" s="168"/>
-      <c r="J31" s="168"/>
-      <c r="K31" s="168"/>
-      <c r="L31" s="168"/>
-      <c r="M31" s="168"/>
-      <c r="N31" s="168"/>
-      <c r="O31" s="168"/>
-      <c r="P31" s="169"/>
+      <c r="E31" s="166"/>
+      <c r="F31" s="166"/>
+      <c r="G31" s="166"/>
+      <c r="H31" s="166"/>
+      <c r="I31" s="166"/>
+      <c r="J31" s="166"/>
+      <c r="K31" s="166"/>
+      <c r="L31" s="166"/>
+      <c r="M31" s="166"/>
+      <c r="N31" s="166"/>
+      <c r="O31" s="166"/>
+      <c r="P31" s="167"/>
       <c r="R31" s="60"/>
       <c r="S31" s="91"/>
       <c r="T31" s="91"/>
@@ -20670,21 +20670,21 @@
     <row r="32" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B32" s="102"/>
       <c r="C32" s="103"/>
-      <c r="D32" s="168" t="s">
+      <c r="D32" s="166" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="168"/>
-      <c r="F32" s="168"/>
-      <c r="G32" s="168"/>
-      <c r="H32" s="168"/>
-      <c r="I32" s="168"/>
-      <c r="J32" s="168"/>
-      <c r="K32" s="168"/>
-      <c r="L32" s="168"/>
-      <c r="M32" s="168"/>
-      <c r="N32" s="168"/>
-      <c r="O32" s="168"/>
-      <c r="P32" s="169"/>
+      <c r="E32" s="166"/>
+      <c r="F32" s="166"/>
+      <c r="G32" s="166"/>
+      <c r="H32" s="166"/>
+      <c r="I32" s="166"/>
+      <c r="J32" s="166"/>
+      <c r="K32" s="166"/>
+      <c r="L32" s="166"/>
+      <c r="M32" s="166"/>
+      <c r="N32" s="166"/>
+      <c r="O32" s="166"/>
+      <c r="P32" s="167"/>
       <c r="R32" s="60"/>
       <c r="S32" s="91"/>
       <c r="T32" s="91"/>
@@ -20692,21 +20692,21 @@
     <row r="33" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B33" s="102"/>
       <c r="C33" s="103"/>
-      <c r="D33" s="168" t="s">
+      <c r="D33" s="166" t="s">
         <v>61</v>
       </c>
-      <c r="E33" s="168"/>
-      <c r="F33" s="168"/>
-      <c r="G33" s="168"/>
-      <c r="H33" s="168"/>
-      <c r="I33" s="168"/>
-      <c r="J33" s="168"/>
-      <c r="K33" s="168"/>
-      <c r="L33" s="168"/>
-      <c r="M33" s="168"/>
-      <c r="N33" s="168"/>
-      <c r="O33" s="168"/>
-      <c r="P33" s="169"/>
+      <c r="E33" s="166"/>
+      <c r="F33" s="166"/>
+      <c r="G33" s="166"/>
+      <c r="H33" s="166"/>
+      <c r="I33" s="166"/>
+      <c r="J33" s="166"/>
+      <c r="K33" s="166"/>
+      <c r="L33" s="166"/>
+      <c r="M33" s="166"/>
+      <c r="N33" s="166"/>
+      <c r="O33" s="166"/>
+      <c r="P33" s="167"/>
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
@@ -20714,21 +20714,21 @@
     <row r="34" spans="2:20" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="102"/>
       <c r="C34" s="103"/>
-      <c r="D34" s="170" t="s">
+      <c r="D34" s="160" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="170"/>
-      <c r="F34" s="170"/>
-      <c r="G34" s="170"/>
-      <c r="H34" s="170"/>
-      <c r="I34" s="170"/>
-      <c r="J34" s="170"/>
-      <c r="K34" s="170"/>
-      <c r="L34" s="170"/>
-      <c r="M34" s="170"/>
-      <c r="N34" s="170"/>
-      <c r="O34" s="170"/>
-      <c r="P34" s="171"/>
+      <c r="E34" s="160"/>
+      <c r="F34" s="160"/>
+      <c r="G34" s="160"/>
+      <c r="H34" s="160"/>
+      <c r="I34" s="160"/>
+      <c r="J34" s="160"/>
+      <c r="K34" s="160"/>
+      <c r="L34" s="160"/>
+      <c r="M34" s="160"/>
+      <c r="N34" s="160"/>
+      <c r="O34" s="160"/>
+      <c r="P34" s="161"/>
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
@@ -20736,21 +20736,21 @@
     <row r="35" spans="2:20" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B35" s="102"/>
       <c r="C35" s="103"/>
-      <c r="D35" s="170" t="s">
+      <c r="D35" s="160" t="s">
         <v>83</v>
       </c>
-      <c r="E35" s="170"/>
-      <c r="F35" s="170"/>
-      <c r="G35" s="170"/>
-      <c r="H35" s="170"/>
-      <c r="I35" s="170"/>
-      <c r="J35" s="170"/>
-      <c r="K35" s="170"/>
-      <c r="L35" s="170"/>
-      <c r="M35" s="170"/>
-      <c r="N35" s="170"/>
-      <c r="O35" s="170"/>
-      <c r="P35" s="171"/>
+      <c r="E35" s="160"/>
+      <c r="F35" s="160"/>
+      <c r="G35" s="160"/>
+      <c r="H35" s="160"/>
+      <c r="I35" s="160"/>
+      <c r="J35" s="160"/>
+      <c r="K35" s="160"/>
+      <c r="L35" s="160"/>
+      <c r="M35" s="160"/>
+      <c r="N35" s="160"/>
+      <c r="O35" s="160"/>
+      <c r="P35" s="161"/>
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
@@ -20758,21 +20758,21 @@
     <row r="36" spans="2:20" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B36" s="108"/>
       <c r="C36" s="109"/>
-      <c r="D36" s="172" t="s">
+      <c r="D36" s="162" t="s">
         <v>84</v>
       </c>
-      <c r="E36" s="172"/>
-      <c r="F36" s="172"/>
-      <c r="G36" s="172"/>
-      <c r="H36" s="172"/>
-      <c r="I36" s="172"/>
-      <c r="J36" s="172"/>
-      <c r="K36" s="172"/>
-      <c r="L36" s="172"/>
-      <c r="M36" s="172"/>
-      <c r="N36" s="172"/>
-      <c r="O36" s="172"/>
-      <c r="P36" s="173"/>
+      <c r="E36" s="162"/>
+      <c r="F36" s="162"/>
+      <c r="G36" s="162"/>
+      <c r="H36" s="162"/>
+      <c r="I36" s="162"/>
+      <c r="J36" s="162"/>
+      <c r="K36" s="162"/>
+      <c r="L36" s="162"/>
+      <c r="M36" s="162"/>
+      <c r="N36" s="162"/>
+      <c r="O36" s="162"/>
+      <c r="P36" s="163"/>
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
@@ -20849,14 +20849,18 @@
     </row>
   </sheetData>
   <mergeCells count="32">
-    <mergeCell ref="D35:P35"/>
-    <mergeCell ref="D36:P36"/>
-    <mergeCell ref="C29:P29"/>
-    <mergeCell ref="D30:P30"/>
-    <mergeCell ref="D31:P31"/>
-    <mergeCell ref="D32:P32"/>
-    <mergeCell ref="D33:P33"/>
-    <mergeCell ref="D34:P34"/>
+    <mergeCell ref="B14:P14"/>
+    <mergeCell ref="B2:P2"/>
+    <mergeCell ref="B3:P3"/>
+    <mergeCell ref="C4:P4"/>
+    <mergeCell ref="C5:P5"/>
+    <mergeCell ref="D6:P6"/>
+    <mergeCell ref="D7:P7"/>
+    <mergeCell ref="D8:P8"/>
+    <mergeCell ref="D9:P9"/>
+    <mergeCell ref="D10:P10"/>
+    <mergeCell ref="C11:P11"/>
+    <mergeCell ref="C12:P12"/>
     <mergeCell ref="D27:P27"/>
     <mergeCell ref="C15:P15"/>
     <mergeCell ref="D16:P16"/>
@@ -20869,18 +20873,14 @@
     <mergeCell ref="D24:P24"/>
     <mergeCell ref="D25:P25"/>
     <mergeCell ref="D26:P26"/>
-    <mergeCell ref="B14:P14"/>
-    <mergeCell ref="B2:P2"/>
-    <mergeCell ref="B3:P3"/>
-    <mergeCell ref="C4:P4"/>
-    <mergeCell ref="C5:P5"/>
-    <mergeCell ref="D6:P6"/>
-    <mergeCell ref="D7:P7"/>
-    <mergeCell ref="D8:P8"/>
-    <mergeCell ref="D9:P9"/>
-    <mergeCell ref="D10:P10"/>
-    <mergeCell ref="C11:P11"/>
-    <mergeCell ref="C12:P12"/>
+    <mergeCell ref="D35:P35"/>
+    <mergeCell ref="D36:P36"/>
+    <mergeCell ref="C29:P29"/>
+    <mergeCell ref="D30:P30"/>
+    <mergeCell ref="D31:P31"/>
+    <mergeCell ref="D32:P32"/>
+    <mergeCell ref="D33:P33"/>
+    <mergeCell ref="D34:P34"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
